--- a/FRC_Traj_Pkg/Misc/FRC_LabVIEW_Trajectory_Library_Routines.xlsx
+++ b/FRC_Traj_Pkg/Misc/FRC_LabVIEW_Trajectory_Library_Routines.xlsx
@@ -23,12 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10683" uniqueCount="1807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10766" uniqueCount="1823">
   <si>
     <t xml:space="preserve">WPILib LabVIEW Math Library – VI Implementation List</t>
   </si>
   <si>
-    <t xml:space="preserve">Revision 3.05   3/01/2023 – Added execute routines for state space sim and ctrl</t>
+    <t xml:space="preserve">Revision 3.07   3/20/2023 – Updated Ramsete Execute,, added Field Display</t>
   </si>
   <si>
     <t xml:space="preserve">This documents which Java/C++ WPILIB routines have been </t>
@@ -973,18 +973,18 @@
     <t xml:space="preserve"> calculate</t>
   </si>
   <si>
-    <t xml:space="preserve">Ramsete_Diff_DO_Eng.vi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramsete_Diff_DO_SI.vi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ramsete_Execute_ENG.vi</t>
   </si>
   <si>
     <t xml:space="preserve">Use this one!!</t>
   </si>
   <si>
+    <t xml:space="preserve">Ramsete_Execute_Ext_Odom.vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramsete_Execute_Ext_Odom_ENG.vi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ramsete_Execute_PackTuning_ENG.vi</t>
   </si>
   <si>
@@ -4936,6 +4936,45 @@
     <t xml:space="preserve">AprilTagPoseEstimate_New.vi</t>
   </si>
   <si>
+    <t xml:space="preserve">FIELD DISPLAY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FieldDisp_Element_Disp.vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FieldDisp_Element_Prepare.vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FieldDisp_Element_Rotate.vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FieldDisp_Element_Rotate_Init.vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FieldDisp_Field_Crop_and_Scale.vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FieldDisp_Field_Disp.vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FieldDisp_Field_Selector_Prepare.vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FieldDisp_Get_Field_Info.vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FieldDisp_Open_Field_Info_File.vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FieldDisp_Read_Field_Pic.vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FieldDisp_Read_Image_File.vi</t>
+  </si>
+  <si>
     <t xml:space="preserve">COMMUNICATIONS</t>
   </si>
   <si>
@@ -5096,6 +5135,15 @@
   </si>
   <si>
     <t xml:space="preserve">EXTENDED_KALMAN_FILTER.CTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FieldDisp_ElementPicture.ctl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FieldDisp_FieldElement.ctl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FieldDisp_Field_Info.ctl</t>
   </si>
   <si>
     <t xml:space="preserve">FLYWHEEL_SIM.ctl</t>
@@ -5856,64 +5904,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF33FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -5982,10 +5972,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AMI1812"/>
+  <dimension ref="A1:AMI1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1271" activeCellId="0" sqref="B1271"/>
+      <selection pane="topLeft" activeCell="E1716" activeCellId="0" sqref="E1716"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6095,35 +6085,35 @@
       </c>
       <c r="B9" s="13" t="n">
         <f aca="false">B10+B11</f>
-        <v>1275</v>
+        <v>1289</v>
       </c>
       <c r="C9" s="13" t="n">
         <f aca="false">C10+C11</f>
-        <v>1264</v>
+        <v>1268</v>
       </c>
       <c r="D9" s="13" t="n">
-        <f aca="false">COUNTIF(D24:D2138,"X")</f>
-        <v>431</v>
+        <f aca="false">COUNTIF(D24:D2155,"X")</f>
+        <v>442</v>
       </c>
       <c r="E9" s="13" t="n">
-        <f aca="false">COUNTIF(E24:E2138,"X")</f>
-        <v>1199</v>
+        <f aca="false">COUNTIF(E24:E2155,"X")</f>
+        <v>1204</v>
       </c>
       <c r="F9" s="13" t="n">
-        <f aca="false">COUNTIF(F24:F2138,"S")+COUNTIF(F24:F2138,"I")+COUNTIF(F24:F2138,"X")+COUNTIF(F24:F2138,"SI")+COUNTIF(F24:F2138,"IS")+COUNTIF(F24:F2138,"N/A")</f>
-        <v>765</v>
+        <f aca="false">COUNTIF(F24:F2155,"S")+COUNTIF(F24:F2155,"I")+COUNTIF(F24:F2155,"X")+COUNTIF(F24:F2155,"SI")+COUNTIF(F24:F2155,"IS")+COUNTIF(F24:F2155,"N/A")</f>
+        <v>768</v>
       </c>
       <c r="G9" s="13" t="n">
-        <f aca="false">COUNTIF(G24:G2138,"S")+COUNTIF(G24:G2138,"I")+COUNTIF(G24:G2138,"X")+COUNTIF(G24:G2138,"SI")+COUNTIF(G24:G2138,"IS")+COUNTIF(G24:G2138,"N/A")</f>
+        <f aca="false">COUNTIF(G24:G2155,"S")+COUNTIF(G24:G2155,"I")+COUNTIF(G24:G2155,"X")+COUNTIF(G24:G2155,"SI")+COUNTIF(G24:G2155,"IS")+COUNTIF(G24:G2155,"N/A")</f>
         <v>49</v>
       </c>
       <c r="H9" s="13" t="n">
-        <f aca="false">COUNTIF(H24:H2138,"S")+COUNTIF(H24:H2138,"I")+COUNTIF(H24:H2138,"X")+COUNTIF(H24:H2138,"SI")+COUNTIF(H24:H2138,"IS")+COUNTIF(H24:H2138,"N/A")</f>
-        <v>12</v>
+        <f aca="false">COUNTIF(H24:H2155,"S")+COUNTIF(H24:H2155,"I")+COUNTIF(H24:H2155,"X")+COUNTIF(H24:H2155,"SI")+COUNTIF(H24:H2155,"IS")+COUNTIF(H24:H2155,"N/A")</f>
+        <v>16</v>
       </c>
       <c r="I9" s="14" t="n">
         <f aca="false">C9/B9</f>
-        <v>0.991372549019608</v>
+        <v>0.983708301008534</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6131,12 +6121,12 @@
         <v>14</v>
       </c>
       <c r="B10" s="13" t="n">
-        <f aca="false">COUNTIF(B24:B2138,"X")</f>
-        <v>1125</v>
+        <f aca="false">COUNTIF(B24:B2155,"X")</f>
+        <v>1136</v>
       </c>
       <c r="C10" s="13" t="n">
-        <f aca="false">COUNTIF(C24:C2138,"X")</f>
-        <v>1123</v>
+        <f aca="false">COUNTIF(C24:C2155,"X")</f>
+        <v>1127</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>15</v>
@@ -6147,16 +6137,16 @@
         <v>16</v>
       </c>
       <c r="B11" s="13" t="n">
-        <f aca="false">COUNTIF(B24:B2138,"Z")</f>
-        <v>150</v>
+        <f aca="false">COUNTIF(B24:B2155,"Z")</f>
+        <v>153</v>
       </c>
       <c r="C11" s="13" t="n">
-        <f aca="false">COUNTIF(C24:C2138,"Z")</f>
+        <f aca="false">COUNTIF(C24:C2155,"Z")</f>
         <v>141</v>
       </c>
       <c r="I11" s="15" t="n">
         <f aca="false">F9/B9</f>
-        <v>0.6</v>
+        <v>0.595810705973623</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6164,7 +6154,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="13" t="n">
-        <f aca="false">COUNTIF(B24:B2138,"/")</f>
+        <f aca="false">COUNTIF(B24:B2155,"/")</f>
         <v>4</v>
       </c>
       <c r="I12" s="4"/>
@@ -6174,7 +6164,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="13" t="n">
-        <f aca="false">COUNTIF(B24:B2138,"\")</f>
+        <f aca="false">COUNTIF(B24:B2155,"\")</f>
         <v>2</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -14681,7 +14671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="19"/>
       <c r="B308" s="23" t="s">
         <v>32</v>
@@ -14695,15 +14685,17 @@
       <c r="E308" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F308" s="26" t="s">
-        <v>32</v>
+      <c r="F308" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="G308" s="23"/>
       <c r="H308" s="23"/>
       <c r="I308" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="J308" s="24"/>
+      <c r="J308" s="24" t="s">
+        <v>317</v>
+      </c>
       <c r="K308" s="24"/>
       <c r="L308" s="23"/>
       <c r="M308" s="23"/>
@@ -14712,7 +14704,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="19"/>
       <c r="B309" s="23" t="s">
         <v>32</v>
@@ -14726,22 +14718,20 @@
       <c r="E309" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F309" s="26" t="s">
-        <v>32</v>
+      <c r="F309" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="G309" s="23"/>
       <c r="H309" s="23"/>
       <c r="I309" s="24" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J309" s="24"/>
       <c r="K309" s="24"/>
       <c r="L309" s="23"/>
       <c r="M309" s="23"/>
       <c r="N309" s="23"/>
-      <c r="O309" s="25" t="s">
-        <v>36</v>
-      </c>
+      <c r="O309" s="25"/>
     </row>
     <row r="310" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="19"/>
@@ -14763,18 +14753,14 @@
       <c r="G310" s="23"/>
       <c r="H310" s="23"/>
       <c r="I310" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="J310" s="24" t="s">
         <v>319</v>
       </c>
+      <c r="J310" s="24"/>
       <c r="K310" s="24"/>
       <c r="L310" s="23"/>
       <c r="M310" s="23"/>
       <c r="N310" s="23"/>
-      <c r="O310" s="25" t="s">
-        <v>36</v>
-      </c>
+      <c r="O310" s="25"/>
     </row>
     <row r="311" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="19"/>
@@ -54830,172 +54816,191 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1642" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1642" s="17"/>
-      <c r="C1642" s="18"/>
-      <c r="D1642" s="18"/>
-      <c r="E1642" s="18"/>
-      <c r="F1642" s="18"/>
-      <c r="G1642" s="18"/>
-      <c r="H1642" s="18"/>
-      <c r="I1642" s="1"/>
-      <c r="J1642" s="1"/>
-      <c r="K1642" s="1"/>
-      <c r="L1642" s="1"/>
-      <c r="M1642" s="1"/>
-      <c r="N1642" s="1"/>
+    <row r="1642" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1642" s="19"/>
+      <c r="B1642" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1642" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1642" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1642" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1642" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1642" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1642" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1642" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1642" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1642" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1642" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1642" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1642" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="O1642" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="P1642" s="1"/>
     </row>
     <row r="1643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1643" s="16" t="s">
+      <c r="A1643" s="22" t="s">
         <v>1637</v>
       </c>
-      <c r="B1643" s="17"/>
-      <c r="C1643" s="18"/>
-      <c r="D1643" s="18"/>
-      <c r="E1643" s="18"/>
-      <c r="F1643" s="18"/>
-      <c r="G1643" s="18"/>
-      <c r="H1643" s="18"/>
-      <c r="I1643" s="1"/>
-      <c r="J1643" s="1"/>
-      <c r="K1643" s="1"/>
-      <c r="L1643" s="1"/>
-      <c r="M1643" s="1"/>
-      <c r="N1643" s="1"/>
+      <c r="B1643" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1643" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1643" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1643" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1643" s="23"/>
+      <c r="G1643" s="23"/>
+      <c r="H1643" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1643" s="24" t="s">
+        <v>1638</v>
+      </c>
+      <c r="J1643" s="24"/>
+      <c r="K1643" s="24"/>
+      <c r="L1643" s="23"/>
+      <c r="M1643" s="23"/>
+      <c r="N1643" s="23"/>
       <c r="O1643" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="P1643" s="1"/>
     </row>
     <row r="1644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1644" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1644" s="17"/>
-      <c r="C1644" s="18"/>
-      <c r="D1644" s="18"/>
-      <c r="E1644" s="18"/>
-      <c r="F1644" s="18"/>
-      <c r="G1644" s="18"/>
-      <c r="H1644" s="18"/>
-      <c r="I1644" s="1"/>
-      <c r="J1644" s="1"/>
-      <c r="K1644" s="1"/>
-      <c r="L1644" s="1"/>
-      <c r="M1644" s="1"/>
-      <c r="N1644" s="1"/>
+      <c r="B1644" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1644" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1644" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1644" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1644" s="23"/>
+      <c r="G1644" s="23"/>
+      <c r="H1644" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1644" s="24" t="s">
+        <v>1639</v>
+      </c>
+      <c r="J1644" s="24"/>
+      <c r="K1644" s="24"/>
+      <c r="L1644" s="23"/>
+      <c r="M1644" s="23"/>
+      <c r="N1644" s="23"/>
       <c r="O1644" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="P1644" s="1"/>
     </row>
     <row r="1645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1645" s="1"/>
-      <c r="C1645" s="1"/>
-      <c r="D1645" s="1"/>
-      <c r="E1645" s="1"/>
-      <c r="F1645" s="1"/>
-      <c r="G1645" s="1"/>
-      <c r="H1645" s="1"/>
-      <c r="I1645" s="1"/>
-      <c r="J1645" s="1"/>
-      <c r="K1645" s="1"/>
-      <c r="L1645" s="1"/>
-      <c r="M1645" s="1"/>
-      <c r="N1645" s="1"/>
+      <c r="B1645" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1645" s="23"/>
+      <c r="D1645" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1645" s="23" t="s">
+        <v>1640</v>
+      </c>
+      <c r="F1645" s="23"/>
+      <c r="G1645" s="23"/>
+      <c r="H1645" s="23"/>
+      <c r="I1645" s="24" t="s">
+        <v>1641</v>
+      </c>
+      <c r="J1645" s="24"/>
+      <c r="K1645" s="24"/>
+      <c r="L1645" s="23"/>
+      <c r="M1645" s="23"/>
+      <c r="N1645" s="23"/>
       <c r="O1645" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="P1645" s="1"/>
-    </row>
-    <row r="1646" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1646" s="19"/>
-      <c r="B1646" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1646" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1646" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1646" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1646" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1646" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1646" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1646" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1646" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1646" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1646" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1646" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1646" s="11" t="s">
-        <v>29</v>
-      </c>
+    </row>
+    <row r="1646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1646" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1646" s="23"/>
+      <c r="D1646" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1646" s="23" t="s">
+        <v>1640</v>
+      </c>
+      <c r="F1646" s="23"/>
+      <c r="G1646" s="23"/>
+      <c r="H1646" s="23"/>
+      <c r="I1646" s="24" t="s">
+        <v>1642</v>
+      </c>
+      <c r="J1646" s="24"/>
+      <c r="K1646" s="24"/>
+      <c r="L1646" s="23"/>
+      <c r="M1646" s="23"/>
+      <c r="N1646" s="23"/>
       <c r="O1646" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="P1646" s="1"/>
-    </row>
-    <row r="1647" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1647" s="22" t="s">
-        <v>1638</v>
-      </c>
+    </row>
+    <row r="1647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1647" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C1647" s="23" t="s">
-        <v>32</v>
-      </c>
+      <c r="C1647" s="23"/>
       <c r="D1647" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E1647" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1647" s="23" t="s">
-        <v>43</v>
-      </c>
+        <v>1640</v>
+      </c>
+      <c r="F1647" s="23"/>
       <c r="G1647" s="23"/>
       <c r="H1647" s="23"/>
       <c r="I1647" s="24" t="s">
-        <v>1639</v>
+        <v>1643</v>
       </c>
       <c r="J1647" s="24"/>
       <c r="K1647" s="24"/>
       <c r="L1647" s="23"/>
       <c r="M1647" s="23"/>
       <c r="N1647" s="23"/>
-      <c r="O1647" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1647" s="1"/>
-    </row>
-    <row r="1648" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O1647" s="25"/>
+    </row>
+    <row r="1648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1648" s="23" t="s">
         <v>32</v>
       </c>
@@ -55008,25 +55013,22 @@
       <c r="E1648" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F1648" s="23" t="s">
-        <v>33</v>
-      </c>
+      <c r="F1648" s="23"/>
       <c r="G1648" s="23"/>
-      <c r="H1648" s="23"/>
+      <c r="H1648" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="I1648" s="24" t="s">
-        <v>1640</v>
+        <v>1644</v>
       </c>
       <c r="J1648" s="24"/>
       <c r="K1648" s="24"/>
       <c r="L1648" s="23"/>
       <c r="M1648" s="23"/>
       <c r="N1648" s="23"/>
-      <c r="O1648" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1648" s="1"/>
-    </row>
-    <row r="1649" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O1648" s="25"/>
+    </row>
+    <row r="1649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1649" s="23" t="s">
         <v>32</v>
       </c>
@@ -55039,111 +55041,147 @@
       <c r="E1649" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F1649" s="23" t="s">
-        <v>33</v>
-      </c>
+      <c r="F1649" s="23"/>
       <c r="G1649" s="23"/>
-      <c r="H1649" s="23"/>
+      <c r="H1649" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="I1649" s="24" t="s">
-        <v>1641</v>
+        <v>1645</v>
       </c>
       <c r="J1649" s="24"/>
       <c r="K1649" s="24"/>
       <c r="L1649" s="23"/>
       <c r="M1649" s="23"/>
       <c r="N1649" s="23"/>
-      <c r="O1649" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1649" s="1"/>
-    </row>
-    <row r="1650" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1650" s="23"/>
+      <c r="O1649" s="25"/>
+    </row>
+    <row r="1650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1650" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="C1650" s="23"/>
-      <c r="D1650" s="23"/>
-      <c r="E1650" s="23"/>
+      <c r="D1650" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1650" s="23" t="s">
+        <v>1640</v>
+      </c>
       <c r="F1650" s="23"/>
       <c r="G1650" s="23"/>
       <c r="H1650" s="23"/>
-      <c r="I1650" s="24"/>
+      <c r="I1650" s="24" t="s">
+        <v>1646</v>
+      </c>
       <c r="J1650" s="24"/>
       <c r="K1650" s="24"/>
       <c r="L1650" s="23"/>
       <c r="M1650" s="23"/>
       <c r="N1650" s="23"/>
-      <c r="O1650" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1650" s="1"/>
+      <c r="O1650" s="25"/>
     </row>
     <row r="1651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1651" s="25"/>
-      <c r="C1651" s="1"/>
-      <c r="D1651" s="1"/>
-      <c r="E1651" s="1"/>
-      <c r="F1651" s="1"/>
-      <c r="G1651" s="1"/>
-      <c r="H1651" s="1"/>
-      <c r="I1651" s="1"/>
-      <c r="J1651" s="1"/>
-      <c r="K1651" s="1"/>
-      <c r="L1651" s="1"/>
-      <c r="M1651" s="1"/>
-      <c r="N1651" s="1"/>
-      <c r="O1651" s="25" t="s">
-        <v>36</v>
-      </c>
+      <c r="B1651" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1651" s="23"/>
+      <c r="D1651" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1651" s="23" t="s">
+        <v>1640</v>
+      </c>
+      <c r="F1651" s="23"/>
+      <c r="G1651" s="23"/>
+      <c r="H1651" s="23"/>
+      <c r="I1651" s="24" t="s">
+        <v>1647</v>
+      </c>
+      <c r="J1651" s="24"/>
+      <c r="K1651" s="24"/>
+      <c r="L1651" s="23"/>
+      <c r="M1651" s="23"/>
+      <c r="N1651" s="23"/>
+      <c r="O1651" s="25"/>
     </row>
     <row r="1652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1652" s="25"/>
-      <c r="C1652" s="1"/>
-      <c r="D1652" s="1"/>
-      <c r="E1652" s="1"/>
-      <c r="F1652" s="1"/>
-      <c r="G1652" s="1"/>
-      <c r="H1652" s="1"/>
-      <c r="I1652" s="1"/>
-      <c r="J1652" s="1"/>
-      <c r="K1652" s="1"/>
-      <c r="L1652" s="1"/>
-      <c r="M1652" s="1"/>
-      <c r="N1652" s="1"/>
-      <c r="O1652" s="25" t="s">
-        <v>36</v>
-      </c>
+      <c r="B1652" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1652" s="23"/>
+      <c r="D1652" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1652" s="23" t="s">
+        <v>1640</v>
+      </c>
+      <c r="F1652" s="23"/>
+      <c r="G1652" s="23"/>
+      <c r="H1652" s="23"/>
+      <c r="I1652" s="24" t="s">
+        <v>1648</v>
+      </c>
+      <c r="J1652" s="24"/>
+      <c r="K1652" s="24"/>
+      <c r="L1652" s="23"/>
+      <c r="M1652" s="23"/>
+      <c r="N1652" s="23"/>
+      <c r="O1652" s="25"/>
     </row>
     <row r="1653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1653" s="9"/>
-      <c r="O1653" s="25" t="s">
-        <v>36</v>
-      </c>
+      <c r="B1653" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1653" s="23"/>
+      <c r="D1653" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1653" s="23" t="s">
+        <v>1640</v>
+      </c>
+      <c r="F1653" s="23"/>
+      <c r="G1653" s="23"/>
+      <c r="H1653" s="23"/>
+      <c r="I1653" s="24" t="s">
+        <v>1649</v>
+      </c>
+      <c r="J1653" s="24"/>
+      <c r="K1653" s="24"/>
+      <c r="L1653" s="23"/>
+      <c r="M1653" s="23"/>
+      <c r="N1653" s="23"/>
+      <c r="O1653" s="25"/>
     </row>
     <row r="1654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1654" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1654" s="17"/>
-      <c r="C1654" s="18"/>
-      <c r="D1654" s="18"/>
-      <c r="E1654" s="18"/>
-      <c r="F1654" s="18"/>
-      <c r="G1654" s="18"/>
-      <c r="H1654" s="18"/>
-      <c r="O1654" s="25" t="s">
-        <v>36</v>
-      </c>
+      <c r="B1654" s="23"/>
+      <c r="C1654" s="23"/>
+      <c r="D1654" s="23"/>
+      <c r="E1654" s="23"/>
+      <c r="F1654" s="23"/>
+      <c r="G1654" s="23"/>
+      <c r="H1654" s="23"/>
+      <c r="I1654" s="24"/>
+      <c r="J1654" s="24"/>
+      <c r="K1654" s="24"/>
+      <c r="L1654" s="23"/>
+      <c r="M1654" s="23"/>
+      <c r="N1654" s="23"/>
+      <c r="O1654" s="25"/>
     </row>
     <row r="1655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1655" s="16" t="s">
-        <v>1642</v>
-      </c>
-      <c r="B1655" s="17"/>
-      <c r="C1655" s="18"/>
-      <c r="D1655" s="18"/>
-      <c r="E1655" s="18"/>
-      <c r="F1655" s="18"/>
-      <c r="G1655" s="18"/>
-      <c r="H1655" s="18"/>
+      <c r="B1655" s="25"/>
+      <c r="C1655" s="1"/>
+      <c r="D1655" s="1"/>
+      <c r="E1655" s="1"/>
+      <c r="F1655" s="1"/>
+      <c r="G1655" s="1"/>
+      <c r="H1655" s="1"/>
+      <c r="I1655" s="1"/>
+      <c r="J1655" s="1"/>
+      <c r="K1655" s="1"/>
+      <c r="L1655" s="1"/>
+      <c r="M1655" s="1"/>
+      <c r="N1655" s="1"/>
       <c r="O1655" s="25" t="s">
         <v>36</v>
       </c>
@@ -55159,148 +55197,135 @@
       <c r="F1656" s="18"/>
       <c r="G1656" s="18"/>
       <c r="H1656" s="18"/>
+      <c r="I1656" s="1"/>
+      <c r="J1656" s="1"/>
+      <c r="K1656" s="1"/>
+      <c r="L1656" s="1"/>
+      <c r="M1656" s="1"/>
+      <c r="N1656" s="1"/>
       <c r="O1656" s="25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="1657" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1657" s="9"/>
-      <c r="B1657" s="11" t="s">
+      <c r="P1656" s="1"/>
+    </row>
+    <row r="1657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1657" s="16" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B1657" s="17"/>
+      <c r="C1657" s="18"/>
+      <c r="D1657" s="18"/>
+      <c r="E1657" s="18"/>
+      <c r="F1657" s="18"/>
+      <c r="G1657" s="18"/>
+      <c r="H1657" s="18"/>
+      <c r="I1657" s="1"/>
+      <c r="J1657" s="1"/>
+      <c r="K1657" s="1"/>
+      <c r="L1657" s="1"/>
+      <c r="M1657" s="1"/>
+      <c r="N1657" s="1"/>
+      <c r="O1657" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1657" s="1"/>
+    </row>
+    <row r="1658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1658" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1658" s="17"/>
+      <c r="C1658" s="18"/>
+      <c r="D1658" s="18"/>
+      <c r="E1658" s="18"/>
+      <c r="F1658" s="18"/>
+      <c r="G1658" s="18"/>
+      <c r="H1658" s="18"/>
+      <c r="I1658" s="1"/>
+      <c r="J1658" s="1"/>
+      <c r="K1658" s="1"/>
+      <c r="L1658" s="1"/>
+      <c r="M1658" s="1"/>
+      <c r="N1658" s="1"/>
+      <c r="O1658" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1658" s="1"/>
+    </row>
+    <row r="1659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1659" s="1"/>
+      <c r="C1659" s="1"/>
+      <c r="D1659" s="1"/>
+      <c r="E1659" s="1"/>
+      <c r="F1659" s="1"/>
+      <c r="G1659" s="1"/>
+      <c r="H1659" s="1"/>
+      <c r="I1659" s="1"/>
+      <c r="J1659" s="1"/>
+      <c r="K1659" s="1"/>
+      <c r="L1659" s="1"/>
+      <c r="M1659" s="1"/>
+      <c r="N1659" s="1"/>
+      <c r="O1659" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1659" s="1"/>
+    </row>
+    <row r="1660" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1660" s="19"/>
+      <c r="B1660" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C1657" s="11" t="s">
+      <c r="C1660" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D1657" s="11" t="s">
+      <c r="D1660" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E1657" s="11" t="s">
+      <c r="E1660" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F1657" s="11" t="s">
+      <c r="F1660" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G1657" s="11" t="s">
+      <c r="G1660" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H1657" s="11" t="s">
+      <c r="H1660" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I1657" s="21" t="s">
+      <c r="I1660" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="J1657" s="21" t="s">
+      <c r="J1660" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K1657" s="21" t="s">
+      <c r="K1660" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="L1657" s="11" t="s">
+      <c r="L1660" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M1657" s="11" t="s">
+      <c r="M1660" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N1657" s="11" t="s">
+      <c r="N1660" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O1657" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1658" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1658" s="22" t="s">
-        <v>1643</v>
-      </c>
-      <c r="B1658" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C1658" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D1658" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1658" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1658" s="23" t="s">
-        <v>977</v>
-      </c>
-      <c r="G1658" s="23"/>
-      <c r="H1658" s="23"/>
-      <c r="I1658" s="24" t="s">
-        <v>1645</v>
-      </c>
-      <c r="J1658" s="24"/>
-      <c r="K1658" s="24"/>
-      <c r="O1658" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1659" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1659" s="22"/>
-      <c r="B1659" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C1659" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D1659" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1659" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1659" s="23" t="s">
-        <v>977</v>
-      </c>
-      <c r="G1659" s="23"/>
-      <c r="H1659" s="23"/>
-      <c r="I1659" s="24" t="s">
-        <v>1646</v>
-      </c>
-      <c r="J1659" s="24"/>
-      <c r="K1659" s="24"/>
-      <c r="O1659" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1660" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1660" s="22"/>
-      <c r="B1660" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C1660" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D1660" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1660" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1660" s="23" t="s">
-        <v>977</v>
-      </c>
-      <c r="G1660" s="23"/>
-      <c r="H1660" s="23"/>
-      <c r="I1660" s="24" t="s">
-        <v>1647</v>
-      </c>
-      <c r="J1660" s="24"/>
-      <c r="K1660" s="24"/>
       <c r="O1660" s="25" t="s">
         <v>36</v>
       </c>
+      <c r="P1660" s="1"/>
     </row>
     <row r="1661" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1661" s="22"/>
+      <c r="A1661" s="22" t="s">
+        <v>1651</v>
+      </c>
       <c r="B1661" s="23" t="s">
-        <v>1644</v>
+        <v>32</v>
       </c>
       <c r="C1661" s="23" t="s">
-        <v>1644</v>
+        <v>32</v>
       </c>
       <c r="D1661" s="23" t="s">
         <v>32</v>
@@ -55309,26 +55334,29 @@
         <v>32</v>
       </c>
       <c r="F1661" s="23" t="s">
-        <v>977</v>
+        <v>43</v>
       </c>
       <c r="G1661" s="23"/>
       <c r="H1661" s="23"/>
       <c r="I1661" s="24" t="s">
-        <v>1648</v>
+        <v>1652</v>
       </c>
       <c r="J1661" s="24"/>
       <c r="K1661" s="24"/>
+      <c r="L1661" s="23"/>
+      <c r="M1661" s="23"/>
+      <c r="N1661" s="23"/>
       <c r="O1661" s="25" t="s">
         <v>36</v>
       </c>
+      <c r="P1661" s="1"/>
     </row>
     <row r="1662" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1662" s="22"/>
       <c r="B1662" s="23" t="s">
-        <v>1644</v>
+        <v>32</v>
       </c>
       <c r="C1662" s="23" t="s">
-        <v>1644</v>
+        <v>32</v>
       </c>
       <c r="D1662" s="23" t="s">
         <v>32</v>
@@ -55337,26 +55365,29 @@
         <v>32</v>
       </c>
       <c r="F1662" s="23" t="s">
-        <v>977</v>
+        <v>33</v>
       </c>
       <c r="G1662" s="23"/>
       <c r="H1662" s="23"/>
       <c r="I1662" s="24" t="s">
-        <v>1649</v>
+        <v>1653</v>
       </c>
       <c r="J1662" s="24"/>
       <c r="K1662" s="24"/>
+      <c r="L1662" s="23"/>
+      <c r="M1662" s="23"/>
+      <c r="N1662" s="23"/>
       <c r="O1662" s="25" t="s">
         <v>36</v>
       </c>
+      <c r="P1662" s="1"/>
     </row>
     <row r="1663" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1663" s="22"/>
       <c r="B1663" s="23" t="s">
-        <v>1644</v>
+        <v>32</v>
       </c>
       <c r="C1663" s="23" t="s">
-        <v>1644</v>
+        <v>32</v>
       </c>
       <c r="D1663" s="23" t="s">
         <v>32</v>
@@ -55365,279 +55396,214 @@
         <v>32</v>
       </c>
       <c r="F1663" s="23" t="s">
-        <v>977</v>
+        <v>33</v>
       </c>
       <c r="G1663" s="23"/>
       <c r="H1663" s="23"/>
       <c r="I1663" s="24" t="s">
-        <v>1650</v>
+        <v>1654</v>
       </c>
       <c r="J1663" s="24"/>
       <c r="K1663" s="24"/>
+      <c r="L1663" s="23"/>
+      <c r="M1663" s="23"/>
+      <c r="N1663" s="23"/>
       <c r="O1663" s="25" t="s">
         <v>36</v>
       </c>
+      <c r="P1663" s="1"/>
     </row>
     <row r="1664" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1664" s="22"/>
-      <c r="B1664" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C1664" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D1664" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1664" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1664" s="23" t="s">
-        <v>977</v>
-      </c>
+      <c r="B1664" s="23"/>
+      <c r="C1664" s="23"/>
+      <c r="D1664" s="23"/>
+      <c r="E1664" s="23"/>
+      <c r="F1664" s="23"/>
       <c r="G1664" s="23"/>
       <c r="H1664" s="23"/>
-      <c r="I1664" s="24" t="s">
-        <v>1651</v>
-      </c>
+      <c r="I1664" s="24"/>
       <c r="J1664" s="24"/>
       <c r="K1664" s="24"/>
+      <c r="L1664" s="23"/>
+      <c r="M1664" s="23"/>
+      <c r="N1664" s="23"/>
       <c r="O1664" s="25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="1665" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1665" s="22"/>
-      <c r="B1665" s="30" t="s">
-        <v>1652</v>
-      </c>
-      <c r="C1665" s="28"/>
-      <c r="D1665" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1665" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1665" s="23" t="s">
+      <c r="P1664" s="1"/>
+    </row>
+    <row r="1665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1665" s="25"/>
+      <c r="C1665" s="1"/>
+      <c r="D1665" s="1"/>
+      <c r="E1665" s="1"/>
+      <c r="F1665" s="1"/>
+      <c r="G1665" s="1"/>
+      <c r="H1665" s="1"/>
+      <c r="I1665" s="1"/>
+      <c r="J1665" s="1"/>
+      <c r="K1665" s="1"/>
+      <c r="L1665" s="1"/>
+      <c r="M1665" s="1"/>
+      <c r="N1665" s="1"/>
+      <c r="O1665" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1666" s="25"/>
+      <c r="C1666" s="1"/>
+      <c r="D1666" s="1"/>
+      <c r="E1666" s="1"/>
+      <c r="F1666" s="1"/>
+      <c r="G1666" s="1"/>
+      <c r="H1666" s="1"/>
+      <c r="I1666" s="1"/>
+      <c r="J1666" s="1"/>
+      <c r="K1666" s="1"/>
+      <c r="L1666" s="1"/>
+      <c r="M1666" s="1"/>
+      <c r="N1666" s="1"/>
+      <c r="O1666" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1667" s="9"/>
+      <c r="O1667" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1668" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1668" s="17"/>
+      <c r="C1668" s="18"/>
+      <c r="D1668" s="18"/>
+      <c r="E1668" s="18"/>
+      <c r="F1668" s="18"/>
+      <c r="G1668" s="18"/>
+      <c r="H1668" s="18"/>
+      <c r="O1668" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1669" s="16" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B1669" s="17"/>
+      <c r="C1669" s="18"/>
+      <c r="D1669" s="18"/>
+      <c r="E1669" s="18"/>
+      <c r="F1669" s="18"/>
+      <c r="G1669" s="18"/>
+      <c r="H1669" s="18"/>
+      <c r="O1669" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1670" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1670" s="17"/>
+      <c r="C1670" s="18"/>
+      <c r="D1670" s="18"/>
+      <c r="E1670" s="18"/>
+      <c r="F1670" s="18"/>
+      <c r="G1670" s="18"/>
+      <c r="H1670" s="18"/>
+      <c r="O1670" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1671" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1671" s="9"/>
+      <c r="B1671" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1671" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1671" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1671" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1671" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1671" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1671" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1671" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1671" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1671" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1671" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1671" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1671" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1671" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1672" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1672" s="22" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B1672" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C1672" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D1672" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1672" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1672" s="23" t="s">
         <v>977</v>
       </c>
-      <c r="G1665" s="23"/>
-      <c r="H1665" s="23"/>
-      <c r="I1665" s="24" t="s">
-        <v>1653</v>
-      </c>
-      <c r="J1665" s="24"/>
-      <c r="K1665" s="24" t="s">
-        <v>1654</v>
-      </c>
-      <c r="O1665" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1666" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1666" s="22"/>
-      <c r="B1666" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C1666" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D1666" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1666" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1666" s="23" t="s">
-        <v>977</v>
-      </c>
-      <c r="G1666" s="23"/>
-      <c r="H1666" s="23"/>
-      <c r="I1666" s="24" t="s">
-        <v>1655</v>
-      </c>
-      <c r="J1666" s="24"/>
-      <c r="K1666" s="24"/>
-      <c r="O1666" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1667" s="22"/>
-      <c r="B1667" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C1667" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D1667" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1667" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1667" s="23" t="s">
-        <v>977</v>
-      </c>
-      <c r="G1667" s="23"/>
-      <c r="H1667" s="23"/>
-      <c r="I1667" s="24" t="s">
-        <v>1656</v>
-      </c>
-      <c r="J1667" s="24"/>
-      <c r="K1667" s="24"/>
-      <c r="O1667" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1668" s="9"/>
-      <c r="B1668" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C1668" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D1668" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1668" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1668" s="23" t="s">
-        <v>977</v>
-      </c>
-      <c r="G1668" s="23"/>
-      <c r="H1668" s="23"/>
-      <c r="I1668" s="24" t="s">
+      <c r="G1672" s="23"/>
+      <c r="H1672" s="23"/>
+      <c r="I1672" s="24" t="s">
+        <v>1658</v>
+      </c>
+      <c r="J1672" s="24"/>
+      <c r="K1672" s="24"/>
+      <c r="O1672" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1673" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1673" s="22"/>
+      <c r="B1673" s="23" t="s">
         <v>1657</v>
       </c>
-      <c r="J1668" s="24"/>
-      <c r="K1668" s="24"/>
-      <c r="O1668" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1669" s="9"/>
-      <c r="B1669" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C1669" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D1669" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1669" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1669" s="23" t="s">
-        <v>977</v>
-      </c>
-      <c r="G1669" s="23"/>
-      <c r="H1669" s="23"/>
-      <c r="I1669" s="24" t="s">
-        <v>1658</v>
-      </c>
-      <c r="J1669" s="24"/>
-      <c r="K1669" s="24"/>
-      <c r="O1669" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1670" s="9"/>
-      <c r="B1670" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C1670" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D1670" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1670" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1670" s="23" t="s">
-        <v>977</v>
-      </c>
-      <c r="G1670" s="23"/>
-      <c r="H1670" s="23"/>
-      <c r="I1670" s="24" t="s">
-        <v>1659</v>
-      </c>
-      <c r="J1670" s="24"/>
-      <c r="K1670" s="24"/>
-      <c r="O1670" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1671" s="9"/>
-      <c r="B1671" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C1671" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D1671" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1671" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1671" s="23" t="s">
-        <v>977</v>
-      </c>
-      <c r="G1671" s="23"/>
-      <c r="H1671" s="23"/>
-      <c r="I1671" s="48" t="s">
-        <v>1660</v>
-      </c>
-      <c r="J1671" s="24"/>
-      <c r="K1671" s="24"/>
-      <c r="O1671" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1672" s="9"/>
-      <c r="B1672" s="30" t="s">
-        <v>933</v>
-      </c>
-      <c r="C1672" s="30"/>
-      <c r="D1672" s="30" t="s">
-        <v>933</v>
-      </c>
-      <c r="E1672" s="30"/>
-      <c r="F1672" s="30" t="s">
-        <v>933</v>
-      </c>
-      <c r="G1672" s="30"/>
-      <c r="H1672" s="30"/>
-      <c r="I1672" s="51" t="s">
-        <v>1661</v>
-      </c>
-      <c r="J1672" s="24"/>
-      <c r="K1672" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="O1672" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1673" s="9"/>
-      <c r="B1673" s="23" t="s">
-        <v>1644</v>
-      </c>
       <c r="C1673" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1673" s="23" t="s">
-        <v>1644</v>
+        <v>32</v>
       </c>
       <c r="E1673" s="23" t="s">
         <v>32</v>
@@ -55647,8 +55613,8 @@
       </c>
       <c r="G1673" s="23"/>
       <c r="H1673" s="23"/>
-      <c r="I1673" s="48" t="s">
-        <v>1662</v>
+      <c r="I1673" s="24" t="s">
+        <v>1659</v>
       </c>
       <c r="J1673" s="24"/>
       <c r="K1673" s="24"/>
@@ -55656,13 +55622,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1674" s="9"/>
+    <row r="1674" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1674" s="22"/>
       <c r="B1674" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1674" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1674" s="23" t="s">
         <v>32</v>
@@ -55675,8 +55641,8 @@
       </c>
       <c r="G1674" s="23"/>
       <c r="H1674" s="23"/>
-      <c r="I1674" s="48" t="s">
-        <v>1663</v>
+      <c r="I1674" s="24" t="s">
+        <v>1660</v>
       </c>
       <c r="J1674" s="24"/>
       <c r="K1674" s="24"/>
@@ -55684,13 +55650,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1675" s="9"/>
+    <row r="1675" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1675" s="22"/>
       <c r="B1675" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1675" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1675" s="23" t="s">
         <v>32</v>
@@ -55703,8 +55669,8 @@
       </c>
       <c r="G1675" s="23"/>
       <c r="H1675" s="23"/>
-      <c r="I1675" s="48" t="s">
-        <v>1664</v>
+      <c r="I1675" s="24" t="s">
+        <v>1661</v>
       </c>
       <c r="J1675" s="24"/>
       <c r="K1675" s="24"/>
@@ -55712,13 +55678,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1676" s="9"/>
+    <row r="1676" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1676" s="22"/>
       <c r="B1676" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1676" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1676" s="23" t="s">
         <v>32</v>
@@ -55731,8 +55697,8 @@
       </c>
       <c r="G1676" s="23"/>
       <c r="H1676" s="23"/>
-      <c r="I1676" s="48" t="s">
-        <v>1665</v>
+      <c r="I1676" s="24" t="s">
+        <v>1662</v>
       </c>
       <c r="J1676" s="24"/>
       <c r="K1676" s="24"/>
@@ -55740,13 +55706,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1677" s="9"/>
+    <row r="1677" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1677" s="22"/>
       <c r="B1677" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1677" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1677" s="23" t="s">
         <v>32</v>
@@ -55759,8 +55725,8 @@
       </c>
       <c r="G1677" s="23"/>
       <c r="H1677" s="23"/>
-      <c r="I1677" s="48" t="s">
-        <v>1666</v>
+      <c r="I1677" s="24" t="s">
+        <v>1663</v>
       </c>
       <c r="J1677" s="24"/>
       <c r="K1677" s="24"/>
@@ -55768,13 +55734,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1678" s="9"/>
+    <row r="1678" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1678" s="22"/>
       <c r="B1678" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1678" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1678" s="23" t="s">
         <v>32</v>
@@ -55787,8 +55753,8 @@
       </c>
       <c r="G1678" s="23"/>
       <c r="H1678" s="23"/>
-      <c r="I1678" s="48" t="s">
-        <v>1667</v>
+      <c r="I1678" s="24" t="s">
+        <v>1664</v>
       </c>
       <c r="J1678" s="24"/>
       <c r="K1678" s="24"/>
@@ -55796,14 +55762,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1679" s="9"/>
-      <c r="B1679" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C1679" s="23" t="s">
-        <v>1644</v>
-      </c>
+    <row r="1679" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1679" s="22"/>
+      <c r="B1679" s="30" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C1679" s="28"/>
       <c r="D1679" s="23" t="s">
         <v>32</v>
       </c>
@@ -55816,21 +55780,23 @@
       <c r="G1679" s="23"/>
       <c r="H1679" s="23"/>
       <c r="I1679" s="24" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="J1679" s="24"/>
-      <c r="K1679" s="24"/>
+      <c r="K1679" s="24" t="s">
+        <v>1667</v>
+      </c>
       <c r="O1679" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="1680" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1680" s="9"/>
+      <c r="A1680" s="22"/>
       <c r="B1680" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1680" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1680" s="23" t="s">
         <v>32</v>
@@ -55844,7 +55810,7 @@
       <c r="G1680" s="23"/>
       <c r="H1680" s="23"/>
       <c r="I1680" s="24" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="J1680" s="24"/>
       <c r="K1680" s="24"/>
@@ -55852,13 +55818,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1681" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1681" s="9"/>
+    <row r="1681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1681" s="22"/>
       <c r="B1681" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1681" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1681" s="23" t="s">
         <v>32</v>
@@ -55872,7 +55838,7 @@
       <c r="G1681" s="23"/>
       <c r="H1681" s="23"/>
       <c r="I1681" s="24" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="J1681" s="24"/>
       <c r="K1681" s="24"/>
@@ -55880,13 +55846,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1682" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1682" s="9"/>
       <c r="B1682" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1682" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1682" s="23" t="s">
         <v>32</v>
@@ -55900,7 +55866,7 @@
       <c r="G1682" s="23"/>
       <c r="H1682" s="23"/>
       <c r="I1682" s="24" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="J1682" s="24"/>
       <c r="K1682" s="24"/>
@@ -55908,13 +55874,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1683" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1683" s="9"/>
       <c r="B1683" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1683" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1683" s="23" t="s">
         <v>32</v>
@@ -55928,7 +55894,7 @@
       <c r="G1683" s="23"/>
       <c r="H1683" s="23"/>
       <c r="I1683" s="24" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="J1683" s="24"/>
       <c r="K1683" s="24"/>
@@ -55936,13 +55902,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1684" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1684" s="9"/>
       <c r="B1684" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1684" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1684" s="23" t="s">
         <v>32</v>
@@ -55956,7 +55922,7 @@
       <c r="G1684" s="23"/>
       <c r="H1684" s="23"/>
       <c r="I1684" s="24" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="J1684" s="24"/>
       <c r="K1684" s="24"/>
@@ -55964,27 +55930,27 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1685" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1685" s="9"/>
       <c r="B1685" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1685" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1685" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E1685" s="23" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="F1685" s="23" t="s">
         <v>977</v>
       </c>
       <c r="G1685" s="23"/>
       <c r="H1685" s="23"/>
-      <c r="I1685" s="24" t="s">
-        <v>1674</v>
+      <c r="I1685" s="48" t="s">
+        <v>1673</v>
       </c>
       <c r="J1685" s="24"/>
       <c r="K1685" s="24"/>
@@ -55992,44 +55958,42 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1686" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1686" s="9"/>
-      <c r="B1686" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C1686" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D1686" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1686" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1686" s="23" t="s">
-        <v>977</v>
-      </c>
-      <c r="G1686" s="23"/>
-      <c r="H1686" s="23"/>
-      <c r="I1686" s="24" t="s">
-        <v>1675</v>
+      <c r="B1686" s="30" t="s">
+        <v>933</v>
+      </c>
+      <c r="C1686" s="30"/>
+      <c r="D1686" s="30" t="s">
+        <v>933</v>
+      </c>
+      <c r="E1686" s="30"/>
+      <c r="F1686" s="30" t="s">
+        <v>933</v>
+      </c>
+      <c r="G1686" s="30"/>
+      <c r="H1686" s="30"/>
+      <c r="I1686" s="51" t="s">
+        <v>1674</v>
       </c>
       <c r="J1686" s="24"/>
-      <c r="K1686" s="24"/>
+      <c r="K1686" s="24" t="s">
+        <v>246</v>
+      </c>
       <c r="O1686" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="1687" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1687" s="9"/>
       <c r="B1687" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1687" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1687" s="23" t="s">
-        <v>32</v>
+        <v>1657</v>
       </c>
       <c r="E1687" s="23" t="s">
         <v>32</v>
@@ -56039,8 +56003,8 @@
       </c>
       <c r="G1687" s="23"/>
       <c r="H1687" s="23"/>
-      <c r="I1687" s="24" t="s">
-        <v>1676</v>
+      <c r="I1687" s="48" t="s">
+        <v>1675</v>
       </c>
       <c r="J1687" s="24"/>
       <c r="K1687" s="24"/>
@@ -56048,14 +56012,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1688" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1688" s="9"/>
       <c r="B1688" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C1688" s="28"/>
+        <v>1657</v>
+      </c>
+      <c r="C1688" s="23" t="s">
+        <v>1657</v>
+      </c>
       <c r="D1688" s="23" t="s">
-        <v>1644</v>
+        <v>32</v>
       </c>
       <c r="E1688" s="23" t="s">
         <v>32</v>
@@ -56065,8 +56031,8 @@
       </c>
       <c r="G1688" s="23"/>
       <c r="H1688" s="23"/>
-      <c r="I1688" s="24" t="s">
-        <v>1677</v>
+      <c r="I1688" s="48" t="s">
+        <v>1676</v>
       </c>
       <c r="J1688" s="24"/>
       <c r="K1688" s="24"/>
@@ -56074,14 +56040,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1689" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1689" s="9"/>
       <c r="B1689" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C1689" s="28"/>
+        <v>1657</v>
+      </c>
+      <c r="C1689" s="23" t="s">
+        <v>1657</v>
+      </c>
       <c r="D1689" s="23" t="s">
-        <v>1644</v>
+        <v>32</v>
       </c>
       <c r="E1689" s="23" t="s">
         <v>32</v>
@@ -56091,8 +56059,8 @@
       </c>
       <c r="G1689" s="23"/>
       <c r="H1689" s="23"/>
-      <c r="I1689" s="24" t="s">
-        <v>1678</v>
+      <c r="I1689" s="48" t="s">
+        <v>1677</v>
       </c>
       <c r="J1689" s="24"/>
       <c r="K1689" s="24"/>
@@ -56100,13 +56068,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1690" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1690" s="9"/>
       <c r="B1690" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1690" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1690" s="23" t="s">
         <v>32</v>
@@ -56119,8 +56087,8 @@
       </c>
       <c r="G1690" s="23"/>
       <c r="H1690" s="23"/>
-      <c r="I1690" s="24" t="s">
-        <v>1679</v>
+      <c r="I1690" s="48" t="s">
+        <v>1678</v>
       </c>
       <c r="J1690" s="24"/>
       <c r="K1690" s="24"/>
@@ -56128,13 +56096,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1691" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1691" s="9"/>
       <c r="B1691" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1691" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1691" s="23" t="s">
         <v>32</v>
@@ -56147,8 +56115,8 @@
       </c>
       <c r="G1691" s="23"/>
       <c r="H1691" s="23"/>
-      <c r="I1691" s="24" t="s">
-        <v>1680</v>
+      <c r="I1691" s="48" t="s">
+        <v>1679</v>
       </c>
       <c r="J1691" s="24"/>
       <c r="K1691" s="24"/>
@@ -56159,10 +56127,10 @@
     <row r="1692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1692" s="9"/>
       <c r="B1692" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1692" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1692" s="23" t="s">
         <v>32</v>
@@ -56171,28 +56139,26 @@
         <v>32</v>
       </c>
       <c r="F1692" s="23" t="s">
-        <v>1681</v>
+        <v>977</v>
       </c>
       <c r="G1692" s="23"/>
       <c r="H1692" s="23"/>
-      <c r="I1692" s="24" t="s">
-        <v>1682</v>
+      <c r="I1692" s="48" t="s">
+        <v>1680</v>
       </c>
       <c r="J1692" s="24"/>
-      <c r="K1692" s="24" t="s">
-        <v>1683</v>
-      </c>
+      <c r="K1692" s="24"/>
       <c r="O1692" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="1693" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1693" s="9"/>
       <c r="B1693" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1693" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1693" s="23" t="s">
         <v>32</v>
@@ -56201,17 +56167,15 @@
         <v>32</v>
       </c>
       <c r="F1693" s="23" t="s">
-        <v>1681</v>
+        <v>977</v>
       </c>
       <c r="G1693" s="23"/>
       <c r="H1693" s="23"/>
       <c r="I1693" s="24" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="J1693" s="24"/>
-      <c r="K1693" s="24" t="s">
-        <v>1685</v>
-      </c>
+      <c r="K1693" s="24"/>
       <c r="O1693" s="25" t="s">
         <v>36</v>
       </c>
@@ -56219,10 +56183,10 @@
     <row r="1694" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1694" s="9"/>
       <c r="B1694" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1694" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1694" s="23" t="s">
         <v>32</v>
@@ -56236,7 +56200,7 @@
       <c r="G1694" s="23"/>
       <c r="H1694" s="23"/>
       <c r="I1694" s="24" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="J1694" s="24"/>
       <c r="K1694" s="24"/>
@@ -56247,10 +56211,10 @@
     <row r="1695" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1695" s="9"/>
       <c r="B1695" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1695" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1695" s="23" t="s">
         <v>32</v>
@@ -56264,7 +56228,7 @@
       <c r="G1695" s="23"/>
       <c r="H1695" s="23"/>
       <c r="I1695" s="24" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="J1695" s="24"/>
       <c r="K1695" s="24"/>
@@ -56275,13 +56239,13 @@
     <row r="1696" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1696" s="9"/>
       <c r="B1696" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1696" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1696" s="23" t="s">
-        <v>1644</v>
+        <v>32</v>
       </c>
       <c r="E1696" s="23" t="s">
         <v>32</v>
@@ -56292,7 +56256,7 @@
       <c r="G1696" s="23"/>
       <c r="H1696" s="23"/>
       <c r="I1696" s="24" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="J1696" s="24"/>
       <c r="K1696" s="24"/>
@@ -56303,10 +56267,10 @@
     <row r="1697" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1697" s="9"/>
       <c r="B1697" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1697" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1697" s="23" t="s">
         <v>32</v>
@@ -56320,7 +56284,7 @@
       <c r="G1697" s="23"/>
       <c r="H1697" s="23"/>
       <c r="I1697" s="24" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="J1697" s="24"/>
       <c r="K1697" s="24"/>
@@ -56328,14 +56292,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1698" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1698" s="9"/>
       <c r="B1698" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C1698" s="28"/>
+        <v>1657</v>
+      </c>
+      <c r="C1698" s="23" t="s">
+        <v>1657</v>
+      </c>
       <c r="D1698" s="23" t="s">
-        <v>1644</v>
+        <v>32</v>
       </c>
       <c r="E1698" s="23" t="s">
         <v>32</v>
@@ -56346,7 +56312,7 @@
       <c r="G1698" s="23"/>
       <c r="H1698" s="23"/>
       <c r="I1698" s="24" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="J1698" s="24"/>
       <c r="K1698" s="24"/>
@@ -56357,16 +56323,16 @@
     <row r="1699" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1699" s="9"/>
       <c r="B1699" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1699" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1699" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E1699" s="23" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F1699" s="23" t="s">
         <v>977</v>
@@ -56374,7 +56340,7 @@
       <c r="G1699" s="23"/>
       <c r="H1699" s="23"/>
       <c r="I1699" s="24" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="J1699" s="24"/>
       <c r="K1699" s="24"/>
@@ -56385,13 +56351,13 @@
     <row r="1700" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1700" s="9"/>
       <c r="B1700" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1700" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1700" s="23" t="s">
-        <v>1644</v>
+        <v>32</v>
       </c>
       <c r="E1700" s="23" t="s">
         <v>32</v>
@@ -56402,7 +56368,7 @@
       <c r="G1700" s="23"/>
       <c r="H1700" s="23"/>
       <c r="I1700" s="24" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="J1700" s="24"/>
       <c r="K1700" s="24"/>
@@ -56413,10 +56379,10 @@
     <row r="1701" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1701" s="9"/>
       <c r="B1701" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1701" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1701" s="23" t="s">
         <v>32</v>
@@ -56430,7 +56396,7 @@
       <c r="G1701" s="23"/>
       <c r="H1701" s="23"/>
       <c r="I1701" s="24" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="J1701" s="24"/>
       <c r="K1701" s="24"/>
@@ -56441,13 +56407,11 @@
     <row r="1702" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1702" s="9"/>
       <c r="B1702" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C1702" s="23" t="s">
-        <v>1644</v>
-      </c>
+        <v>1657</v>
+      </c>
+      <c r="C1702" s="28"/>
       <c r="D1702" s="23" t="s">
-        <v>32</v>
+        <v>1657</v>
       </c>
       <c r="E1702" s="23" t="s">
         <v>32</v>
@@ -56458,7 +56422,7 @@
       <c r="G1702" s="23"/>
       <c r="H1702" s="23"/>
       <c r="I1702" s="24" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="J1702" s="24"/>
       <c r="K1702" s="24"/>
@@ -56469,13 +56433,11 @@
     <row r="1703" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1703" s="9"/>
       <c r="B1703" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C1703" s="23" t="s">
-        <v>1644</v>
-      </c>
+        <v>1657</v>
+      </c>
+      <c r="C1703" s="28"/>
       <c r="D1703" s="23" t="s">
-        <v>32</v>
+        <v>1657</v>
       </c>
       <c r="E1703" s="23" t="s">
         <v>32</v>
@@ -56486,12 +56448,10 @@
       <c r="G1703" s="23"/>
       <c r="H1703" s="23"/>
       <c r="I1703" s="24" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="J1703" s="24"/>
-      <c r="K1703" s="24" t="s">
-        <v>451</v>
-      </c>
+      <c r="K1703" s="24"/>
       <c r="O1703" s="25" t="s">
         <v>36</v>
       </c>
@@ -56499,10 +56459,10 @@
     <row r="1704" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1704" s="9"/>
       <c r="B1704" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1704" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1704" s="23" t="s">
         <v>32</v>
@@ -56516,7 +56476,7 @@
       <c r="G1704" s="23"/>
       <c r="H1704" s="23"/>
       <c r="I1704" s="24" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="J1704" s="24"/>
       <c r="K1704" s="24"/>
@@ -56527,10 +56487,10 @@
     <row r="1705" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1705" s="9"/>
       <c r="B1705" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1705" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1705" s="23" t="s">
         <v>32</v>
@@ -56544,7 +56504,7 @@
       <c r="G1705" s="23"/>
       <c r="H1705" s="23"/>
       <c r="I1705" s="24" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="J1705" s="24"/>
       <c r="K1705" s="24"/>
@@ -56552,13 +56512,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1706" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1706" s="9"/>
       <c r="B1706" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1706" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1706" s="23" t="s">
         <v>32</v>
@@ -56567,26 +56527,28 @@
         <v>32</v>
       </c>
       <c r="F1706" s="23" t="s">
-        <v>977</v>
+        <v>1694</v>
       </c>
       <c r="G1706" s="23"/>
       <c r="H1706" s="23"/>
       <c r="I1706" s="24" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="J1706" s="24"/>
-      <c r="K1706" s="24"/>
+      <c r="K1706" s="24" t="s">
+        <v>1696</v>
+      </c>
       <c r="O1706" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="1707" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1707" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1707" s="9"/>
       <c r="B1707" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1707" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1707" s="23" t="s">
         <v>32</v>
@@ -56595,15 +56557,17 @@
         <v>32</v>
       </c>
       <c r="F1707" s="23" t="s">
-        <v>977</v>
+        <v>1694</v>
       </c>
       <c r="G1707" s="23"/>
       <c r="H1707" s="23"/>
       <c r="I1707" s="24" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="J1707" s="24"/>
-      <c r="K1707" s="24"/>
+      <c r="K1707" s="24" t="s">
+        <v>1698</v>
+      </c>
       <c r="O1707" s="25" t="s">
         <v>36</v>
       </c>
@@ -56611,10 +56575,10 @@
     <row r="1708" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1708" s="9"/>
       <c r="B1708" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1708" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1708" s="23" t="s">
         <v>32</v>
@@ -56628,7 +56592,7 @@
       <c r="G1708" s="23"/>
       <c r="H1708" s="23"/>
       <c r="I1708" s="24" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="J1708" s="24"/>
       <c r="K1708" s="24"/>
@@ -56639,10 +56603,10 @@
     <row r="1709" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1709" s="9"/>
       <c r="B1709" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1709" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1709" s="23" t="s">
         <v>32</v>
@@ -56656,7 +56620,7 @@
       <c r="G1709" s="23"/>
       <c r="H1709" s="23"/>
       <c r="I1709" s="24" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="J1709" s="24"/>
       <c r="K1709" s="24"/>
@@ -56667,13 +56631,13 @@
     <row r="1710" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1710" s="9"/>
       <c r="B1710" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1710" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1710" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="E1710" s="23" t="s">
         <v>32</v>
@@ -56684,7 +56648,7 @@
       <c r="G1710" s="23"/>
       <c r="H1710" s="23"/>
       <c r="I1710" s="24" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="J1710" s="24"/>
       <c r="K1710" s="24"/>
@@ -56695,11 +56659,13 @@
     <row r="1711" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1711" s="9"/>
       <c r="B1711" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C1711" s="28"/>
+        <v>1657</v>
+      </c>
+      <c r="C1711" s="23" t="s">
+        <v>1657</v>
+      </c>
       <c r="D1711" s="23" t="s">
-        <v>1644</v>
+        <v>32</v>
       </c>
       <c r="E1711" s="23" t="s">
         <v>32</v>
@@ -56710,7 +56676,7 @@
       <c r="G1711" s="23"/>
       <c r="H1711" s="23"/>
       <c r="I1711" s="24" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="J1711" s="24"/>
       <c r="K1711" s="24"/>
@@ -56718,14 +56684,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1712" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1712" s="9"/>
       <c r="B1712" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1712" s="28"/>
       <c r="D1712" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="E1712" s="23" t="s">
         <v>32</v>
@@ -56736,7 +56702,7 @@
       <c r="G1712" s="23"/>
       <c r="H1712" s="23"/>
       <c r="I1712" s="24" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="J1712" s="24"/>
       <c r="K1712" s="24"/>
@@ -56744,14 +56710,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1713" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1713" s="9"/>
       <c r="B1713" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1713" s="28"/>
       <c r="D1713" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="E1713" s="23" t="s">
         <v>32</v>
@@ -56762,80 +56728,66 @@
       <c r="G1713" s="23"/>
       <c r="H1713" s="23"/>
       <c r="I1713" s="24" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="J1713" s="24"/>
       <c r="K1713" s="24"/>
-      <c r="O1713" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1714" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O1713" s="25"/>
+    </row>
+    <row r="1714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1714" s="9"/>
       <c r="B1714" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C1714" s="23" t="s">
-        <v>1644</v>
-      </c>
+        <v>1657</v>
+      </c>
+      <c r="C1714" s="28"/>
       <c r="D1714" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1714" s="23" t="s">
-        <v>32</v>
-      </c>
+        <v>1657</v>
+      </c>
+      <c r="E1714" s="23"/>
       <c r="F1714" s="23" t="s">
         <v>977</v>
       </c>
       <c r="G1714" s="23"/>
       <c r="H1714" s="23"/>
       <c r="I1714" s="24" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="J1714" s="24"/>
       <c r="K1714" s="24"/>
-      <c r="O1714" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1715" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O1714" s="25"/>
+    </row>
+    <row r="1715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1715" s="9"/>
       <c r="B1715" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C1715" s="23" t="s">
-        <v>1644</v>
-      </c>
+        <v>1657</v>
+      </c>
+      <c r="C1715" s="28"/>
       <c r="D1715" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="E1715" s="23" t="s">
-        <v>32</v>
-      </c>
+        <v>1657</v>
+      </c>
+      <c r="E1715" s="23"/>
       <c r="F1715" s="23" t="s">
         <v>977</v>
       </c>
       <c r="G1715" s="23"/>
       <c r="H1715" s="23"/>
       <c r="I1715" s="24" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="J1715" s="24"/>
       <c r="K1715" s="24"/>
-      <c r="O1715" s="25" t="s">
-        <v>36</v>
-      </c>
+      <c r="O1715" s="25"/>
     </row>
     <row r="1716" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1716" s="9"/>
       <c r="B1716" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1716" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1716" s="23" t="s">
-        <v>1644</v>
+        <v>32</v>
       </c>
       <c r="E1716" s="23" t="s">
         <v>32</v>
@@ -56846,7 +56798,7 @@
       <c r="G1716" s="23"/>
       <c r="H1716" s="23"/>
       <c r="I1716" s="24" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="J1716" s="24"/>
       <c r="K1716" s="24"/>
@@ -56857,13 +56809,13 @@
     <row r="1717" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1717" s="9"/>
       <c r="B1717" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1717" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1717" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="E1717" s="23" t="s">
         <v>32</v>
@@ -56874,7 +56826,7 @@
       <c r="G1717" s="23"/>
       <c r="H1717" s="23"/>
       <c r="I1717" s="24" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="J1717" s="24"/>
       <c r="K1717" s="24"/>
@@ -56885,13 +56837,13 @@
     <row r="1718" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1718" s="9"/>
       <c r="B1718" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1718" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1718" s="23" t="s">
-        <v>1644</v>
+        <v>32</v>
       </c>
       <c r="E1718" s="23" t="s">
         <v>32</v>
@@ -56902,7 +56854,7 @@
       <c r="G1718" s="23"/>
       <c r="H1718" s="23"/>
       <c r="I1718" s="24" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="J1718" s="24"/>
       <c r="K1718" s="24"/>
@@ -56913,13 +56865,13 @@
     <row r="1719" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1719" s="9"/>
       <c r="B1719" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1719" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1719" s="23" t="s">
-        <v>1644</v>
+        <v>32</v>
       </c>
       <c r="E1719" s="23" t="s">
         <v>32</v>
@@ -56930,7 +56882,7 @@
       <c r="G1719" s="23"/>
       <c r="H1719" s="23"/>
       <c r="I1719" s="24" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="J1719" s="24"/>
       <c r="K1719" s="24"/>
@@ -56938,16 +56890,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1720" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1720" s="9"/>
       <c r="B1720" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1720" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1720" s="23" t="s">
-        <v>1644</v>
+        <v>32</v>
       </c>
       <c r="E1720" s="23" t="s">
         <v>32</v>
@@ -56958,10 +56910,12 @@
       <c r="G1720" s="23"/>
       <c r="H1720" s="23"/>
       <c r="I1720" s="24" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J1720" s="24"/>
-      <c r="K1720" s="24"/>
+      <c r="K1720" s="24" t="s">
+        <v>451</v>
+      </c>
       <c r="O1720" s="25" t="s">
         <v>36</v>
       </c>
@@ -56969,10 +56923,10 @@
     <row r="1721" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1721" s="9"/>
       <c r="B1721" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1721" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1721" s="23" t="s">
         <v>32</v>
@@ -56986,7 +56940,7 @@
       <c r="G1721" s="23"/>
       <c r="H1721" s="23"/>
       <c r="I1721" s="24" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="J1721" s="24"/>
       <c r="K1721" s="24"/>
@@ -56994,13 +56948,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1722" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1722" s="9"/>
       <c r="B1722" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1722" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1722" s="23" t="s">
         <v>32</v>
@@ -57014,7 +56968,7 @@
       <c r="G1722" s="23"/>
       <c r="H1722" s="23"/>
       <c r="I1722" s="24" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="J1722" s="24"/>
       <c r="K1722" s="24"/>
@@ -57022,16 +56976,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1723" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1723" s="9"/>
       <c r="B1723" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1723" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1723" s="23" t="s">
-        <v>1644</v>
+        <v>32</v>
       </c>
       <c r="E1723" s="23" t="s">
         <v>32</v>
@@ -57042,7 +56996,7 @@
       <c r="G1723" s="23"/>
       <c r="H1723" s="23"/>
       <c r="I1723" s="24" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="J1723" s="24"/>
       <c r="K1723" s="24"/>
@@ -57050,16 +57004,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1724" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1724" s="9"/>
       <c r="B1724" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1724" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1724" s="23" t="s">
-        <v>1644</v>
+        <v>32</v>
       </c>
       <c r="E1724" s="23" t="s">
         <v>32</v>
@@ -57070,7 +57024,7 @@
       <c r="G1724" s="23"/>
       <c r="H1724" s="23"/>
       <c r="I1724" s="24" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="J1724" s="24"/>
       <c r="K1724" s="24"/>
@@ -57081,10 +57035,10 @@
     <row r="1725" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1725" s="9"/>
       <c r="B1725" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1725" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1725" s="23" t="s">
         <v>32</v>
@@ -57098,7 +57052,7 @@
       <c r="G1725" s="23"/>
       <c r="H1725" s="23"/>
       <c r="I1725" s="24" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="J1725" s="24"/>
       <c r="K1725" s="24"/>
@@ -57109,13 +57063,13 @@
     <row r="1726" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1726" s="9"/>
       <c r="B1726" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1726" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1726" s="23" t="s">
-        <v>1644</v>
+        <v>32</v>
       </c>
       <c r="E1726" s="23" t="s">
         <v>32</v>
@@ -57126,7 +57080,7 @@
       <c r="G1726" s="23"/>
       <c r="H1726" s="23"/>
       <c r="I1726" s="24" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="J1726" s="24"/>
       <c r="K1726" s="24"/>
@@ -57137,13 +57091,13 @@
     <row r="1727" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1727" s="9"/>
       <c r="B1727" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1727" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1727" s="23" t="s">
-        <v>32</v>
+        <v>1657</v>
       </c>
       <c r="E1727" s="23" t="s">
         <v>32</v>
@@ -57154,7 +57108,7 @@
       <c r="G1727" s="23"/>
       <c r="H1727" s="23"/>
       <c r="I1727" s="24" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="J1727" s="24"/>
       <c r="K1727" s="24"/>
@@ -57165,13 +57119,11 @@
     <row r="1728" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1728" s="9"/>
       <c r="B1728" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C1728" s="23" t="s">
-        <v>1644</v>
-      </c>
+        <v>1657</v>
+      </c>
+      <c r="C1728" s="28"/>
       <c r="D1728" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="E1728" s="23" t="s">
         <v>32</v>
@@ -57182,7 +57134,7 @@
       <c r="G1728" s="23"/>
       <c r="H1728" s="23"/>
       <c r="I1728" s="24" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="J1728" s="24"/>
       <c r="K1728" s="24"/>
@@ -57193,13 +57145,11 @@
     <row r="1729" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1729" s="9"/>
       <c r="B1729" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C1729" s="23" t="s">
-        <v>1644</v>
-      </c>
+        <v>1657</v>
+      </c>
+      <c r="C1729" s="28"/>
       <c r="D1729" s="23" t="s">
-        <v>32</v>
+        <v>1657</v>
       </c>
       <c r="E1729" s="23" t="s">
         <v>32</v>
@@ -57210,7 +57160,7 @@
       <c r="G1729" s="23"/>
       <c r="H1729" s="23"/>
       <c r="I1729" s="24" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="J1729" s="24"/>
       <c r="K1729" s="24"/>
@@ -57221,13 +57171,11 @@
     <row r="1730" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1730" s="9"/>
       <c r="B1730" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C1730" s="23" t="s">
-        <v>1644</v>
-      </c>
+        <v>1657</v>
+      </c>
+      <c r="C1730" s="28"/>
       <c r="D1730" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="E1730" s="23" t="s">
         <v>32</v>
@@ -57238,7 +57186,7 @@
       <c r="G1730" s="23"/>
       <c r="H1730" s="23"/>
       <c r="I1730" s="24" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="J1730" s="24"/>
       <c r="K1730" s="24"/>
@@ -57249,10 +57197,10 @@
     <row r="1731" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1731" s="9"/>
       <c r="B1731" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1731" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1731" s="23" t="s">
         <v>32</v>
@@ -57266,7 +57214,7 @@
       <c r="G1731" s="23"/>
       <c r="H1731" s="23"/>
       <c r="I1731" s="24" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="J1731" s="24"/>
       <c r="K1731" s="24"/>
@@ -57277,13 +57225,13 @@
     <row r="1732" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1732" s="9"/>
       <c r="B1732" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1732" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1732" s="23" t="s">
-        <v>32</v>
+        <v>1657</v>
       </c>
       <c r="E1732" s="23" t="s">
         <v>32</v>
@@ -57294,7 +57242,7 @@
       <c r="G1732" s="23"/>
       <c r="H1732" s="23"/>
       <c r="I1732" s="24" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="J1732" s="24"/>
       <c r="K1732" s="24"/>
@@ -57305,13 +57253,13 @@
     <row r="1733" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1733" s="9"/>
       <c r="B1733" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1733" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1733" s="23" t="s">
-        <v>32</v>
+        <v>1657</v>
       </c>
       <c r="E1733" s="23" t="s">
         <v>32</v>
@@ -57322,7 +57270,7 @@
       <c r="G1733" s="23"/>
       <c r="H1733" s="23"/>
       <c r="I1733" s="24" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="J1733" s="24"/>
       <c r="K1733" s="24"/>
@@ -57333,13 +57281,13 @@
     <row r="1734" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1734" s="9"/>
       <c r="B1734" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1734" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1734" s="23" t="s">
-        <v>32</v>
+        <v>1657</v>
       </c>
       <c r="E1734" s="23" t="s">
         <v>32</v>
@@ -57350,7 +57298,7 @@
       <c r="G1734" s="23"/>
       <c r="H1734" s="23"/>
       <c r="I1734" s="24" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="J1734" s="24"/>
       <c r="K1734" s="24"/>
@@ -57361,13 +57309,13 @@
     <row r="1735" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1735" s="9"/>
       <c r="B1735" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1735" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1735" s="23" t="s">
-        <v>32</v>
+        <v>1657</v>
       </c>
       <c r="E1735" s="23" t="s">
         <v>32</v>
@@ -57378,7 +57326,7 @@
       <c r="G1735" s="23"/>
       <c r="H1735" s="23"/>
       <c r="I1735" s="24" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J1735" s="24"/>
       <c r="K1735" s="24"/>
@@ -57389,13 +57337,13 @@
     <row r="1736" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1736" s="9"/>
       <c r="B1736" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1736" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1736" s="23" t="s">
-        <v>32</v>
+        <v>1657</v>
       </c>
       <c r="E1736" s="23" t="s">
         <v>32</v>
@@ -57406,7 +57354,7 @@
       <c r="G1736" s="23"/>
       <c r="H1736" s="23"/>
       <c r="I1736" s="24" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="J1736" s="24"/>
       <c r="K1736" s="24"/>
@@ -57414,14 +57362,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1737" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1737" s="9"/>
       <c r="B1737" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C1737" s="28"/>
+        <v>1657</v>
+      </c>
+      <c r="C1737" s="23" t="s">
+        <v>1657</v>
+      </c>
       <c r="D1737" s="23" t="s">
-        <v>32</v>
+        <v>1657</v>
       </c>
       <c r="E1737" s="23" t="s">
         <v>32</v>
@@ -57432,7 +57382,7 @@
       <c r="G1737" s="23"/>
       <c r="H1737" s="23"/>
       <c r="I1737" s="24" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="J1737" s="24"/>
       <c r="K1737" s="24"/>
@@ -57443,10 +57393,10 @@
     <row r="1738" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1738" s="9"/>
       <c r="B1738" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1738" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1738" s="23" t="s">
         <v>32</v>
@@ -57460,7 +57410,7 @@
       <c r="G1738" s="23"/>
       <c r="H1738" s="23"/>
       <c r="I1738" s="24" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="J1738" s="24"/>
       <c r="K1738" s="24"/>
@@ -57468,13 +57418,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1739" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1739" s="9"/>
       <c r="B1739" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1739" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1739" s="23" t="s">
         <v>32</v>
@@ -57488,7 +57438,7 @@
       <c r="G1739" s="23"/>
       <c r="H1739" s="23"/>
       <c r="I1739" s="24" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="J1739" s="24"/>
       <c r="K1739" s="24"/>
@@ -57499,13 +57449,13 @@
     <row r="1740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1740" s="9"/>
       <c r="B1740" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1740" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1740" s="23" t="s">
-        <v>32</v>
+        <v>1657</v>
       </c>
       <c r="E1740" s="23" t="s">
         <v>32</v>
@@ -57516,7 +57466,7 @@
       <c r="G1740" s="23"/>
       <c r="H1740" s="23"/>
       <c r="I1740" s="24" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="J1740" s="24"/>
       <c r="K1740" s="24"/>
@@ -57527,13 +57477,13 @@
     <row r="1741" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1741" s="9"/>
       <c r="B1741" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1741" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1741" s="23" t="s">
-        <v>32</v>
+        <v>1657</v>
       </c>
       <c r="E1741" s="23" t="s">
         <v>32</v>
@@ -57544,7 +57494,7 @@
       <c r="G1741" s="23"/>
       <c r="H1741" s="23"/>
       <c r="I1741" s="24" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="J1741" s="24"/>
       <c r="K1741" s="24"/>
@@ -57552,13 +57502,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1742" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1742" s="9"/>
       <c r="B1742" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1742" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1742" s="23" t="s">
         <v>32</v>
@@ -57572,7 +57522,7 @@
       <c r="G1742" s="23"/>
       <c r="H1742" s="23"/>
       <c r="I1742" s="24" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="J1742" s="24"/>
       <c r="K1742" s="24"/>
@@ -57580,16 +57530,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1743" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1743" s="9"/>
       <c r="B1743" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1743" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1743" s="23" t="s">
-        <v>32</v>
+        <v>1657</v>
       </c>
       <c r="E1743" s="23" t="s">
         <v>32</v>
@@ -57600,7 +57550,7 @@
       <c r="G1743" s="23"/>
       <c r="H1743" s="23"/>
       <c r="I1743" s="24" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="J1743" s="24"/>
       <c r="K1743" s="24"/>
@@ -57608,13 +57558,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1744" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1744" s="9"/>
       <c r="B1744" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1744" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1744" s="23" t="s">
         <v>32</v>
@@ -57628,7 +57578,7 @@
       <c r="G1744" s="23"/>
       <c r="H1744" s="23"/>
       <c r="I1744" s="24" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="J1744" s="24"/>
       <c r="K1744" s="24"/>
@@ -57639,13 +57589,13 @@
     <row r="1745" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1745" s="9"/>
       <c r="B1745" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1745" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1745" s="23" t="s">
-        <v>32</v>
+        <v>1657</v>
       </c>
       <c r="E1745" s="23" t="s">
         <v>32</v>
@@ -57656,7 +57606,7 @@
       <c r="G1745" s="23"/>
       <c r="H1745" s="23"/>
       <c r="I1745" s="24" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="J1745" s="24"/>
       <c r="K1745" s="24"/>
@@ -57667,10 +57617,10 @@
     <row r="1746" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1746" s="9"/>
       <c r="B1746" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1746" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1746" s="23" t="s">
         <v>32</v>
@@ -57684,7 +57634,7 @@
       <c r="G1746" s="23"/>
       <c r="H1746" s="23"/>
       <c r="I1746" s="24" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="J1746" s="24"/>
       <c r="K1746" s="24"/>
@@ -57695,13 +57645,13 @@
     <row r="1747" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1747" s="9"/>
       <c r="B1747" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1747" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1747" s="23" t="s">
-        <v>32</v>
+        <v>1657</v>
       </c>
       <c r="E1747" s="23" t="s">
         <v>32</v>
@@ -57712,7 +57662,7 @@
       <c r="G1747" s="23"/>
       <c r="H1747" s="23"/>
       <c r="I1747" s="24" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="J1747" s="24"/>
       <c r="K1747" s="24"/>
@@ -57723,10 +57673,10 @@
     <row r="1748" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1748" s="9"/>
       <c r="B1748" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1748" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1748" s="23" t="s">
         <v>32</v>
@@ -57740,7 +57690,7 @@
       <c r="G1748" s="23"/>
       <c r="H1748" s="23"/>
       <c r="I1748" s="24" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="J1748" s="24"/>
       <c r="K1748" s="24"/>
@@ -57748,13 +57698,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1749" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1749" s="9"/>
       <c r="B1749" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1749" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1749" s="23" t="s">
         <v>32</v>
@@ -57768,7 +57718,7 @@
       <c r="G1749" s="23"/>
       <c r="H1749" s="23"/>
       <c r="I1749" s="24" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="J1749" s="24"/>
       <c r="K1749" s="24"/>
@@ -57776,13 +57726,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1750" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1750" s="9"/>
       <c r="B1750" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1750" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1750" s="23" t="s">
         <v>32</v>
@@ -57796,7 +57746,7 @@
       <c r="G1750" s="23"/>
       <c r="H1750" s="23"/>
       <c r="I1750" s="24" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="J1750" s="24"/>
       <c r="K1750" s="24"/>
@@ -57807,10 +57757,10 @@
     <row r="1751" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1751" s="9"/>
       <c r="B1751" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1751" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1751" s="23" t="s">
         <v>32</v>
@@ -57824,7 +57774,7 @@
       <c r="G1751" s="23"/>
       <c r="H1751" s="23"/>
       <c r="I1751" s="24" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="J1751" s="24"/>
       <c r="K1751" s="24"/>
@@ -57835,10 +57785,10 @@
     <row r="1752" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1752" s="9"/>
       <c r="B1752" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1752" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1752" s="23" t="s">
         <v>32</v>
@@ -57852,7 +57802,7 @@
       <c r="G1752" s="23"/>
       <c r="H1752" s="23"/>
       <c r="I1752" s="24" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="J1752" s="24"/>
       <c r="K1752" s="24"/>
@@ -57863,10 +57813,10 @@
     <row r="1753" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1753" s="9"/>
       <c r="B1753" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1753" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1753" s="23" t="s">
         <v>32</v>
@@ -57880,7 +57830,7 @@
       <c r="G1753" s="23"/>
       <c r="H1753" s="23"/>
       <c r="I1753" s="24" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="J1753" s="24"/>
       <c r="K1753" s="24"/>
@@ -57891,11 +57841,9 @@
     <row r="1754" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1754" s="9"/>
       <c r="B1754" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C1754" s="23" t="s">
-        <v>1644</v>
-      </c>
+        <v>1657</v>
+      </c>
+      <c r="C1754" s="28"/>
       <c r="D1754" s="23" t="s">
         <v>32</v>
       </c>
@@ -57908,7 +57856,7 @@
       <c r="G1754" s="23"/>
       <c r="H1754" s="23"/>
       <c r="I1754" s="24" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="J1754" s="24"/>
       <c r="K1754" s="24"/>
@@ -57919,10 +57867,10 @@
     <row r="1755" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1755" s="9"/>
       <c r="B1755" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1755" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1755" s="23" t="s">
         <v>32</v>
@@ -57936,7 +57884,7 @@
       <c r="G1755" s="23"/>
       <c r="H1755" s="23"/>
       <c r="I1755" s="24" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="J1755" s="24"/>
       <c r="K1755" s="24"/>
@@ -57947,10 +57895,10 @@
     <row r="1756" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1756" s="9"/>
       <c r="B1756" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1756" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1756" s="23" t="s">
         <v>32</v>
@@ -57964,7 +57912,7 @@
       <c r="G1756" s="23"/>
       <c r="H1756" s="23"/>
       <c r="I1756" s="24" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="J1756" s="24"/>
       <c r="K1756" s="24"/>
@@ -57975,10 +57923,10 @@
     <row r="1757" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1757" s="9"/>
       <c r="B1757" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1757" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1757" s="23" t="s">
         <v>32</v>
@@ -57992,7 +57940,7 @@
       <c r="G1757" s="23"/>
       <c r="H1757" s="23"/>
       <c r="I1757" s="24" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="J1757" s="24"/>
       <c r="K1757" s="24"/>
@@ -58003,10 +57951,10 @@
     <row r="1758" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1758" s="9"/>
       <c r="B1758" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1758" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1758" s="23" t="s">
         <v>32</v>
@@ -58020,7 +57968,7 @@
       <c r="G1758" s="23"/>
       <c r="H1758" s="23"/>
       <c r="I1758" s="24" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="J1758" s="24"/>
       <c r="K1758" s="24"/>
@@ -58031,10 +57979,10 @@
     <row r="1759" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1759" s="9"/>
       <c r="B1759" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1759" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1759" s="23" t="s">
         <v>32</v>
@@ -58048,7 +57996,7 @@
       <c r="G1759" s="23"/>
       <c r="H1759" s="23"/>
       <c r="I1759" s="24" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="J1759" s="24"/>
       <c r="K1759" s="24"/>
@@ -58056,13 +58004,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1760" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1760" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1760" s="9"/>
       <c r="B1760" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1760" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1760" s="23" t="s">
         <v>32</v>
@@ -58076,7 +58024,7 @@
       <c r="G1760" s="23"/>
       <c r="H1760" s="23"/>
       <c r="I1760" s="24" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="J1760" s="24"/>
       <c r="K1760" s="24"/>
@@ -58084,16 +58032,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1761" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1761" s="9"/>
       <c r="B1761" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1761" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1761" s="23" t="s">
-        <v>1644</v>
+        <v>32</v>
       </c>
       <c r="E1761" s="23" t="s">
         <v>32</v>
@@ -58104,7 +58052,7 @@
       <c r="G1761" s="23"/>
       <c r="H1761" s="23"/>
       <c r="I1761" s="24" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="J1761" s="24"/>
       <c r="K1761" s="24"/>
@@ -58115,10 +58063,10 @@
     <row r="1762" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1762" s="9"/>
       <c r="B1762" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1762" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1762" s="23" t="s">
         <v>32</v>
@@ -58132,7 +58080,7 @@
       <c r="G1762" s="23"/>
       <c r="H1762" s="23"/>
       <c r="I1762" s="24" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="J1762" s="24"/>
       <c r="K1762" s="24"/>
@@ -58140,13 +58088,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1763" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1763" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1763" s="9"/>
       <c r="B1763" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1763" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1763" s="23" t="s">
         <v>32</v>
@@ -58160,7 +58108,7 @@
       <c r="G1763" s="23"/>
       <c r="H1763" s="23"/>
       <c r="I1763" s="24" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J1763" s="24"/>
       <c r="K1763" s="24"/>
@@ -58168,13 +58116,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1764" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1764" s="9"/>
       <c r="B1764" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1764" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1764" s="23" t="s">
         <v>32</v>
@@ -58188,7 +58136,7 @@
       <c r="G1764" s="23"/>
       <c r="H1764" s="23"/>
       <c r="I1764" s="24" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="J1764" s="24"/>
       <c r="K1764" s="24"/>
@@ -58196,13 +58144,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1765" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1765" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1765" s="9"/>
       <c r="B1765" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1765" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1765" s="23" t="s">
         <v>32</v>
@@ -58216,7 +58164,7 @@
       <c r="G1765" s="23"/>
       <c r="H1765" s="23"/>
       <c r="I1765" s="24" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="J1765" s="24"/>
       <c r="K1765" s="24"/>
@@ -58227,10 +58175,10 @@
     <row r="1766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1766" s="9"/>
       <c r="B1766" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1766" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1766" s="23" t="s">
         <v>32</v>
@@ -58244,7 +58192,7 @@
       <c r="G1766" s="23"/>
       <c r="H1766" s="23"/>
       <c r="I1766" s="24" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="J1766" s="24"/>
       <c r="K1766" s="24"/>
@@ -58255,10 +58203,10 @@
     <row r="1767" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1767" s="9"/>
       <c r="B1767" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1767" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1767" s="23" t="s">
         <v>32</v>
@@ -58272,7 +58220,7 @@
       <c r="G1767" s="23"/>
       <c r="H1767" s="23"/>
       <c r="I1767" s="24" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="J1767" s="24"/>
       <c r="K1767" s="24"/>
@@ -58280,13 +58228,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1768" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1768" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1768" s="9"/>
       <c r="B1768" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1768" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1768" s="23" t="s">
         <v>32</v>
@@ -58300,7 +58248,7 @@
       <c r="G1768" s="23"/>
       <c r="H1768" s="23"/>
       <c r="I1768" s="24" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="J1768" s="24"/>
       <c r="K1768" s="24"/>
@@ -58311,10 +58259,10 @@
     <row r="1769" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1769" s="9"/>
       <c r="B1769" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1769" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1769" s="23" t="s">
         <v>32</v>
@@ -58328,7 +58276,7 @@
       <c r="G1769" s="23"/>
       <c r="H1769" s="23"/>
       <c r="I1769" s="24" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="J1769" s="24"/>
       <c r="K1769" s="24"/>
@@ -58339,10 +58287,10 @@
     <row r="1770" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1770" s="9"/>
       <c r="B1770" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1770" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1770" s="23" t="s">
         <v>32</v>
@@ -58356,7 +58304,7 @@
       <c r="G1770" s="23"/>
       <c r="H1770" s="23"/>
       <c r="I1770" s="24" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="J1770" s="24"/>
       <c r="K1770" s="24"/>
@@ -58364,13 +58312,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1771" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1771" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1771" s="9"/>
       <c r="B1771" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1771" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1771" s="23" t="s">
         <v>32</v>
@@ -58384,7 +58332,7 @@
       <c r="G1771" s="23"/>
       <c r="H1771" s="23"/>
       <c r="I1771" s="24" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="J1771" s="24"/>
       <c r="K1771" s="24"/>
@@ -58392,13 +58340,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1772" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1772" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1772" s="9"/>
       <c r="B1772" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1772" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1772" s="23" t="s">
         <v>32</v>
@@ -58412,7 +58360,7 @@
       <c r="G1772" s="23"/>
       <c r="H1772" s="23"/>
       <c r="I1772" s="24" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="J1772" s="24"/>
       <c r="K1772" s="24"/>
@@ -58420,12 +58368,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1773" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1773" s="9"/>
       <c r="B1773" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C1773" s="28"/>
+        <v>1657</v>
+      </c>
+      <c r="C1773" s="23" t="s">
+        <v>1657</v>
+      </c>
       <c r="D1773" s="23" t="s">
         <v>32</v>
       </c>
@@ -58438,7 +58388,7 @@
       <c r="G1773" s="23"/>
       <c r="H1773" s="23"/>
       <c r="I1773" s="24" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="J1773" s="24"/>
       <c r="K1773" s="24"/>
@@ -58449,10 +58399,10 @@
     <row r="1774" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1774" s="9"/>
       <c r="B1774" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1774" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1774" s="23" t="s">
         <v>32</v>
@@ -58466,7 +58416,7 @@
       <c r="G1774" s="23"/>
       <c r="H1774" s="23"/>
       <c r="I1774" s="24" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="J1774" s="24"/>
       <c r="K1774" s="24"/>
@@ -58477,14 +58427,16 @@
     <row r="1775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1775" s="9"/>
       <c r="B1775" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C1775" s="28"/>
+        <v>1657</v>
+      </c>
+      <c r="C1775" s="23" t="s">
+        <v>1657</v>
+      </c>
       <c r="D1775" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E1775" s="23" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="F1775" s="23" t="s">
         <v>977</v>
@@ -58492,7 +58444,7 @@
       <c r="G1775" s="23"/>
       <c r="H1775" s="23"/>
       <c r="I1775" s="24" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="J1775" s="24"/>
       <c r="K1775" s="24"/>
@@ -58503,10 +58455,10 @@
     <row r="1776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1776" s="9"/>
       <c r="B1776" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1776" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1776" s="23" t="s">
         <v>32</v>
@@ -58520,7 +58472,7 @@
       <c r="G1776" s="23"/>
       <c r="H1776" s="23"/>
       <c r="I1776" s="24" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="J1776" s="24"/>
       <c r="K1776" s="24"/>
@@ -58528,13 +58480,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1777" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1777" s="9"/>
       <c r="B1777" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1777" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1777" s="23" t="s">
         <v>32</v>
@@ -58548,7 +58500,7 @@
       <c r="G1777" s="23"/>
       <c r="H1777" s="23"/>
       <c r="I1777" s="24" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="J1777" s="24"/>
       <c r="K1777" s="24"/>
@@ -58556,16 +58508,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1778" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1778" s="9"/>
       <c r="B1778" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1778" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1778" s="23" t="s">
-        <v>32</v>
+        <v>1657</v>
       </c>
       <c r="E1778" s="23" t="s">
         <v>32</v>
@@ -58576,7 +58528,7 @@
       <c r="G1778" s="23"/>
       <c r="H1778" s="23"/>
       <c r="I1778" s="24" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="J1778" s="24"/>
       <c r="K1778" s="24"/>
@@ -58584,13 +58536,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1779" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1779" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1779" s="9"/>
       <c r="B1779" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1779" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1779" s="23" t="s">
         <v>32</v>
@@ -58604,7 +58556,7 @@
       <c r="G1779" s="23"/>
       <c r="H1779" s="23"/>
       <c r="I1779" s="24" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="J1779" s="24"/>
       <c r="K1779" s="24"/>
@@ -58615,13 +58567,13 @@
     <row r="1780" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1780" s="9"/>
       <c r="B1780" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1780" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1780" s="23" t="s">
-        <v>1644</v>
+        <v>32</v>
       </c>
       <c r="E1780" s="23" t="s">
         <v>32</v>
@@ -58632,7 +58584,7 @@
       <c r="G1780" s="23"/>
       <c r="H1780" s="23"/>
       <c r="I1780" s="24" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="J1780" s="24"/>
       <c r="K1780" s="24"/>
@@ -58640,13 +58592,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1781" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1781" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1781" s="9"/>
       <c r="B1781" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1781" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1781" s="23" t="s">
         <v>32</v>
@@ -58660,7 +58612,7 @@
       <c r="G1781" s="23"/>
       <c r="H1781" s="23"/>
       <c r="I1781" s="24" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="J1781" s="24"/>
       <c r="K1781" s="24"/>
@@ -58671,10 +58623,10 @@
     <row r="1782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1782" s="9"/>
       <c r="B1782" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1782" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1782" s="23" t="s">
         <v>32</v>
@@ -58688,7 +58640,7 @@
       <c r="G1782" s="23"/>
       <c r="H1782" s="23"/>
       <c r="I1782" s="24" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="J1782" s="24"/>
       <c r="K1782" s="24"/>
@@ -58699,10 +58651,10 @@
     <row r="1783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1783" s="9"/>
       <c r="B1783" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1783" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1783" s="23" t="s">
         <v>32</v>
@@ -58716,7 +58668,7 @@
       <c r="G1783" s="23"/>
       <c r="H1783" s="23"/>
       <c r="I1783" s="24" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="J1783" s="24"/>
       <c r="K1783" s="24"/>
@@ -58727,10 +58679,10 @@
     <row r="1784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1784" s="9"/>
       <c r="B1784" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1784" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1784" s="23" t="s">
         <v>32</v>
@@ -58744,7 +58696,7 @@
       <c r="G1784" s="23"/>
       <c r="H1784" s="23"/>
       <c r="I1784" s="24" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="J1784" s="24"/>
       <c r="K1784" s="24"/>
@@ -58755,10 +58707,10 @@
     <row r="1785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1785" s="9"/>
       <c r="B1785" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1785" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1785" s="23" t="s">
         <v>32</v>
@@ -58772,7 +58724,7 @@
       <c r="G1785" s="23"/>
       <c r="H1785" s="23"/>
       <c r="I1785" s="24" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="J1785" s="24"/>
       <c r="K1785" s="24"/>
@@ -58780,13 +58732,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1786" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1786" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1786" s="9"/>
       <c r="B1786" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1786" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1786" s="23" t="s">
         <v>32</v>
@@ -58800,7 +58752,7 @@
       <c r="G1786" s="23"/>
       <c r="H1786" s="23"/>
       <c r="I1786" s="24" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="J1786" s="24"/>
       <c r="K1786" s="24"/>
@@ -58808,28 +58760,30 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1787" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1787" s="9"/>
-      <c r="B1787" s="30" t="s">
-        <v>1652</v>
-      </c>
-      <c r="C1787" s="28"/>
+      <c r="B1787" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C1787" s="23" t="s">
+        <v>1657</v>
+      </c>
       <c r="D1787" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E1787" s="28"/>
+      <c r="E1787" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1787" s="23" t="s">
         <v>977</v>
       </c>
       <c r="G1787" s="23"/>
       <c r="H1787" s="23"/>
       <c r="I1787" s="24" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="J1787" s="24"/>
-      <c r="K1787" s="24" t="s">
-        <v>935</v>
-      </c>
+      <c r="K1787" s="24"/>
       <c r="O1787" s="25" t="s">
         <v>36</v>
       </c>
@@ -58837,10 +58791,10 @@
     <row r="1788" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1788" s="9"/>
       <c r="B1788" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1788" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1788" s="23" t="s">
         <v>32</v>
@@ -58854,7 +58808,7 @@
       <c r="G1788" s="23"/>
       <c r="H1788" s="23"/>
       <c r="I1788" s="24" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="J1788" s="24"/>
       <c r="K1788" s="24"/>
@@ -58865,10 +58819,10 @@
     <row r="1789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1789" s="9"/>
       <c r="B1789" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1789" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1789" s="23" t="s">
         <v>32</v>
@@ -58882,7 +58836,7 @@
       <c r="G1789" s="23"/>
       <c r="H1789" s="23"/>
       <c r="I1789" s="24" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="J1789" s="24"/>
       <c r="K1789" s="24"/>
@@ -58893,11 +58847,9 @@
     <row r="1790" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1790" s="9"/>
       <c r="B1790" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C1790" s="23" t="s">
-        <v>1644</v>
-      </c>
+        <v>1657</v>
+      </c>
+      <c r="C1790" s="28"/>
       <c r="D1790" s="23" t="s">
         <v>32</v>
       </c>
@@ -58910,7 +58862,7 @@
       <c r="G1790" s="23"/>
       <c r="H1790" s="23"/>
       <c r="I1790" s="24" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="J1790" s="24"/>
       <c r="K1790" s="24"/>
@@ -58921,10 +58873,10 @@
     <row r="1791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1791" s="9"/>
       <c r="B1791" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1791" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1791" s="23" t="s">
         <v>32</v>
@@ -58938,7 +58890,7 @@
       <c r="G1791" s="23"/>
       <c r="H1791" s="23"/>
       <c r="I1791" s="24" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="J1791" s="24"/>
       <c r="K1791" s="24"/>
@@ -58949,16 +58901,14 @@
     <row r="1792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1792" s="9"/>
       <c r="B1792" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C1792" s="23" t="s">
-        <v>1644</v>
-      </c>
+        <v>1657</v>
+      </c>
+      <c r="C1792" s="28"/>
       <c r="D1792" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E1792" s="23" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F1792" s="23" t="s">
         <v>977</v>
@@ -58966,7 +58916,7 @@
       <c r="G1792" s="23"/>
       <c r="H1792" s="23"/>
       <c r="I1792" s="24" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="J1792" s="24"/>
       <c r="K1792" s="24"/>
@@ -58977,10 +58927,10 @@
     <row r="1793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1793" s="9"/>
       <c r="B1793" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1793" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1793" s="23" t="s">
         <v>32</v>
@@ -58994,7 +58944,7 @@
       <c r="G1793" s="23"/>
       <c r="H1793" s="23"/>
       <c r="I1793" s="24" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="J1793" s="24"/>
       <c r="K1793" s="24"/>
@@ -59002,13 +58952,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1794" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1794" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1794" s="9"/>
       <c r="B1794" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1794" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1794" s="23" t="s">
         <v>32</v>
@@ -59022,7 +58972,7 @@
       <c r="G1794" s="23"/>
       <c r="H1794" s="23"/>
       <c r="I1794" s="24" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="J1794" s="24"/>
       <c r="K1794" s="24"/>
@@ -59033,10 +58983,10 @@
     <row r="1795" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1795" s="9"/>
       <c r="B1795" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1795" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1795" s="23" t="s">
         <v>32</v>
@@ -59050,7 +59000,7 @@
       <c r="G1795" s="23"/>
       <c r="H1795" s="23"/>
       <c r="I1795" s="24" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="J1795" s="24"/>
       <c r="K1795" s="24"/>
@@ -59061,10 +59011,10 @@
     <row r="1796" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1796" s="9"/>
       <c r="B1796" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1796" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1796" s="23" t="s">
         <v>32</v>
@@ -59078,7 +59028,7 @@
       <c r="G1796" s="23"/>
       <c r="H1796" s="23"/>
       <c r="I1796" s="24" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="J1796" s="24"/>
       <c r="K1796" s="24"/>
@@ -59089,13 +59039,13 @@
     <row r="1797" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1797" s="9"/>
       <c r="B1797" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1797" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1797" s="23" t="s">
-        <v>32</v>
+        <v>1657</v>
       </c>
       <c r="E1797" s="23" t="s">
         <v>32</v>
@@ -59106,7 +59056,7 @@
       <c r="G1797" s="23"/>
       <c r="H1797" s="23"/>
       <c r="I1797" s="24" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="J1797" s="24"/>
       <c r="K1797" s="24"/>
@@ -59114,12 +59064,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1798" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1798" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1798" s="9"/>
       <c r="B1798" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1798" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1798" s="23" t="s">
         <v>32</v>
@@ -59133,7 +59084,7 @@
       <c r="G1798" s="23"/>
       <c r="H1798" s="23"/>
       <c r="I1798" s="24" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="J1798" s="24"/>
       <c r="K1798" s="24"/>
@@ -59142,11 +59093,12 @@
       </c>
     </row>
     <row r="1799" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1799" s="9"/>
       <c r="B1799" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1799" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1799" s="23" t="s">
         <v>32</v>
@@ -59160,7 +59112,7 @@
       <c r="G1799" s="23"/>
       <c r="H1799" s="23"/>
       <c r="I1799" s="24" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="J1799" s="24"/>
       <c r="K1799" s="24"/>
@@ -59168,12 +59120,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1800" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1800" s="9"/>
       <c r="B1800" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1800" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1800" s="23" t="s">
         <v>32</v>
@@ -59187,7 +59140,7 @@
       <c r="G1800" s="23"/>
       <c r="H1800" s="23"/>
       <c r="I1800" s="24" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="J1800" s="24"/>
       <c r="K1800" s="24"/>
@@ -59195,12 +59148,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1801" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1801" s="9"/>
       <c r="B1801" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1801" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1801" s="23" t="s">
         <v>32</v>
@@ -59214,7 +59168,7 @@
       <c r="G1801" s="23"/>
       <c r="H1801" s="23"/>
       <c r="I1801" s="24" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="J1801" s="24"/>
       <c r="K1801" s="24"/>
@@ -59222,12 +59176,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1802" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1802" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1802" s="9"/>
       <c r="B1802" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1802" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1802" s="23" t="s">
         <v>32</v>
@@ -59241,7 +59196,7 @@
       <c r="G1802" s="23"/>
       <c r="H1802" s="23"/>
       <c r="I1802" s="24" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="J1802" s="24"/>
       <c r="K1802" s="24"/>
@@ -59250,11 +59205,12 @@
       </c>
     </row>
     <row r="1803" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1803" s="9"/>
       <c r="B1803" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1803" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1803" s="23" t="s">
         <v>32</v>
@@ -59268,7 +59224,7 @@
       <c r="G1803" s="23"/>
       <c r="H1803" s="23"/>
       <c r="I1803" s="24" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="J1803" s="24"/>
       <c r="K1803" s="24"/>
@@ -59277,38 +59233,38 @@
       </c>
     </row>
     <row r="1804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1804" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C1804" s="23" t="s">
-        <v>1644</v>
-      </c>
+      <c r="A1804" s="9"/>
+      <c r="B1804" s="30" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C1804" s="28"/>
       <c r="D1804" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E1804" s="23" t="s">
-        <v>32</v>
-      </c>
+      <c r="E1804" s="28"/>
       <c r="F1804" s="23" t="s">
         <v>977</v>
       </c>
       <c r="G1804" s="23"/>
       <c r="H1804" s="23"/>
       <c r="I1804" s="24" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="J1804" s="24"/>
-      <c r="K1804" s="24"/>
+      <c r="K1804" s="24" t="s">
+        <v>935</v>
+      </c>
       <c r="O1804" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="1805" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1805" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1805" s="9"/>
       <c r="B1805" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1805" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1805" s="23" t="s">
         <v>32</v>
@@ -59322,7 +59278,7 @@
       <c r="G1805" s="23"/>
       <c r="H1805" s="23"/>
       <c r="I1805" s="24" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="J1805" s="24"/>
       <c r="K1805" s="24"/>
@@ -59330,12 +59286,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1806" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1806" s="9"/>
       <c r="B1806" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1806" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1806" s="23" t="s">
         <v>32</v>
@@ -59349,7 +59306,7 @@
       <c r="G1806" s="23"/>
       <c r="H1806" s="23"/>
       <c r="I1806" s="24" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="J1806" s="24"/>
       <c r="K1806" s="24"/>
@@ -59357,12 +59314,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1807" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1807" s="9"/>
       <c r="B1807" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1807" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1807" s="23" t="s">
         <v>32</v>
@@ -59376,7 +59334,7 @@
       <c r="G1807" s="23"/>
       <c r="H1807" s="23"/>
       <c r="I1807" s="24" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="J1807" s="24"/>
       <c r="K1807" s="24"/>
@@ -59385,11 +59343,12 @@
       </c>
     </row>
     <row r="1808" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1808" s="9"/>
       <c r="B1808" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1808" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1808" s="23" t="s">
         <v>32</v>
@@ -59403,7 +59362,7 @@
       <c r="G1808" s="23"/>
       <c r="H1808" s="23"/>
       <c r="I1808" s="24" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="J1808" s="24"/>
       <c r="K1808" s="24"/>
@@ -59412,90 +59371,96 @@
       </c>
     </row>
     <row r="1809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1809" s="30" t="s">
+      <c r="A1809" s="9"/>
+      <c r="B1809" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C1809" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D1809" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1809" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1809" s="23" t="s">
         <v>977</v>
       </c>
-      <c r="C1809" s="30"/>
-      <c r="D1809" s="30" t="s">
+      <c r="G1809" s="23"/>
+      <c r="H1809" s="23"/>
+      <c r="I1809" s="24" t="s">
+        <v>1800</v>
+      </c>
+      <c r="J1809" s="24"/>
+      <c r="K1809" s="24"/>
+      <c r="O1809" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1810" s="9"/>
+      <c r="B1810" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C1810" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D1810" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1810" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1810" s="23" t="s">
         <v>977</v>
-      </c>
-      <c r="E1809" s="30"/>
-      <c r="F1809" s="30" t="s">
-        <v>977</v>
-      </c>
-      <c r="G1809" s="30"/>
-      <c r="H1809" s="30"/>
-      <c r="I1809" s="31" t="s">
-        <v>1801</v>
-      </c>
-      <c r="J1809" s="31"/>
-      <c r="K1809" s="31" t="s">
-        <v>1802</v>
-      </c>
-      <c r="O1809" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1810" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1810" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C1810" s="23" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D1810" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1810" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1810" s="23" t="s">
-        <v>1681</v>
       </c>
       <c r="G1810" s="23"/>
       <c r="H1810" s="23"/>
       <c r="I1810" s="24" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="J1810" s="24"/>
-      <c r="K1810" s="24" t="s">
-        <v>1804</v>
-      </c>
+      <c r="K1810" s="24"/>
       <c r="O1810" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="1811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1811" s="30" t="s">
+    <row r="1811" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1811" s="9"/>
+      <c r="B1811" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C1811" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D1811" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1811" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1811" s="23" t="s">
         <v>977</v>
       </c>
-      <c r="C1811" s="30"/>
-      <c r="D1811" s="30" t="s">
-        <v>977</v>
-      </c>
-      <c r="E1811" s="30"/>
-      <c r="F1811" s="30" t="s">
-        <v>977</v>
-      </c>
-      <c r="G1811" s="30"/>
-      <c r="H1811" s="30"/>
-      <c r="I1811" s="31" t="s">
-        <v>1805</v>
-      </c>
-      <c r="J1811" s="31"/>
-      <c r="K1811" s="31" t="s">
+      <c r="G1811" s="23"/>
+      <c r="H1811" s="23"/>
+      <c r="I1811" s="24" t="s">
         <v>1802</v>
       </c>
+      <c r="J1811" s="24"/>
+      <c r="K1811" s="24"/>
       <c r="O1811" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="1812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1812" s="9"/>
       <c r="B1812" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="C1812" s="23" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
       <c r="D1812" s="23" t="s">
         <v>32</v>
@@ -59509,7 +59474,7 @@
       <c r="G1812" s="23"/>
       <c r="H1812" s="23"/>
       <c r="I1812" s="24" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
       <c r="J1812" s="24"/>
       <c r="K1812" s="24"/>
@@ -59517,6 +59482,466 @@
         <v>36</v>
       </c>
     </row>
+    <row r="1813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1813" s="9"/>
+      <c r="B1813" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C1813" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D1813" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1813" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1813" s="23" t="s">
+        <v>977</v>
+      </c>
+      <c r="G1813" s="23"/>
+      <c r="H1813" s="23"/>
+      <c r="I1813" s="24" t="s">
+        <v>1804</v>
+      </c>
+      <c r="J1813" s="24"/>
+      <c r="K1813" s="24"/>
+      <c r="O1813" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1814" s="9"/>
+      <c r="B1814" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C1814" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D1814" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1814" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1814" s="23" t="s">
+        <v>977</v>
+      </c>
+      <c r="G1814" s="23"/>
+      <c r="H1814" s="23"/>
+      <c r="I1814" s="24" t="s">
+        <v>1805</v>
+      </c>
+      <c r="J1814" s="24"/>
+      <c r="K1814" s="24"/>
+      <c r="O1814" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1815" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C1815" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D1815" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1815" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1815" s="23" t="s">
+        <v>977</v>
+      </c>
+      <c r="G1815" s="23"/>
+      <c r="H1815" s="23"/>
+      <c r="I1815" s="24" t="s">
+        <v>1806</v>
+      </c>
+      <c r="J1815" s="24"/>
+      <c r="K1815" s="24"/>
+      <c r="O1815" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1816" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C1816" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D1816" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1816" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1816" s="23" t="s">
+        <v>977</v>
+      </c>
+      <c r="G1816" s="23"/>
+      <c r="H1816" s="23"/>
+      <c r="I1816" s="24" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J1816" s="24"/>
+      <c r="K1816" s="24"/>
+      <c r="O1816" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1817" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1817" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C1817" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D1817" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1817" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1817" s="23" t="s">
+        <v>977</v>
+      </c>
+      <c r="G1817" s="23"/>
+      <c r="H1817" s="23"/>
+      <c r="I1817" s="24" t="s">
+        <v>1808</v>
+      </c>
+      <c r="J1817" s="24"/>
+      <c r="K1817" s="24"/>
+      <c r="O1817" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1818" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1818" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C1818" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D1818" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1818" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1818" s="23" t="s">
+        <v>977</v>
+      </c>
+      <c r="G1818" s="23"/>
+      <c r="H1818" s="23"/>
+      <c r="I1818" s="24" t="s">
+        <v>1809</v>
+      </c>
+      <c r="J1818" s="24"/>
+      <c r="K1818" s="24"/>
+      <c r="O1818" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1819" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1819" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C1819" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D1819" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1819" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1819" s="23" t="s">
+        <v>977</v>
+      </c>
+      <c r="G1819" s="23"/>
+      <c r="H1819" s="23"/>
+      <c r="I1819" s="24" t="s">
+        <v>1810</v>
+      </c>
+      <c r="J1819" s="24"/>
+      <c r="K1819" s="24"/>
+      <c r="O1819" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1820" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C1820" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D1820" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1820" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1820" s="23" t="s">
+        <v>977</v>
+      </c>
+      <c r="G1820" s="23"/>
+      <c r="H1820" s="23"/>
+      <c r="I1820" s="24" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J1820" s="24"/>
+      <c r="K1820" s="24"/>
+      <c r="O1820" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1821" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1821" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C1821" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D1821" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1821" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1821" s="23" t="s">
+        <v>977</v>
+      </c>
+      <c r="G1821" s="23"/>
+      <c r="H1821" s="23"/>
+      <c r="I1821" s="24" t="s">
+        <v>1812</v>
+      </c>
+      <c r="J1821" s="24"/>
+      <c r="K1821" s="24"/>
+      <c r="O1821" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1822" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1822" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C1822" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D1822" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1822" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1822" s="23" t="s">
+        <v>977</v>
+      </c>
+      <c r="G1822" s="23"/>
+      <c r="H1822" s="23"/>
+      <c r="I1822" s="24" t="s">
+        <v>1813</v>
+      </c>
+      <c r="J1822" s="24"/>
+      <c r="K1822" s="24"/>
+      <c r="O1822" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1823" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1823" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C1823" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D1823" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1823" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1823" s="23" t="s">
+        <v>977</v>
+      </c>
+      <c r="G1823" s="23"/>
+      <c r="H1823" s="23"/>
+      <c r="I1823" s="24" t="s">
+        <v>1814</v>
+      </c>
+      <c r="J1823" s="24"/>
+      <c r="K1823" s="24"/>
+      <c r="O1823" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1824" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1824" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C1824" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D1824" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1824" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1824" s="23" t="s">
+        <v>977</v>
+      </c>
+      <c r="G1824" s="23"/>
+      <c r="H1824" s="23"/>
+      <c r="I1824" s="24" t="s">
+        <v>1815</v>
+      </c>
+      <c r="J1824" s="24"/>
+      <c r="K1824" s="24"/>
+      <c r="O1824" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1825" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C1825" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D1825" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1825" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1825" s="23" t="s">
+        <v>977</v>
+      </c>
+      <c r="G1825" s="23"/>
+      <c r="H1825" s="23"/>
+      <c r="I1825" s="24" t="s">
+        <v>1816</v>
+      </c>
+      <c r="J1825" s="24"/>
+      <c r="K1825" s="24"/>
+      <c r="O1825" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1826" s="30" t="s">
+        <v>977</v>
+      </c>
+      <c r="C1826" s="30"/>
+      <c r="D1826" s="30" t="s">
+        <v>977</v>
+      </c>
+      <c r="E1826" s="30"/>
+      <c r="F1826" s="30" t="s">
+        <v>977</v>
+      </c>
+      <c r="G1826" s="30"/>
+      <c r="H1826" s="30"/>
+      <c r="I1826" s="31" t="s">
+        <v>1817</v>
+      </c>
+      <c r="J1826" s="31"/>
+      <c r="K1826" s="31" t="s">
+        <v>1818</v>
+      </c>
+      <c r="O1826" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1827" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1827" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C1827" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D1827" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1827" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1827" s="23" t="s">
+        <v>1694</v>
+      </c>
+      <c r="G1827" s="23"/>
+      <c r="H1827" s="23"/>
+      <c r="I1827" s="24" t="s">
+        <v>1819</v>
+      </c>
+      <c r="J1827" s="24"/>
+      <c r="K1827" s="24" t="s">
+        <v>1820</v>
+      </c>
+      <c r="O1827" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1828" s="30" t="s">
+        <v>977</v>
+      </c>
+      <c r="C1828" s="30"/>
+      <c r="D1828" s="30" t="s">
+        <v>977</v>
+      </c>
+      <c r="E1828" s="30"/>
+      <c r="F1828" s="30" t="s">
+        <v>977</v>
+      </c>
+      <c r="G1828" s="30"/>
+      <c r="H1828" s="30"/>
+      <c r="I1828" s="31" t="s">
+        <v>1821</v>
+      </c>
+      <c r="J1828" s="31"/>
+      <c r="K1828" s="31" t="s">
+        <v>1818</v>
+      </c>
+      <c r="O1828" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1829" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C1829" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D1829" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1829" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1829" s="23" t="s">
+        <v>977</v>
+      </c>
+      <c r="G1829" s="23"/>
+      <c r="H1829" s="23"/>
+      <c r="I1829" s="24" t="s">
+        <v>1822</v>
+      </c>
+      <c r="J1829" s="24"/>
+      <c r="K1829" s="24"/>
+      <c r="O1829" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.766666666666667" header="0.511811023622047" footer="0.5"/>

--- a/FRC_Traj_Pkg/Misc/FRC_LabVIEW_Trajectory_Library_Routines.xlsx
+++ b/FRC_Traj_Pkg/Misc/FRC_LabVIEW_Trajectory_Library_Routines.xlsx
@@ -23,12 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11099" uniqueCount="1867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11118" uniqueCount="1871">
   <si>
     <t xml:space="preserve">WPILib LabVIEW Math Library – VI Implementation List</t>
   </si>
   <si>
-    <t xml:space="preserve">Revision 3.08   11/07/2023 – Added edge detect, bool cmd, drum sequencer, double solenoid pulse</t>
+    <t xml:space="preserve">Revision 2025.0   1/7/2025 – Update april tag definitions, added new field.</t>
   </si>
   <si>
     <t xml:space="preserve">This documents which Java/C++ WPILIB routines have been </t>
@@ -5041,9 +5041,24 @@
     <t xml:space="preserve">AprilTagFieldLayout_New2023.vi</t>
   </si>
   <si>
+    <t xml:space="preserve">AprilTagFieldLayout_New2024.vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AprilTagFieldLayout_New2025.vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
     <t xml:space="preserve">AprilTagFieldLayout_NewSelect.vi</t>
   </si>
   <si>
+    <t xml:space="preserve">polymorphic VI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AprilTagFieldLayout_NewSelect_OLD</t>
+  </si>
+  <si>
     <t xml:space="preserve">AprilTagFieldLayout_SetOrigin.vi</t>
   </si>
   <si>
@@ -5069,9 +5084,6 @@
   </si>
   <si>
     <t xml:space="preserve">FieldDisp_Element_Prepare.vi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
   </si>
   <si>
     <t xml:space="preserve">FieldDisp_Element_Rotate.vi</t>
@@ -6040,99 +6052,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF808080"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF33FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -6203,8 +6122,8 @@
   </sheetPr>
   <dimension ref="A1:AMI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6314,35 +6233,35 @@
       </c>
       <c r="B9" s="13" t="n">
         <f aca="false">B10+B11</f>
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="C9" s="13" t="n">
         <f aca="false">C10+C11</f>
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="D9" s="13" t="n">
-        <f aca="false">COUNTIF(D15:D2215,"X")</f>
+        <f aca="false">COUNTIF(D15:D2218,"X")</f>
         <v>479</v>
       </c>
       <c r="E9" s="13" t="n">
-        <f aca="false">COUNTIF(E15:E2215,"X")</f>
-        <v>1232</v>
+        <f aca="false">COUNTIF(E15:E2218,"X")</f>
+        <v>1234</v>
       </c>
       <c r="F9" s="13" t="n">
-        <f aca="false">COUNTIF(F15:F2215,"S")+COUNTIF(F15:F2215,"I")+COUNTIF(F15:F2215,"X")+COUNTIF(F15:F2215,"SI")+COUNTIF(F15:F2215,"IS")+COUNTIF(F15:F2215,"N/A")</f>
-        <v>788</v>
+        <f aca="false">COUNTIF(F15:F2218,"S")+COUNTIF(F15:F2218,"I")+COUNTIF(F15:F2218,"X")+COUNTIF(F15:F2218,"SI")+COUNTIF(F15:F2218,"IS")+COUNTIF(F15:F2218,"N/A")</f>
+        <v>790</v>
       </c>
       <c r="G9" s="13" t="n">
-        <f aca="false">COUNTIF(G15:G2215,"S")+COUNTIF(G15:G2215,"I")+COUNTIF(G15:G2215,"X")+COUNTIF(G15:G2215,"SI")+COUNTIF(G15:G2215,"IS")+COUNTIF(G15:G2215,"N/A")</f>
+        <f aca="false">COUNTIF(G15:G2218,"S")+COUNTIF(G15:G2218,"I")+COUNTIF(G15:G2218,"X")+COUNTIF(G15:G2218,"SI")+COUNTIF(G15:G2218,"IS")+COUNTIF(G15:G2218,"N/A")</f>
         <v>49</v>
       </c>
       <c r="H9" s="13" t="n">
-        <f aca="false">COUNTIF(H15:H2215,"S")+COUNTIF(H15:H2215,"I")+COUNTIF(H15:H2215,"X")+COUNTIF(H15:H2215,"SI")+COUNTIF(H15:H2215,"IS")+COUNTIF(H15:H2215,"N/A")</f>
+        <f aca="false">COUNTIF(H15:H2218,"S")+COUNTIF(H15:H2218,"I")+COUNTIF(H15:H2218,"X")+COUNTIF(H15:H2218,"SI")+COUNTIF(H15:H2218,"IS")+COUNTIF(H15:H2218,"N/A")</f>
         <v>16</v>
       </c>
       <c r="I9" s="14" t="n">
         <f aca="false">C9/B9</f>
-        <v>0.958615500376223</v>
+        <v>0.958708708708709</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6350,12 +6269,12 @@
         <v>14</v>
       </c>
       <c r="B10" s="13" t="n">
-        <f aca="false">COUNTIF(B15:B2215,"X")</f>
-        <v>1174</v>
+        <f aca="false">COUNTIF(B15:B2218,"X")</f>
+        <v>1177</v>
       </c>
       <c r="C10" s="13" t="n">
-        <f aca="false">COUNTIF(C15:C2215,"X")</f>
-        <v>1133</v>
+        <f aca="false">COUNTIF(C15:C2218,"X")</f>
+        <v>1136</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>15</v>
@@ -6366,16 +6285,16 @@
         <v>16</v>
       </c>
       <c r="B11" s="13" t="n">
-        <f aca="false">COUNTIF(B15:B2215,"Z")</f>
+        <f aca="false">COUNTIF(B15:B2218,"Z")</f>
         <v>155</v>
       </c>
       <c r="C11" s="13" t="n">
-        <f aca="false">COUNTIF(C15:C2215,"Z")</f>
+        <f aca="false">COUNTIF(C15:C2218,"Z")</f>
         <v>141</v>
       </c>
       <c r="I11" s="15" t="n">
         <f aca="false">F9/B9</f>
-        <v>0.592927012791573</v>
+        <v>0.593093093093093</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6383,7 +6302,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="13" t="n">
-        <f aca="false">COUNTIF(B15:B2215,"/")</f>
+        <f aca="false">COUNTIF(B15:B2218,"/")</f>
         <v>4</v>
       </c>
       <c r="I12" s="4"/>
@@ -6393,7 +6312,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="13" t="n">
-        <f aca="false">COUNTIF(B15:B2215,"\")</f>
+        <f aca="false">COUNTIF(B15:B2218,"\")</f>
         <v>2</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -55315,15 +55234,17 @@
         <v>32</v>
       </c>
       <c r="F1691" s="23" t="s">
-        <v>47</v>
+        <v>1674</v>
       </c>
       <c r="G1691" s="23"/>
       <c r="H1691" s="23"/>
       <c r="I1691" s="25" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="J1691" s="25"/>
-      <c r="K1691" s="25"/>
+      <c r="K1691" s="25" t="s">
+        <v>1676</v>
+      </c>
       <c r="L1691" s="23"/>
       <c r="M1691" s="23"/>
       <c r="N1691" s="23"/>
@@ -55332,14 +55253,24 @@
       </c>
     </row>
     <row r="1692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1692" s="23"/>
-      <c r="C1692" s="23"/>
+      <c r="B1692" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1692" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="D1692" s="23"/>
-      <c r="E1692" s="23"/>
-      <c r="F1692" s="23"/>
+      <c r="E1692" s="23" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F1692" s="23" t="s">
+        <v>47</v>
+      </c>
       <c r="G1692" s="23"/>
       <c r="H1692" s="23"/>
-      <c r="I1692" s="25"/>
+      <c r="I1692" s="25" t="s">
+        <v>1677</v>
+      </c>
       <c r="J1692" s="25"/>
       <c r="K1692" s="25"/>
       <c r="L1692" s="23"/>
@@ -55350,1089 +55281,70 @@
       </c>
     </row>
     <row r="1693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1693" s="26"/>
-      <c r="C1693" s="1"/>
-      <c r="D1693" s="1"/>
-      <c r="E1693" s="1"/>
-      <c r="F1693" s="1"/>
-      <c r="G1693" s="1"/>
-      <c r="H1693" s="1"/>
-      <c r="I1693" s="1"/>
-      <c r="J1693" s="1"/>
-      <c r="K1693" s="1"/>
-      <c r="L1693" s="1"/>
-      <c r="M1693" s="1"/>
-      <c r="N1693" s="1"/>
+      <c r="B1693" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1693" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1693" s="23"/>
+      <c r="E1693" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1693" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1693" s="23"/>
+      <c r="H1693" s="23"/>
+      <c r="I1693" s="25" t="s">
+        <v>1678</v>
+      </c>
+      <c r="J1693" s="25"/>
+      <c r="K1693" s="25"/>
+      <c r="L1693" s="23"/>
+      <c r="M1693" s="23"/>
+      <c r="N1693" s="23"/>
       <c r="O1693" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="Y1693" s="51"/>
-      <c r="Z1693" s="51"/>
-      <c r="AA1693" s="51"/>
-      <c r="AB1693" s="51"/>
-      <c r="AC1693" s="51"/>
-      <c r="AD1693" s="51"/>
-      <c r="AE1693" s="51"/>
-      <c r="AF1693" s="51"/>
-      <c r="AG1693" s="51"/>
-      <c r="AH1693" s="51"/>
-      <c r="AI1693" s="51"/>
-      <c r="AJ1693" s="51"/>
-      <c r="AK1693" s="51"/>
-      <c r="AL1693" s="51"/>
-      <c r="AM1693" s="51"/>
-      <c r="AN1693" s="51"/>
-      <c r="AO1693" s="51"/>
-      <c r="AP1693" s="51"/>
-      <c r="AQ1693" s="51"/>
-      <c r="AR1693" s="51"/>
-      <c r="AS1693" s="51"/>
-      <c r="AT1693" s="51"/>
-      <c r="AU1693" s="51"/>
-      <c r="AV1693" s="51"/>
-      <c r="AW1693" s="51"/>
-      <c r="AX1693" s="51"/>
-      <c r="AY1693" s="51"/>
-      <c r="AZ1693" s="51"/>
-      <c r="BA1693" s="51"/>
-      <c r="BB1693" s="51"/>
-      <c r="BC1693" s="51"/>
-      <c r="BD1693" s="51"/>
-      <c r="BE1693" s="51"/>
-      <c r="BF1693" s="51"/>
-      <c r="BG1693" s="51"/>
-      <c r="BH1693" s="51"/>
-      <c r="BI1693" s="51"/>
-      <c r="BJ1693" s="51"/>
-      <c r="BK1693" s="51"/>
-      <c r="BL1693" s="51"/>
-      <c r="BM1693" s="51"/>
-      <c r="BN1693" s="51"/>
-      <c r="BO1693" s="51"/>
-      <c r="BP1693" s="51"/>
-      <c r="BQ1693" s="51"/>
-      <c r="BR1693" s="51"/>
-      <c r="BS1693" s="51"/>
-      <c r="BT1693" s="51"/>
-      <c r="BU1693" s="51"/>
-      <c r="BV1693" s="51"/>
-      <c r="BW1693" s="51"/>
-      <c r="BX1693" s="51"/>
-      <c r="BY1693" s="51"/>
-      <c r="BZ1693" s="51"/>
-      <c r="CA1693" s="51"/>
-      <c r="CB1693" s="51"/>
-      <c r="CC1693" s="51"/>
-      <c r="CD1693" s="51"/>
-      <c r="CE1693" s="51"/>
-      <c r="CF1693" s="51"/>
-      <c r="CG1693" s="51"/>
-      <c r="CH1693" s="51"/>
-      <c r="CI1693" s="51"/>
-      <c r="CJ1693" s="51"/>
-      <c r="CK1693" s="51"/>
-      <c r="CL1693" s="51"/>
-      <c r="CM1693" s="51"/>
-      <c r="CN1693" s="51"/>
-      <c r="CO1693" s="51"/>
-      <c r="CP1693" s="51"/>
-      <c r="CQ1693" s="51"/>
-      <c r="CR1693" s="51"/>
-      <c r="CS1693" s="51"/>
-      <c r="CT1693" s="51"/>
-      <c r="CU1693" s="51"/>
-      <c r="CV1693" s="51"/>
-      <c r="CW1693" s="51"/>
-      <c r="CX1693" s="51"/>
-      <c r="CY1693" s="51"/>
-      <c r="CZ1693" s="51"/>
-      <c r="DA1693" s="51"/>
-      <c r="DB1693" s="51"/>
-      <c r="DC1693" s="51"/>
-      <c r="DD1693" s="51"/>
-      <c r="DE1693" s="51"/>
-      <c r="DF1693" s="51"/>
-      <c r="DG1693" s="51"/>
-      <c r="DH1693" s="51"/>
-      <c r="DI1693" s="51"/>
-      <c r="DJ1693" s="51"/>
-      <c r="DK1693" s="51"/>
-      <c r="DL1693" s="51"/>
-      <c r="DM1693" s="51"/>
-      <c r="DN1693" s="51"/>
-      <c r="DO1693" s="51"/>
-      <c r="DP1693" s="51"/>
-      <c r="DQ1693" s="51"/>
-      <c r="DR1693" s="51"/>
-      <c r="DS1693" s="51"/>
-      <c r="DT1693" s="51"/>
-      <c r="DU1693" s="51"/>
-      <c r="DV1693" s="51"/>
-      <c r="DW1693" s="51"/>
-      <c r="DX1693" s="51"/>
-      <c r="DY1693" s="51"/>
-      <c r="DZ1693" s="51"/>
-      <c r="EA1693" s="51"/>
-      <c r="EB1693" s="51"/>
-      <c r="EC1693" s="51"/>
-      <c r="ED1693" s="51"/>
-      <c r="EE1693" s="51"/>
-      <c r="EF1693" s="51"/>
-      <c r="EG1693" s="51"/>
-      <c r="EH1693" s="51"/>
-      <c r="EI1693" s="51"/>
-      <c r="EJ1693" s="51"/>
-      <c r="EK1693" s="51"/>
-      <c r="EL1693" s="51"/>
-      <c r="EM1693" s="51"/>
-      <c r="EN1693" s="51"/>
-      <c r="EO1693" s="51"/>
-      <c r="EP1693" s="51"/>
-      <c r="EQ1693" s="51"/>
-      <c r="ER1693" s="51"/>
-      <c r="ES1693" s="51"/>
-      <c r="ET1693" s="51"/>
-      <c r="EU1693" s="51"/>
-      <c r="EV1693" s="51"/>
-      <c r="EW1693" s="51"/>
-      <c r="EX1693" s="51"/>
-      <c r="EY1693" s="51"/>
-      <c r="EZ1693" s="51"/>
-      <c r="FA1693" s="51"/>
-      <c r="FB1693" s="51"/>
-      <c r="FC1693" s="51"/>
-      <c r="FD1693" s="51"/>
-      <c r="FE1693" s="51"/>
-      <c r="FF1693" s="51"/>
-      <c r="FG1693" s="51"/>
-      <c r="FH1693" s="51"/>
-      <c r="FI1693" s="51"/>
-      <c r="FJ1693" s="51"/>
-      <c r="FK1693" s="51"/>
-      <c r="FL1693" s="51"/>
-      <c r="FM1693" s="51"/>
-      <c r="FN1693" s="51"/>
-      <c r="FO1693" s="51"/>
-      <c r="FP1693" s="51"/>
-      <c r="FQ1693" s="51"/>
-      <c r="FR1693" s="51"/>
-      <c r="FS1693" s="51"/>
-      <c r="FT1693" s="51"/>
-      <c r="FU1693" s="51"/>
-      <c r="FV1693" s="51"/>
-      <c r="FW1693" s="51"/>
-      <c r="FX1693" s="51"/>
-      <c r="FY1693" s="51"/>
-      <c r="FZ1693" s="51"/>
-      <c r="GA1693" s="51"/>
-      <c r="GB1693" s="51"/>
-      <c r="GC1693" s="51"/>
-      <c r="GD1693" s="51"/>
-      <c r="GE1693" s="51"/>
-      <c r="GF1693" s="51"/>
-      <c r="GG1693" s="51"/>
-      <c r="GH1693" s="51"/>
-      <c r="GI1693" s="51"/>
-      <c r="GJ1693" s="51"/>
-      <c r="GK1693" s="51"/>
-      <c r="GL1693" s="51"/>
-      <c r="GM1693" s="51"/>
-      <c r="GN1693" s="51"/>
-      <c r="GO1693" s="51"/>
-      <c r="GP1693" s="51"/>
-      <c r="GQ1693" s="51"/>
-      <c r="GR1693" s="51"/>
-      <c r="GS1693" s="51"/>
-      <c r="GT1693" s="51"/>
-      <c r="GU1693" s="51"/>
-      <c r="GV1693" s="51"/>
-      <c r="GW1693" s="51"/>
-      <c r="GX1693" s="51"/>
-      <c r="GY1693" s="51"/>
-      <c r="GZ1693" s="51"/>
-      <c r="HA1693" s="51"/>
-      <c r="HB1693" s="51"/>
-      <c r="HC1693" s="51"/>
-      <c r="HD1693" s="51"/>
-      <c r="HE1693" s="51"/>
-      <c r="HF1693" s="51"/>
-      <c r="HG1693" s="51"/>
-      <c r="HH1693" s="51"/>
-      <c r="HI1693" s="51"/>
-      <c r="HJ1693" s="51"/>
-      <c r="HK1693" s="51"/>
-      <c r="HL1693" s="51"/>
-      <c r="HM1693" s="51"/>
-      <c r="HN1693" s="51"/>
-      <c r="HO1693" s="51"/>
-      <c r="HP1693" s="51"/>
-      <c r="HQ1693" s="51"/>
-      <c r="HR1693" s="51"/>
-      <c r="HS1693" s="51"/>
-      <c r="HT1693" s="51"/>
-      <c r="HU1693" s="51"/>
-      <c r="HV1693" s="51"/>
-      <c r="HW1693" s="51"/>
-      <c r="HX1693" s="51"/>
-      <c r="HY1693" s="51"/>
-      <c r="HZ1693" s="51"/>
-      <c r="IA1693" s="51"/>
-      <c r="IB1693" s="51"/>
-      <c r="IC1693" s="51"/>
-      <c r="ID1693" s="51"/>
-      <c r="IE1693" s="51"/>
-      <c r="IF1693" s="51"/>
-      <c r="IG1693" s="51"/>
-      <c r="IH1693" s="51"/>
-      <c r="II1693" s="51"/>
-      <c r="IJ1693" s="51"/>
-      <c r="IK1693" s="51"/>
-      <c r="IL1693" s="51"/>
-      <c r="IM1693" s="51"/>
-      <c r="IN1693" s="51"/>
-      <c r="IO1693" s="51"/>
-      <c r="IP1693" s="51"/>
-      <c r="IQ1693" s="51"/>
-      <c r="IR1693" s="51"/>
-      <c r="IS1693" s="51"/>
-      <c r="IT1693" s="51"/>
-      <c r="IU1693" s="51"/>
-      <c r="IV1693" s="51"/>
-      <c r="IW1693" s="51"/>
-      <c r="IX1693" s="51"/>
-      <c r="IY1693" s="51"/>
-      <c r="IZ1693" s="51"/>
-      <c r="JA1693" s="51"/>
-      <c r="JB1693" s="51"/>
-      <c r="JC1693" s="51"/>
-      <c r="JD1693" s="51"/>
-      <c r="JE1693" s="51"/>
-      <c r="JF1693" s="51"/>
-      <c r="JG1693" s="51"/>
-      <c r="JH1693" s="51"/>
-      <c r="JI1693" s="51"/>
-      <c r="JJ1693" s="51"/>
-      <c r="JK1693" s="51"/>
-      <c r="JL1693" s="51"/>
-      <c r="JM1693" s="51"/>
-      <c r="JN1693" s="51"/>
-      <c r="JO1693" s="51"/>
-      <c r="JP1693" s="51"/>
-      <c r="JQ1693" s="51"/>
-      <c r="JR1693" s="51"/>
-      <c r="JS1693" s="51"/>
-      <c r="JT1693" s="51"/>
-      <c r="JU1693" s="51"/>
-      <c r="JV1693" s="51"/>
-      <c r="JW1693" s="51"/>
-      <c r="JX1693" s="51"/>
-      <c r="JY1693" s="51"/>
-      <c r="JZ1693" s="51"/>
-      <c r="KA1693" s="51"/>
-      <c r="KB1693" s="51"/>
-      <c r="KC1693" s="51"/>
-      <c r="KD1693" s="51"/>
-      <c r="KE1693" s="51"/>
-      <c r="KF1693" s="51"/>
-      <c r="KG1693" s="51"/>
-      <c r="KH1693" s="51"/>
-      <c r="KI1693" s="51"/>
-      <c r="KJ1693" s="51"/>
-      <c r="KK1693" s="51"/>
-      <c r="KL1693" s="51"/>
-      <c r="KM1693" s="51"/>
-      <c r="KN1693" s="51"/>
-      <c r="KO1693" s="51"/>
-      <c r="KP1693" s="51"/>
-      <c r="KQ1693" s="51"/>
-      <c r="KR1693" s="51"/>
-      <c r="KS1693" s="51"/>
-      <c r="KT1693" s="51"/>
-      <c r="KU1693" s="51"/>
-      <c r="KV1693" s="51"/>
-      <c r="KW1693" s="51"/>
-      <c r="KX1693" s="51"/>
-      <c r="KY1693" s="51"/>
-      <c r="KZ1693" s="51"/>
-      <c r="LA1693" s="51"/>
-      <c r="LB1693" s="51"/>
-      <c r="LC1693" s="51"/>
-      <c r="LD1693" s="51"/>
-      <c r="LE1693" s="51"/>
-      <c r="LF1693" s="51"/>
-      <c r="LG1693" s="51"/>
-      <c r="LH1693" s="51"/>
-      <c r="LI1693" s="51"/>
-      <c r="LJ1693" s="51"/>
-      <c r="LK1693" s="51"/>
-      <c r="LL1693" s="51"/>
-      <c r="LM1693" s="51"/>
-      <c r="LN1693" s="51"/>
-      <c r="LO1693" s="51"/>
-      <c r="LP1693" s="51"/>
-      <c r="LQ1693" s="51"/>
-      <c r="LR1693" s="51"/>
-      <c r="LS1693" s="51"/>
-      <c r="LT1693" s="51"/>
-      <c r="LU1693" s="51"/>
-      <c r="LV1693" s="51"/>
-      <c r="LW1693" s="51"/>
-      <c r="LX1693" s="51"/>
-      <c r="LY1693" s="51"/>
-      <c r="LZ1693" s="51"/>
-      <c r="MA1693" s="51"/>
-      <c r="MB1693" s="51"/>
-      <c r="MC1693" s="51"/>
-      <c r="MD1693" s="51"/>
-      <c r="ME1693" s="51"/>
-      <c r="MF1693" s="51"/>
-      <c r="MG1693" s="51"/>
-      <c r="MH1693" s="51"/>
-      <c r="MI1693" s="51"/>
-      <c r="MJ1693" s="51"/>
-      <c r="MK1693" s="51"/>
-      <c r="ML1693" s="51"/>
-      <c r="MM1693" s="51"/>
-      <c r="MN1693" s="51"/>
-      <c r="MO1693" s="51"/>
-      <c r="MP1693" s="51"/>
-      <c r="MQ1693" s="51"/>
-      <c r="MR1693" s="51"/>
-      <c r="MS1693" s="51"/>
-      <c r="MT1693" s="51"/>
-      <c r="MU1693" s="51"/>
-      <c r="MV1693" s="51"/>
-      <c r="MW1693" s="51"/>
-      <c r="MX1693" s="51"/>
-      <c r="MY1693" s="51"/>
-      <c r="MZ1693" s="51"/>
-      <c r="NA1693" s="51"/>
-      <c r="NB1693" s="51"/>
-      <c r="NC1693" s="51"/>
-      <c r="ND1693" s="51"/>
-      <c r="NE1693" s="51"/>
-      <c r="NF1693" s="51"/>
-      <c r="NG1693" s="51"/>
-      <c r="NH1693" s="51"/>
-      <c r="NI1693" s="51"/>
-      <c r="NJ1693" s="51"/>
-      <c r="NK1693" s="51"/>
-      <c r="NL1693" s="51"/>
-      <c r="NM1693" s="51"/>
-      <c r="NN1693" s="51"/>
-      <c r="NO1693" s="51"/>
-      <c r="NP1693" s="51"/>
-      <c r="NQ1693" s="51"/>
-      <c r="NR1693" s="51"/>
-      <c r="NS1693" s="51"/>
-      <c r="NT1693" s="51"/>
-      <c r="NU1693" s="51"/>
-      <c r="NV1693" s="51"/>
-      <c r="NW1693" s="51"/>
-      <c r="NX1693" s="51"/>
-      <c r="NY1693" s="51"/>
-      <c r="NZ1693" s="51"/>
-      <c r="OA1693" s="51"/>
-      <c r="OB1693" s="51"/>
-      <c r="OC1693" s="51"/>
-      <c r="OD1693" s="51"/>
-      <c r="OE1693" s="51"/>
-      <c r="OF1693" s="51"/>
-      <c r="OG1693" s="51"/>
-      <c r="OH1693" s="51"/>
-      <c r="OI1693" s="51"/>
-      <c r="OJ1693" s="51"/>
-      <c r="OK1693" s="51"/>
-      <c r="OL1693" s="51"/>
-      <c r="OM1693" s="51"/>
-      <c r="ON1693" s="51"/>
-      <c r="OO1693" s="51"/>
-      <c r="OP1693" s="51"/>
-      <c r="OQ1693" s="51"/>
-      <c r="OR1693" s="51"/>
-      <c r="OS1693" s="51"/>
-      <c r="OT1693" s="51"/>
-      <c r="OU1693" s="51"/>
-      <c r="OV1693" s="51"/>
-      <c r="OW1693" s="51"/>
-      <c r="OX1693" s="51"/>
-      <c r="OY1693" s="51"/>
-      <c r="OZ1693" s="51"/>
-      <c r="PA1693" s="51"/>
-      <c r="PB1693" s="51"/>
-      <c r="PC1693" s="51"/>
-      <c r="PD1693" s="51"/>
-      <c r="PE1693" s="51"/>
-      <c r="PF1693" s="51"/>
-      <c r="PG1693" s="51"/>
-      <c r="PH1693" s="51"/>
-      <c r="PI1693" s="51"/>
-      <c r="PJ1693" s="51"/>
-      <c r="PK1693" s="51"/>
-      <c r="PL1693" s="51"/>
-      <c r="PM1693" s="51"/>
-      <c r="PN1693" s="51"/>
-      <c r="PO1693" s="51"/>
-      <c r="PP1693" s="51"/>
-      <c r="PQ1693" s="51"/>
-      <c r="PR1693" s="51"/>
-      <c r="PS1693" s="51"/>
-      <c r="PT1693" s="51"/>
-      <c r="PU1693" s="51"/>
-      <c r="PV1693" s="51"/>
-      <c r="PW1693" s="51"/>
-      <c r="PX1693" s="51"/>
-      <c r="PY1693" s="51"/>
-      <c r="PZ1693" s="51"/>
-      <c r="QA1693" s="51"/>
-      <c r="QB1693" s="51"/>
-      <c r="QC1693" s="51"/>
-      <c r="QD1693" s="51"/>
-      <c r="QE1693" s="51"/>
-      <c r="QF1693" s="51"/>
-      <c r="QG1693" s="51"/>
-      <c r="QH1693" s="51"/>
-      <c r="QI1693" s="51"/>
-      <c r="QJ1693" s="51"/>
-      <c r="QK1693" s="51"/>
-      <c r="QL1693" s="51"/>
-      <c r="QM1693" s="51"/>
-      <c r="QN1693" s="51"/>
-      <c r="QO1693" s="51"/>
-      <c r="QP1693" s="51"/>
-      <c r="QQ1693" s="51"/>
-      <c r="QR1693" s="51"/>
-      <c r="QS1693" s="51"/>
-      <c r="QT1693" s="51"/>
-      <c r="QU1693" s="51"/>
-      <c r="QV1693" s="51"/>
-      <c r="QW1693" s="51"/>
-      <c r="QX1693" s="51"/>
-      <c r="QY1693" s="51"/>
-      <c r="QZ1693" s="51"/>
-      <c r="RA1693" s="51"/>
-      <c r="RB1693" s="51"/>
-      <c r="RC1693" s="51"/>
-      <c r="RD1693" s="51"/>
-      <c r="RE1693" s="51"/>
-      <c r="RF1693" s="51"/>
-      <c r="RG1693" s="51"/>
-      <c r="RH1693" s="51"/>
-      <c r="RI1693" s="51"/>
-      <c r="RJ1693" s="51"/>
-      <c r="RK1693" s="51"/>
-      <c r="RL1693" s="51"/>
-      <c r="RM1693" s="51"/>
-      <c r="RN1693" s="51"/>
-      <c r="RO1693" s="51"/>
-      <c r="RP1693" s="51"/>
-      <c r="RQ1693" s="51"/>
-      <c r="RR1693" s="51"/>
-      <c r="RS1693" s="51"/>
-      <c r="RT1693" s="51"/>
-      <c r="RU1693" s="51"/>
-      <c r="RV1693" s="51"/>
-      <c r="RW1693" s="51"/>
-      <c r="RX1693" s="51"/>
-      <c r="RY1693" s="51"/>
-      <c r="RZ1693" s="51"/>
-      <c r="SA1693" s="51"/>
-      <c r="SB1693" s="51"/>
-      <c r="SC1693" s="51"/>
-      <c r="SD1693" s="51"/>
-      <c r="SE1693" s="51"/>
-      <c r="SF1693" s="51"/>
-      <c r="SG1693" s="51"/>
-      <c r="SH1693" s="51"/>
-      <c r="SI1693" s="51"/>
-      <c r="SJ1693" s="51"/>
-      <c r="SK1693" s="51"/>
-      <c r="SL1693" s="51"/>
-      <c r="SM1693" s="51"/>
-      <c r="SN1693" s="51"/>
-      <c r="SO1693" s="51"/>
-      <c r="SP1693" s="51"/>
-      <c r="SQ1693" s="51"/>
-      <c r="SR1693" s="51"/>
-      <c r="SS1693" s="51"/>
-      <c r="ST1693" s="51"/>
-      <c r="SU1693" s="51"/>
-      <c r="SV1693" s="51"/>
-      <c r="SW1693" s="51"/>
-      <c r="SX1693" s="51"/>
-      <c r="SY1693" s="51"/>
-      <c r="SZ1693" s="51"/>
-      <c r="TA1693" s="51"/>
-      <c r="TB1693" s="51"/>
-      <c r="TC1693" s="51"/>
-      <c r="TD1693" s="51"/>
-      <c r="TE1693" s="51"/>
-      <c r="TF1693" s="51"/>
-      <c r="TG1693" s="51"/>
-      <c r="TH1693" s="51"/>
-      <c r="TI1693" s="51"/>
-      <c r="TJ1693" s="51"/>
-      <c r="TK1693" s="51"/>
-      <c r="TL1693" s="51"/>
-      <c r="TM1693" s="51"/>
-      <c r="TN1693" s="51"/>
-      <c r="TO1693" s="51"/>
-      <c r="TP1693" s="51"/>
-      <c r="TQ1693" s="51"/>
-      <c r="TR1693" s="51"/>
-      <c r="TS1693" s="51"/>
-      <c r="TT1693" s="51"/>
-      <c r="TU1693" s="51"/>
-      <c r="TV1693" s="51"/>
-      <c r="TW1693" s="51"/>
-      <c r="TX1693" s="51"/>
-      <c r="TY1693" s="51"/>
-      <c r="TZ1693" s="51"/>
-      <c r="UA1693" s="51"/>
-      <c r="UB1693" s="51"/>
-      <c r="UC1693" s="51"/>
-      <c r="UD1693" s="51"/>
-      <c r="UE1693" s="51"/>
-      <c r="UF1693" s="51"/>
-      <c r="UG1693" s="51"/>
-      <c r="UH1693" s="51"/>
-      <c r="UI1693" s="51"/>
-      <c r="UJ1693" s="51"/>
-      <c r="UK1693" s="51"/>
-      <c r="UL1693" s="51"/>
-      <c r="UM1693" s="51"/>
-      <c r="UN1693" s="51"/>
-      <c r="UO1693" s="51"/>
-      <c r="UP1693" s="51"/>
-      <c r="UQ1693" s="51"/>
-      <c r="UR1693" s="51"/>
-      <c r="US1693" s="51"/>
-      <c r="UT1693" s="51"/>
-      <c r="UU1693" s="51"/>
-      <c r="UV1693" s="51"/>
-      <c r="UW1693" s="51"/>
-      <c r="UX1693" s="51"/>
-      <c r="UY1693" s="51"/>
-      <c r="UZ1693" s="51"/>
-      <c r="VA1693" s="51"/>
-      <c r="VB1693" s="51"/>
-      <c r="VC1693" s="51"/>
-      <c r="VD1693" s="51"/>
-      <c r="VE1693" s="51"/>
-      <c r="VF1693" s="51"/>
-      <c r="VG1693" s="51"/>
-      <c r="VH1693" s="51"/>
-      <c r="VI1693" s="51"/>
-      <c r="VJ1693" s="51"/>
-      <c r="VK1693" s="51"/>
-      <c r="VL1693" s="51"/>
-      <c r="VM1693" s="51"/>
-      <c r="VN1693" s="51"/>
-      <c r="VO1693" s="51"/>
-      <c r="VP1693" s="51"/>
-      <c r="VQ1693" s="51"/>
-      <c r="VR1693" s="51"/>
-      <c r="VS1693" s="51"/>
-      <c r="VT1693" s="51"/>
-      <c r="VU1693" s="51"/>
-      <c r="VV1693" s="51"/>
-      <c r="VW1693" s="51"/>
-      <c r="VX1693" s="51"/>
-      <c r="VY1693" s="51"/>
-      <c r="VZ1693" s="51"/>
-      <c r="WA1693" s="51"/>
-      <c r="WB1693" s="51"/>
-      <c r="WC1693" s="51"/>
-      <c r="WD1693" s="51"/>
-      <c r="WE1693" s="51"/>
-      <c r="WF1693" s="51"/>
-      <c r="WG1693" s="51"/>
-      <c r="WH1693" s="51"/>
-      <c r="WI1693" s="51"/>
-      <c r="WJ1693" s="51"/>
-      <c r="WK1693" s="51"/>
-      <c r="WL1693" s="51"/>
-      <c r="WM1693" s="51"/>
-      <c r="WN1693" s="51"/>
-      <c r="WO1693" s="51"/>
-      <c r="WP1693" s="51"/>
-      <c r="WQ1693" s="51"/>
-      <c r="WR1693" s="51"/>
-      <c r="WS1693" s="51"/>
-      <c r="WT1693" s="51"/>
-      <c r="WU1693" s="51"/>
-      <c r="WV1693" s="51"/>
-      <c r="WW1693" s="51"/>
-      <c r="WX1693" s="51"/>
-      <c r="WY1693" s="51"/>
-      <c r="WZ1693" s="51"/>
-      <c r="XA1693" s="51"/>
-      <c r="XB1693" s="51"/>
-      <c r="XC1693" s="51"/>
-      <c r="XD1693" s="51"/>
-      <c r="XE1693" s="51"/>
-      <c r="XF1693" s="51"/>
-      <c r="XG1693" s="51"/>
-      <c r="XH1693" s="51"/>
-      <c r="XI1693" s="51"/>
-      <c r="XJ1693" s="51"/>
-      <c r="XK1693" s="51"/>
-      <c r="XL1693" s="51"/>
-      <c r="XM1693" s="51"/>
-      <c r="XN1693" s="51"/>
-      <c r="XO1693" s="51"/>
-      <c r="XP1693" s="51"/>
-      <c r="XQ1693" s="51"/>
-      <c r="XR1693" s="51"/>
-      <c r="XS1693" s="51"/>
-      <c r="XT1693" s="51"/>
-      <c r="XU1693" s="51"/>
-      <c r="XV1693" s="51"/>
-      <c r="XW1693" s="51"/>
-      <c r="XX1693" s="51"/>
-      <c r="XY1693" s="51"/>
-      <c r="XZ1693" s="51"/>
-      <c r="YA1693" s="51"/>
-      <c r="YB1693" s="51"/>
-      <c r="YC1693" s="51"/>
-      <c r="YD1693" s="51"/>
-      <c r="YE1693" s="51"/>
-      <c r="YF1693" s="51"/>
-      <c r="YG1693" s="51"/>
-      <c r="YH1693" s="51"/>
-      <c r="YI1693" s="51"/>
-      <c r="YJ1693" s="51"/>
-      <c r="YK1693" s="51"/>
-      <c r="YL1693" s="51"/>
-      <c r="YM1693" s="51"/>
-      <c r="YN1693" s="51"/>
-      <c r="YO1693" s="51"/>
-      <c r="YP1693" s="51"/>
-      <c r="YQ1693" s="51"/>
-      <c r="YR1693" s="51"/>
-      <c r="YS1693" s="51"/>
-      <c r="YT1693" s="51"/>
-      <c r="YU1693" s="51"/>
-      <c r="YV1693" s="51"/>
-      <c r="YW1693" s="51"/>
-      <c r="YX1693" s="51"/>
-      <c r="YY1693" s="51"/>
-      <c r="YZ1693" s="51"/>
-      <c r="ZA1693" s="51"/>
-      <c r="ZB1693" s="51"/>
-      <c r="ZC1693" s="51"/>
-      <c r="ZD1693" s="51"/>
-      <c r="ZE1693" s="51"/>
-      <c r="ZF1693" s="51"/>
-      <c r="ZG1693" s="51"/>
-      <c r="ZH1693" s="51"/>
-      <c r="ZI1693" s="51"/>
-      <c r="ZJ1693" s="51"/>
-      <c r="ZK1693" s="51"/>
-      <c r="ZL1693" s="51"/>
-      <c r="ZM1693" s="51"/>
-      <c r="ZN1693" s="51"/>
-      <c r="ZO1693" s="51"/>
-      <c r="ZP1693" s="51"/>
-      <c r="ZQ1693" s="51"/>
-      <c r="ZR1693" s="51"/>
-      <c r="ZS1693" s="51"/>
-      <c r="ZT1693" s="51"/>
-      <c r="ZU1693" s="51"/>
-      <c r="ZV1693" s="51"/>
-      <c r="ZW1693" s="51"/>
-      <c r="ZX1693" s="51"/>
-      <c r="ZY1693" s="51"/>
-      <c r="ZZ1693" s="51"/>
-      <c r="AAA1693" s="51"/>
-      <c r="AAB1693" s="51"/>
-      <c r="AAC1693" s="51"/>
-      <c r="AAD1693" s="51"/>
-      <c r="AAE1693" s="51"/>
-      <c r="AAF1693" s="51"/>
-      <c r="AAG1693" s="51"/>
-      <c r="AAH1693" s="51"/>
-      <c r="AAI1693" s="51"/>
-      <c r="AAJ1693" s="51"/>
-      <c r="AAK1693" s="51"/>
-      <c r="AAL1693" s="51"/>
-      <c r="AAM1693" s="51"/>
-      <c r="AAN1693" s="51"/>
-      <c r="AAO1693" s="51"/>
-      <c r="AAP1693" s="51"/>
-      <c r="AAQ1693" s="51"/>
-      <c r="AAR1693" s="51"/>
-      <c r="AAS1693" s="51"/>
-      <c r="AAT1693" s="51"/>
-      <c r="AAU1693" s="51"/>
-      <c r="AAV1693" s="51"/>
-      <c r="AAW1693" s="51"/>
-      <c r="AAX1693" s="51"/>
-      <c r="AAY1693" s="51"/>
-      <c r="AAZ1693" s="51"/>
-      <c r="ABA1693" s="51"/>
-      <c r="ABB1693" s="51"/>
-      <c r="ABC1693" s="51"/>
-      <c r="ABD1693" s="51"/>
-      <c r="ABE1693" s="51"/>
-      <c r="ABF1693" s="51"/>
-      <c r="ABG1693" s="51"/>
-      <c r="ABH1693" s="51"/>
-      <c r="ABI1693" s="51"/>
-      <c r="ABJ1693" s="51"/>
-      <c r="ABK1693" s="51"/>
-      <c r="ABL1693" s="51"/>
-      <c r="ABM1693" s="51"/>
-      <c r="ABN1693" s="51"/>
-      <c r="ABO1693" s="51"/>
-      <c r="ABP1693" s="51"/>
-      <c r="ABQ1693" s="51"/>
-      <c r="ABR1693" s="51"/>
-      <c r="ABS1693" s="51"/>
-      <c r="ABT1693" s="51"/>
-      <c r="ABU1693" s="51"/>
-      <c r="ABV1693" s="51"/>
-      <c r="ABW1693" s="51"/>
-      <c r="ABX1693" s="51"/>
-      <c r="ABY1693" s="51"/>
-      <c r="ABZ1693" s="51"/>
-      <c r="ACA1693" s="51"/>
-      <c r="ACB1693" s="51"/>
-      <c r="ACC1693" s="51"/>
-      <c r="ACD1693" s="51"/>
-      <c r="ACE1693" s="51"/>
-      <c r="ACF1693" s="51"/>
-      <c r="ACG1693" s="51"/>
-      <c r="ACH1693" s="51"/>
-      <c r="ACI1693" s="51"/>
-      <c r="ACJ1693" s="51"/>
-      <c r="ACK1693" s="51"/>
-      <c r="ACL1693" s="51"/>
-      <c r="ACM1693" s="51"/>
-      <c r="ACN1693" s="51"/>
-      <c r="ACO1693" s="51"/>
-      <c r="ACP1693" s="51"/>
-      <c r="ACQ1693" s="51"/>
-      <c r="ACR1693" s="51"/>
-      <c r="ACS1693" s="51"/>
-      <c r="ACT1693" s="51"/>
-      <c r="ACU1693" s="51"/>
-      <c r="ACV1693" s="51"/>
-      <c r="ACW1693" s="51"/>
-      <c r="ACX1693" s="51"/>
-      <c r="ACY1693" s="51"/>
-      <c r="ACZ1693" s="51"/>
-      <c r="ADA1693" s="51"/>
-      <c r="ADB1693" s="51"/>
-      <c r="ADC1693" s="51"/>
-      <c r="ADD1693" s="51"/>
-      <c r="ADE1693" s="51"/>
-      <c r="ADF1693" s="51"/>
-      <c r="ADG1693" s="51"/>
-      <c r="ADH1693" s="51"/>
-      <c r="ADI1693" s="51"/>
-      <c r="ADJ1693" s="51"/>
-      <c r="ADK1693" s="51"/>
-      <c r="ADL1693" s="51"/>
-      <c r="ADM1693" s="51"/>
-      <c r="ADN1693" s="51"/>
-      <c r="ADO1693" s="51"/>
-      <c r="ADP1693" s="51"/>
-      <c r="ADQ1693" s="51"/>
-      <c r="ADR1693" s="51"/>
-      <c r="ADS1693" s="51"/>
-      <c r="ADT1693" s="51"/>
-      <c r="ADU1693" s="51"/>
-      <c r="ADV1693" s="51"/>
-      <c r="ADW1693" s="51"/>
-      <c r="ADX1693" s="51"/>
-      <c r="ADY1693" s="51"/>
-      <c r="ADZ1693" s="51"/>
-      <c r="AEA1693" s="51"/>
-      <c r="AEB1693" s="51"/>
-      <c r="AEC1693" s="51"/>
-      <c r="AED1693" s="51"/>
-      <c r="AEE1693" s="51"/>
-      <c r="AEF1693" s="51"/>
-      <c r="AEG1693" s="51"/>
-      <c r="AEH1693" s="51"/>
-      <c r="AEI1693" s="51"/>
-      <c r="AEJ1693" s="51"/>
-      <c r="AEK1693" s="51"/>
-      <c r="AEL1693" s="51"/>
-      <c r="AEM1693" s="51"/>
-      <c r="AEN1693" s="51"/>
-      <c r="AEO1693" s="51"/>
-      <c r="AEP1693" s="51"/>
-      <c r="AEQ1693" s="51"/>
-      <c r="AER1693" s="51"/>
-      <c r="AES1693" s="51"/>
-      <c r="AET1693" s="51"/>
-      <c r="AEU1693" s="51"/>
-      <c r="AEV1693" s="51"/>
-      <c r="AEW1693" s="51"/>
-      <c r="AEX1693" s="51"/>
-      <c r="AEY1693" s="51"/>
-      <c r="AEZ1693" s="51"/>
-      <c r="AFA1693" s="51"/>
-      <c r="AFB1693" s="51"/>
-      <c r="AFC1693" s="51"/>
-      <c r="AFD1693" s="51"/>
-      <c r="AFE1693" s="51"/>
-      <c r="AFF1693" s="51"/>
-      <c r="AFG1693" s="51"/>
-      <c r="AFH1693" s="51"/>
-      <c r="AFI1693" s="51"/>
-      <c r="AFJ1693" s="51"/>
-      <c r="AFK1693" s="51"/>
-      <c r="AFL1693" s="51"/>
-      <c r="AFM1693" s="51"/>
-      <c r="AFN1693" s="51"/>
-      <c r="AFO1693" s="51"/>
-      <c r="AFP1693" s="51"/>
-      <c r="AFQ1693" s="51"/>
-      <c r="AFR1693" s="51"/>
-      <c r="AFS1693" s="51"/>
-      <c r="AFT1693" s="51"/>
-      <c r="AFU1693" s="51"/>
-      <c r="AFV1693" s="51"/>
-      <c r="AFW1693" s="51"/>
-      <c r="AFX1693" s="51"/>
-      <c r="AFY1693" s="51"/>
-      <c r="AFZ1693" s="51"/>
-      <c r="AGA1693" s="51"/>
-      <c r="AGB1693" s="51"/>
-      <c r="AGC1693" s="51"/>
-      <c r="AGD1693" s="51"/>
-      <c r="AGE1693" s="51"/>
-      <c r="AGF1693" s="51"/>
-      <c r="AGG1693" s="51"/>
-      <c r="AGH1693" s="51"/>
-      <c r="AGI1693" s="51"/>
-      <c r="AGJ1693" s="51"/>
-      <c r="AGK1693" s="51"/>
-      <c r="AGL1693" s="51"/>
-      <c r="AGM1693" s="51"/>
-      <c r="AGN1693" s="51"/>
-      <c r="AGO1693" s="51"/>
-      <c r="AGP1693" s="51"/>
-      <c r="AGQ1693" s="51"/>
-      <c r="AGR1693" s="51"/>
-      <c r="AGS1693" s="51"/>
-      <c r="AGT1693" s="51"/>
-      <c r="AGU1693" s="51"/>
-      <c r="AGV1693" s="51"/>
-      <c r="AGW1693" s="51"/>
-      <c r="AGX1693" s="51"/>
-      <c r="AGY1693" s="51"/>
-      <c r="AGZ1693" s="51"/>
-      <c r="AHA1693" s="51"/>
-      <c r="AHB1693" s="51"/>
-      <c r="AHC1693" s="51"/>
-      <c r="AHD1693" s="51"/>
-      <c r="AHE1693" s="51"/>
-      <c r="AHF1693" s="51"/>
-      <c r="AHG1693" s="51"/>
-      <c r="AHH1693" s="51"/>
-      <c r="AHI1693" s="51"/>
-      <c r="AHJ1693" s="51"/>
-      <c r="AHK1693" s="51"/>
-      <c r="AHL1693" s="51"/>
-      <c r="AHM1693" s="51"/>
-      <c r="AHN1693" s="51"/>
-      <c r="AHO1693" s="51"/>
-      <c r="AHP1693" s="51"/>
-      <c r="AHQ1693" s="51"/>
-      <c r="AHR1693" s="51"/>
-      <c r="AHS1693" s="51"/>
-      <c r="AHT1693" s="51"/>
-      <c r="AHU1693" s="51"/>
-      <c r="AHV1693" s="51"/>
-      <c r="AHW1693" s="51"/>
-      <c r="AHX1693" s="51"/>
-      <c r="AHY1693" s="51"/>
-      <c r="AHZ1693" s="51"/>
-      <c r="AIA1693" s="51"/>
-      <c r="AIB1693" s="51"/>
-      <c r="AIC1693" s="51"/>
-      <c r="AID1693" s="51"/>
-      <c r="AIE1693" s="51"/>
-      <c r="AIF1693" s="51"/>
-      <c r="AIG1693" s="51"/>
-      <c r="AIH1693" s="51"/>
-      <c r="AII1693" s="51"/>
-      <c r="AIJ1693" s="51"/>
-      <c r="AIK1693" s="51"/>
-      <c r="AIL1693" s="51"/>
-      <c r="AIM1693" s="51"/>
-      <c r="AIN1693" s="51"/>
-      <c r="AIO1693" s="51"/>
-      <c r="AIP1693" s="51"/>
-      <c r="AIQ1693" s="51"/>
-      <c r="AIR1693" s="51"/>
-      <c r="AIS1693" s="51"/>
-      <c r="AIT1693" s="51"/>
-      <c r="AIU1693" s="51"/>
-      <c r="AIV1693" s="51"/>
-      <c r="AIW1693" s="51"/>
-      <c r="AIX1693" s="51"/>
-      <c r="AIY1693" s="51"/>
-      <c r="AIZ1693" s="51"/>
-      <c r="AJA1693" s="51"/>
-      <c r="AJB1693" s="51"/>
-      <c r="AJC1693" s="51"/>
-      <c r="AJD1693" s="51"/>
-      <c r="AJE1693" s="51"/>
-      <c r="AJF1693" s="51"/>
-      <c r="AJG1693" s="51"/>
-      <c r="AJH1693" s="51"/>
-      <c r="AJI1693" s="51"/>
-      <c r="AJJ1693" s="51"/>
-      <c r="AJK1693" s="51"/>
-      <c r="AJL1693" s="51"/>
-      <c r="AJM1693" s="51"/>
-      <c r="AJN1693" s="51"/>
-      <c r="AJO1693" s="51"/>
-      <c r="AJP1693" s="51"/>
-      <c r="AJQ1693" s="51"/>
-      <c r="AJR1693" s="51"/>
-      <c r="AJS1693" s="51"/>
-      <c r="AJT1693" s="51"/>
-      <c r="AJU1693" s="51"/>
-      <c r="AJV1693" s="51"/>
-      <c r="AJW1693" s="51"/>
-      <c r="AJX1693" s="51"/>
-      <c r="AJY1693" s="51"/>
-      <c r="AJZ1693" s="51"/>
-      <c r="AKA1693" s="51"/>
-      <c r="AKB1693" s="51"/>
-      <c r="AKC1693" s="51"/>
-      <c r="AKD1693" s="51"/>
-      <c r="AKE1693" s="51"/>
-      <c r="AKF1693" s="51"/>
-      <c r="AKG1693" s="51"/>
-      <c r="AKH1693" s="51"/>
-      <c r="AKI1693" s="51"/>
-      <c r="AKJ1693" s="51"/>
-      <c r="AKK1693" s="51"/>
-      <c r="AKL1693" s="51"/>
-      <c r="AKM1693" s="51"/>
-      <c r="AKN1693" s="51"/>
-      <c r="AKO1693" s="51"/>
-      <c r="AKP1693" s="51"/>
-      <c r="AKQ1693" s="51"/>
-      <c r="AKR1693" s="51"/>
-      <c r="AKS1693" s="51"/>
-      <c r="AKT1693" s="51"/>
-      <c r="AKU1693" s="51"/>
-      <c r="AKV1693" s="51"/>
-      <c r="AKW1693" s="51"/>
-      <c r="AKX1693" s="51"/>
-      <c r="AKY1693" s="51"/>
-      <c r="AKZ1693" s="51"/>
-      <c r="ALA1693" s="51"/>
-      <c r="ALB1693" s="51"/>
-      <c r="ALC1693" s="51"/>
-      <c r="ALD1693" s="51"/>
-      <c r="ALE1693" s="51"/>
-      <c r="ALF1693" s="51"/>
-      <c r="ALG1693" s="51"/>
-      <c r="ALH1693" s="51"/>
-      <c r="ALI1693" s="51"/>
-      <c r="ALJ1693" s="51"/>
-      <c r="ALK1693" s="51"/>
-      <c r="ALL1693" s="51"/>
-      <c r="ALM1693" s="51"/>
-      <c r="ALN1693" s="51"/>
-      <c r="ALO1693" s="51"/>
-      <c r="ALP1693" s="51"/>
-      <c r="ALQ1693" s="51"/>
-      <c r="ALR1693" s="51"/>
-      <c r="ALS1693" s="51"/>
-      <c r="ALT1693" s="51"/>
-      <c r="ALU1693" s="51"/>
-      <c r="ALV1693" s="51"/>
-      <c r="ALW1693" s="51"/>
-      <c r="ALX1693" s="51"/>
-      <c r="ALY1693" s="51"/>
-      <c r="ALZ1693" s="51"/>
-      <c r="AMA1693" s="51"/>
-      <c r="AMB1693" s="51"/>
-      <c r="AMC1693" s="51"/>
-      <c r="AMD1693" s="51"/>
-      <c r="AME1693" s="51"/>
-      <c r="AMF1693" s="51"/>
-      <c r="AMG1693" s="51"/>
-      <c r="AMH1693" s="51"/>
-      <c r="AMI1693" s="51"/>
-    </row>
-    <row r="1694" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1694" s="19"/>
-      <c r="B1694" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1694" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1694" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1694" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1694" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1694" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1694" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1694" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1694" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1694" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1694" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1694" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1694" s="11" t="s">
-        <v>29</v>
-      </c>
+    </row>
+    <row r="1694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1694" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1694" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1694" s="23"/>
+      <c r="E1694" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1694" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1694" s="23"/>
+      <c r="H1694" s="23"/>
+      <c r="I1694" s="25" t="s">
+        <v>1679</v>
+      </c>
+      <c r="J1694" s="25"/>
+      <c r="K1694" s="25"/>
+      <c r="L1694" s="23"/>
+      <c r="M1694" s="23"/>
+      <c r="N1694" s="23"/>
       <c r="O1694" s="26" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="1695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1695" s="22" t="s">
-        <v>1675</v>
-      </c>
-      <c r="B1695" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1695" s="23" t="s">
-        <v>32</v>
-      </c>
+      <c r="B1695" s="23"/>
+      <c r="C1695" s="23"/>
       <c r="D1695" s="23"/>
-      <c r="E1695" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1695" s="23" t="s">
-        <v>47</v>
-      </c>
+      <c r="E1695" s="23"/>
+      <c r="F1695" s="23"/>
       <c r="G1695" s="23"/>
       <c r="H1695" s="23"/>
-      <c r="I1695" s="25" t="s">
-        <v>1676</v>
-      </c>
+      <c r="I1695" s="25"/>
       <c r="J1695" s="25"/>
       <c r="K1695" s="25"/>
       <c r="L1695" s="23"/>
@@ -56443,70 +55355,1089 @@
       </c>
     </row>
     <row r="1696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1696" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1696" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1696" s="23"/>
-      <c r="E1696" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1696" s="23" t="s">
+      <c r="B1696" s="26"/>
+      <c r="C1696" s="1"/>
+      <c r="D1696" s="1"/>
+      <c r="E1696" s="1"/>
+      <c r="F1696" s="1"/>
+      <c r="G1696" s="1"/>
+      <c r="H1696" s="1"/>
+      <c r="I1696" s="1"/>
+      <c r="J1696" s="1"/>
+      <c r="K1696" s="1"/>
+      <c r="L1696" s="1"/>
+      <c r="M1696" s="1"/>
+      <c r="N1696" s="1"/>
+      <c r="O1696" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1696" s="51"/>
+      <c r="Z1696" s="51"/>
+      <c r="AA1696" s="51"/>
+      <c r="AB1696" s="51"/>
+      <c r="AC1696" s="51"/>
+      <c r="AD1696" s="51"/>
+      <c r="AE1696" s="51"/>
+      <c r="AF1696" s="51"/>
+      <c r="AG1696" s="51"/>
+      <c r="AH1696" s="51"/>
+      <c r="AI1696" s="51"/>
+      <c r="AJ1696" s="51"/>
+      <c r="AK1696" s="51"/>
+      <c r="AL1696" s="51"/>
+      <c r="AM1696" s="51"/>
+      <c r="AN1696" s="51"/>
+      <c r="AO1696" s="51"/>
+      <c r="AP1696" s="51"/>
+      <c r="AQ1696" s="51"/>
+      <c r="AR1696" s="51"/>
+      <c r="AS1696" s="51"/>
+      <c r="AT1696" s="51"/>
+      <c r="AU1696" s="51"/>
+      <c r="AV1696" s="51"/>
+      <c r="AW1696" s="51"/>
+      <c r="AX1696" s="51"/>
+      <c r="AY1696" s="51"/>
+      <c r="AZ1696" s="51"/>
+      <c r="BA1696" s="51"/>
+      <c r="BB1696" s="51"/>
+      <c r="BC1696" s="51"/>
+      <c r="BD1696" s="51"/>
+      <c r="BE1696" s="51"/>
+      <c r="BF1696" s="51"/>
+      <c r="BG1696" s="51"/>
+      <c r="BH1696" s="51"/>
+      <c r="BI1696" s="51"/>
+      <c r="BJ1696" s="51"/>
+      <c r="BK1696" s="51"/>
+      <c r="BL1696" s="51"/>
+      <c r="BM1696" s="51"/>
+      <c r="BN1696" s="51"/>
+      <c r="BO1696" s="51"/>
+      <c r="BP1696" s="51"/>
+      <c r="BQ1696" s="51"/>
+      <c r="BR1696" s="51"/>
+      <c r="BS1696" s="51"/>
+      <c r="BT1696" s="51"/>
+      <c r="BU1696" s="51"/>
+      <c r="BV1696" s="51"/>
+      <c r="BW1696" s="51"/>
+      <c r="BX1696" s="51"/>
+      <c r="BY1696" s="51"/>
+      <c r="BZ1696" s="51"/>
+      <c r="CA1696" s="51"/>
+      <c r="CB1696" s="51"/>
+      <c r="CC1696" s="51"/>
+      <c r="CD1696" s="51"/>
+      <c r="CE1696" s="51"/>
+      <c r="CF1696" s="51"/>
+      <c r="CG1696" s="51"/>
+      <c r="CH1696" s="51"/>
+      <c r="CI1696" s="51"/>
+      <c r="CJ1696" s="51"/>
+      <c r="CK1696" s="51"/>
+      <c r="CL1696" s="51"/>
+      <c r="CM1696" s="51"/>
+      <c r="CN1696" s="51"/>
+      <c r="CO1696" s="51"/>
+      <c r="CP1696" s="51"/>
+      <c r="CQ1696" s="51"/>
+      <c r="CR1696" s="51"/>
+      <c r="CS1696" s="51"/>
+      <c r="CT1696" s="51"/>
+      <c r="CU1696" s="51"/>
+      <c r="CV1696" s="51"/>
+      <c r="CW1696" s="51"/>
+      <c r="CX1696" s="51"/>
+      <c r="CY1696" s="51"/>
+      <c r="CZ1696" s="51"/>
+      <c r="DA1696" s="51"/>
+      <c r="DB1696" s="51"/>
+      <c r="DC1696" s="51"/>
+      <c r="DD1696" s="51"/>
+      <c r="DE1696" s="51"/>
+      <c r="DF1696" s="51"/>
+      <c r="DG1696" s="51"/>
+      <c r="DH1696" s="51"/>
+      <c r="DI1696" s="51"/>
+      <c r="DJ1696" s="51"/>
+      <c r="DK1696" s="51"/>
+      <c r="DL1696" s="51"/>
+      <c r="DM1696" s="51"/>
+      <c r="DN1696" s="51"/>
+      <c r="DO1696" s="51"/>
+      <c r="DP1696" s="51"/>
+      <c r="DQ1696" s="51"/>
+      <c r="DR1696" s="51"/>
+      <c r="DS1696" s="51"/>
+      <c r="DT1696" s="51"/>
+      <c r="DU1696" s="51"/>
+      <c r="DV1696" s="51"/>
+      <c r="DW1696" s="51"/>
+      <c r="DX1696" s="51"/>
+      <c r="DY1696" s="51"/>
+      <c r="DZ1696" s="51"/>
+      <c r="EA1696" s="51"/>
+      <c r="EB1696" s="51"/>
+      <c r="EC1696" s="51"/>
+      <c r="ED1696" s="51"/>
+      <c r="EE1696" s="51"/>
+      <c r="EF1696" s="51"/>
+      <c r="EG1696" s="51"/>
+      <c r="EH1696" s="51"/>
+      <c r="EI1696" s="51"/>
+      <c r="EJ1696" s="51"/>
+      <c r="EK1696" s="51"/>
+      <c r="EL1696" s="51"/>
+      <c r="EM1696" s="51"/>
+      <c r="EN1696" s="51"/>
+      <c r="EO1696" s="51"/>
+      <c r="EP1696" s="51"/>
+      <c r="EQ1696" s="51"/>
+      <c r="ER1696" s="51"/>
+      <c r="ES1696" s="51"/>
+      <c r="ET1696" s="51"/>
+      <c r="EU1696" s="51"/>
+      <c r="EV1696" s="51"/>
+      <c r="EW1696" s="51"/>
+      <c r="EX1696" s="51"/>
+      <c r="EY1696" s="51"/>
+      <c r="EZ1696" s="51"/>
+      <c r="FA1696" s="51"/>
+      <c r="FB1696" s="51"/>
+      <c r="FC1696" s="51"/>
+      <c r="FD1696" s="51"/>
+      <c r="FE1696" s="51"/>
+      <c r="FF1696" s="51"/>
+      <c r="FG1696" s="51"/>
+      <c r="FH1696" s="51"/>
+      <c r="FI1696" s="51"/>
+      <c r="FJ1696" s="51"/>
+      <c r="FK1696" s="51"/>
+      <c r="FL1696" s="51"/>
+      <c r="FM1696" s="51"/>
+      <c r="FN1696" s="51"/>
+      <c r="FO1696" s="51"/>
+      <c r="FP1696" s="51"/>
+      <c r="FQ1696" s="51"/>
+      <c r="FR1696" s="51"/>
+      <c r="FS1696" s="51"/>
+      <c r="FT1696" s="51"/>
+      <c r="FU1696" s="51"/>
+      <c r="FV1696" s="51"/>
+      <c r="FW1696" s="51"/>
+      <c r="FX1696" s="51"/>
+      <c r="FY1696" s="51"/>
+      <c r="FZ1696" s="51"/>
+      <c r="GA1696" s="51"/>
+      <c r="GB1696" s="51"/>
+      <c r="GC1696" s="51"/>
+      <c r="GD1696" s="51"/>
+      <c r="GE1696" s="51"/>
+      <c r="GF1696" s="51"/>
+      <c r="GG1696" s="51"/>
+      <c r="GH1696" s="51"/>
+      <c r="GI1696" s="51"/>
+      <c r="GJ1696" s="51"/>
+      <c r="GK1696" s="51"/>
+      <c r="GL1696" s="51"/>
+      <c r="GM1696" s="51"/>
+      <c r="GN1696" s="51"/>
+      <c r="GO1696" s="51"/>
+      <c r="GP1696" s="51"/>
+      <c r="GQ1696" s="51"/>
+      <c r="GR1696" s="51"/>
+      <c r="GS1696" s="51"/>
+      <c r="GT1696" s="51"/>
+      <c r="GU1696" s="51"/>
+      <c r="GV1696" s="51"/>
+      <c r="GW1696" s="51"/>
+      <c r="GX1696" s="51"/>
+      <c r="GY1696" s="51"/>
+      <c r="GZ1696" s="51"/>
+      <c r="HA1696" s="51"/>
+      <c r="HB1696" s="51"/>
+      <c r="HC1696" s="51"/>
+      <c r="HD1696" s="51"/>
+      <c r="HE1696" s="51"/>
+      <c r="HF1696" s="51"/>
+      <c r="HG1696" s="51"/>
+      <c r="HH1696" s="51"/>
+      <c r="HI1696" s="51"/>
+      <c r="HJ1696" s="51"/>
+      <c r="HK1696" s="51"/>
+      <c r="HL1696" s="51"/>
+      <c r="HM1696" s="51"/>
+      <c r="HN1696" s="51"/>
+      <c r="HO1696" s="51"/>
+      <c r="HP1696" s="51"/>
+      <c r="HQ1696" s="51"/>
+      <c r="HR1696" s="51"/>
+      <c r="HS1696" s="51"/>
+      <c r="HT1696" s="51"/>
+      <c r="HU1696" s="51"/>
+      <c r="HV1696" s="51"/>
+      <c r="HW1696" s="51"/>
+      <c r="HX1696" s="51"/>
+      <c r="HY1696" s="51"/>
+      <c r="HZ1696" s="51"/>
+      <c r="IA1696" s="51"/>
+      <c r="IB1696" s="51"/>
+      <c r="IC1696" s="51"/>
+      <c r="ID1696" s="51"/>
+      <c r="IE1696" s="51"/>
+      <c r="IF1696" s="51"/>
+      <c r="IG1696" s="51"/>
+      <c r="IH1696" s="51"/>
+      <c r="II1696" s="51"/>
+      <c r="IJ1696" s="51"/>
+      <c r="IK1696" s="51"/>
+      <c r="IL1696" s="51"/>
+      <c r="IM1696" s="51"/>
+      <c r="IN1696" s="51"/>
+      <c r="IO1696" s="51"/>
+      <c r="IP1696" s="51"/>
+      <c r="IQ1696" s="51"/>
+      <c r="IR1696" s="51"/>
+      <c r="IS1696" s="51"/>
+      <c r="IT1696" s="51"/>
+      <c r="IU1696" s="51"/>
+      <c r="IV1696" s="51"/>
+      <c r="IW1696" s="51"/>
+      <c r="IX1696" s="51"/>
+      <c r="IY1696" s="51"/>
+      <c r="IZ1696" s="51"/>
+      <c r="JA1696" s="51"/>
+      <c r="JB1696" s="51"/>
+      <c r="JC1696" s="51"/>
+      <c r="JD1696" s="51"/>
+      <c r="JE1696" s="51"/>
+      <c r="JF1696" s="51"/>
+      <c r="JG1696" s="51"/>
+      <c r="JH1696" s="51"/>
+      <c r="JI1696" s="51"/>
+      <c r="JJ1696" s="51"/>
+      <c r="JK1696" s="51"/>
+      <c r="JL1696" s="51"/>
+      <c r="JM1696" s="51"/>
+      <c r="JN1696" s="51"/>
+      <c r="JO1696" s="51"/>
+      <c r="JP1696" s="51"/>
+      <c r="JQ1696" s="51"/>
+      <c r="JR1696" s="51"/>
+      <c r="JS1696" s="51"/>
+      <c r="JT1696" s="51"/>
+      <c r="JU1696" s="51"/>
+      <c r="JV1696" s="51"/>
+      <c r="JW1696" s="51"/>
+      <c r="JX1696" s="51"/>
+      <c r="JY1696" s="51"/>
+      <c r="JZ1696" s="51"/>
+      <c r="KA1696" s="51"/>
+      <c r="KB1696" s="51"/>
+      <c r="KC1696" s="51"/>
+      <c r="KD1696" s="51"/>
+      <c r="KE1696" s="51"/>
+      <c r="KF1696" s="51"/>
+      <c r="KG1696" s="51"/>
+      <c r="KH1696" s="51"/>
+      <c r="KI1696" s="51"/>
+      <c r="KJ1696" s="51"/>
+      <c r="KK1696" s="51"/>
+      <c r="KL1696" s="51"/>
+      <c r="KM1696" s="51"/>
+      <c r="KN1696" s="51"/>
+      <c r="KO1696" s="51"/>
+      <c r="KP1696" s="51"/>
+      <c r="KQ1696" s="51"/>
+      <c r="KR1696" s="51"/>
+      <c r="KS1696" s="51"/>
+      <c r="KT1696" s="51"/>
+      <c r="KU1696" s="51"/>
+      <c r="KV1696" s="51"/>
+      <c r="KW1696" s="51"/>
+      <c r="KX1696" s="51"/>
+      <c r="KY1696" s="51"/>
+      <c r="KZ1696" s="51"/>
+      <c r="LA1696" s="51"/>
+      <c r="LB1696" s="51"/>
+      <c r="LC1696" s="51"/>
+      <c r="LD1696" s="51"/>
+      <c r="LE1696" s="51"/>
+      <c r="LF1696" s="51"/>
+      <c r="LG1696" s="51"/>
+      <c r="LH1696" s="51"/>
+      <c r="LI1696" s="51"/>
+      <c r="LJ1696" s="51"/>
+      <c r="LK1696" s="51"/>
+      <c r="LL1696" s="51"/>
+      <c r="LM1696" s="51"/>
+      <c r="LN1696" s="51"/>
+      <c r="LO1696" s="51"/>
+      <c r="LP1696" s="51"/>
+      <c r="LQ1696" s="51"/>
+      <c r="LR1696" s="51"/>
+      <c r="LS1696" s="51"/>
+      <c r="LT1696" s="51"/>
+      <c r="LU1696" s="51"/>
+      <c r="LV1696" s="51"/>
+      <c r="LW1696" s="51"/>
+      <c r="LX1696" s="51"/>
+      <c r="LY1696" s="51"/>
+      <c r="LZ1696" s="51"/>
+      <c r="MA1696" s="51"/>
+      <c r="MB1696" s="51"/>
+      <c r="MC1696" s="51"/>
+      <c r="MD1696" s="51"/>
+      <c r="ME1696" s="51"/>
+      <c r="MF1696" s="51"/>
+      <c r="MG1696" s="51"/>
+      <c r="MH1696" s="51"/>
+      <c r="MI1696" s="51"/>
+      <c r="MJ1696" s="51"/>
+      <c r="MK1696" s="51"/>
+      <c r="ML1696" s="51"/>
+      <c r="MM1696" s="51"/>
+      <c r="MN1696" s="51"/>
+      <c r="MO1696" s="51"/>
+      <c r="MP1696" s="51"/>
+      <c r="MQ1696" s="51"/>
+      <c r="MR1696" s="51"/>
+      <c r="MS1696" s="51"/>
+      <c r="MT1696" s="51"/>
+      <c r="MU1696" s="51"/>
+      <c r="MV1696" s="51"/>
+      <c r="MW1696" s="51"/>
+      <c r="MX1696" s="51"/>
+      <c r="MY1696" s="51"/>
+      <c r="MZ1696" s="51"/>
+      <c r="NA1696" s="51"/>
+      <c r="NB1696" s="51"/>
+      <c r="NC1696" s="51"/>
+      <c r="ND1696" s="51"/>
+      <c r="NE1696" s="51"/>
+      <c r="NF1696" s="51"/>
+      <c r="NG1696" s="51"/>
+      <c r="NH1696" s="51"/>
+      <c r="NI1696" s="51"/>
+      <c r="NJ1696" s="51"/>
+      <c r="NK1696" s="51"/>
+      <c r="NL1696" s="51"/>
+      <c r="NM1696" s="51"/>
+      <c r="NN1696" s="51"/>
+      <c r="NO1696" s="51"/>
+      <c r="NP1696" s="51"/>
+      <c r="NQ1696" s="51"/>
+      <c r="NR1696" s="51"/>
+      <c r="NS1696" s="51"/>
+      <c r="NT1696" s="51"/>
+      <c r="NU1696" s="51"/>
+      <c r="NV1696" s="51"/>
+      <c r="NW1696" s="51"/>
+      <c r="NX1696" s="51"/>
+      <c r="NY1696" s="51"/>
+      <c r="NZ1696" s="51"/>
+      <c r="OA1696" s="51"/>
+      <c r="OB1696" s="51"/>
+      <c r="OC1696" s="51"/>
+      <c r="OD1696" s="51"/>
+      <c r="OE1696" s="51"/>
+      <c r="OF1696" s="51"/>
+      <c r="OG1696" s="51"/>
+      <c r="OH1696" s="51"/>
+      <c r="OI1696" s="51"/>
+      <c r="OJ1696" s="51"/>
+      <c r="OK1696" s="51"/>
+      <c r="OL1696" s="51"/>
+      <c r="OM1696" s="51"/>
+      <c r="ON1696" s="51"/>
+      <c r="OO1696" s="51"/>
+      <c r="OP1696" s="51"/>
+      <c r="OQ1696" s="51"/>
+      <c r="OR1696" s="51"/>
+      <c r="OS1696" s="51"/>
+      <c r="OT1696" s="51"/>
+      <c r="OU1696" s="51"/>
+      <c r="OV1696" s="51"/>
+      <c r="OW1696" s="51"/>
+      <c r="OX1696" s="51"/>
+      <c r="OY1696" s="51"/>
+      <c r="OZ1696" s="51"/>
+      <c r="PA1696" s="51"/>
+      <c r="PB1696" s="51"/>
+      <c r="PC1696" s="51"/>
+      <c r="PD1696" s="51"/>
+      <c r="PE1696" s="51"/>
+      <c r="PF1696" s="51"/>
+      <c r="PG1696" s="51"/>
+      <c r="PH1696" s="51"/>
+      <c r="PI1696" s="51"/>
+      <c r="PJ1696" s="51"/>
+      <c r="PK1696" s="51"/>
+      <c r="PL1696" s="51"/>
+      <c r="PM1696" s="51"/>
+      <c r="PN1696" s="51"/>
+      <c r="PO1696" s="51"/>
+      <c r="PP1696" s="51"/>
+      <c r="PQ1696" s="51"/>
+      <c r="PR1696" s="51"/>
+      <c r="PS1696" s="51"/>
+      <c r="PT1696" s="51"/>
+      <c r="PU1696" s="51"/>
+      <c r="PV1696" s="51"/>
+      <c r="PW1696" s="51"/>
+      <c r="PX1696" s="51"/>
+      <c r="PY1696" s="51"/>
+      <c r="PZ1696" s="51"/>
+      <c r="QA1696" s="51"/>
+      <c r="QB1696" s="51"/>
+      <c r="QC1696" s="51"/>
+      <c r="QD1696" s="51"/>
+      <c r="QE1696" s="51"/>
+      <c r="QF1696" s="51"/>
+      <c r="QG1696" s="51"/>
+      <c r="QH1696" s="51"/>
+      <c r="QI1696" s="51"/>
+      <c r="QJ1696" s="51"/>
+      <c r="QK1696" s="51"/>
+      <c r="QL1696" s="51"/>
+      <c r="QM1696" s="51"/>
+      <c r="QN1696" s="51"/>
+      <c r="QO1696" s="51"/>
+      <c r="QP1696" s="51"/>
+      <c r="QQ1696" s="51"/>
+      <c r="QR1696" s="51"/>
+      <c r="QS1696" s="51"/>
+      <c r="QT1696" s="51"/>
+      <c r="QU1696" s="51"/>
+      <c r="QV1696" s="51"/>
+      <c r="QW1696" s="51"/>
+      <c r="QX1696" s="51"/>
+      <c r="QY1696" s="51"/>
+      <c r="QZ1696" s="51"/>
+      <c r="RA1696" s="51"/>
+      <c r="RB1696" s="51"/>
+      <c r="RC1696" s="51"/>
+      <c r="RD1696" s="51"/>
+      <c r="RE1696" s="51"/>
+      <c r="RF1696" s="51"/>
+      <c r="RG1696" s="51"/>
+      <c r="RH1696" s="51"/>
+      <c r="RI1696" s="51"/>
+      <c r="RJ1696" s="51"/>
+      <c r="RK1696" s="51"/>
+      <c r="RL1696" s="51"/>
+      <c r="RM1696" s="51"/>
+      <c r="RN1696" s="51"/>
+      <c r="RO1696" s="51"/>
+      <c r="RP1696" s="51"/>
+      <c r="RQ1696" s="51"/>
+      <c r="RR1696" s="51"/>
+      <c r="RS1696" s="51"/>
+      <c r="RT1696" s="51"/>
+      <c r="RU1696" s="51"/>
+      <c r="RV1696" s="51"/>
+      <c r="RW1696" s="51"/>
+      <c r="RX1696" s="51"/>
+      <c r="RY1696" s="51"/>
+      <c r="RZ1696" s="51"/>
+      <c r="SA1696" s="51"/>
+      <c r="SB1696" s="51"/>
+      <c r="SC1696" s="51"/>
+      <c r="SD1696" s="51"/>
+      <c r="SE1696" s="51"/>
+      <c r="SF1696" s="51"/>
+      <c r="SG1696" s="51"/>
+      <c r="SH1696" s="51"/>
+      <c r="SI1696" s="51"/>
+      <c r="SJ1696" s="51"/>
+      <c r="SK1696" s="51"/>
+      <c r="SL1696" s="51"/>
+      <c r="SM1696" s="51"/>
+      <c r="SN1696" s="51"/>
+      <c r="SO1696" s="51"/>
+      <c r="SP1696" s="51"/>
+      <c r="SQ1696" s="51"/>
+      <c r="SR1696" s="51"/>
+      <c r="SS1696" s="51"/>
+      <c r="ST1696" s="51"/>
+      <c r="SU1696" s="51"/>
+      <c r="SV1696" s="51"/>
+      <c r="SW1696" s="51"/>
+      <c r="SX1696" s="51"/>
+      <c r="SY1696" s="51"/>
+      <c r="SZ1696" s="51"/>
+      <c r="TA1696" s="51"/>
+      <c r="TB1696" s="51"/>
+      <c r="TC1696" s="51"/>
+      <c r="TD1696" s="51"/>
+      <c r="TE1696" s="51"/>
+      <c r="TF1696" s="51"/>
+      <c r="TG1696" s="51"/>
+      <c r="TH1696" s="51"/>
+      <c r="TI1696" s="51"/>
+      <c r="TJ1696" s="51"/>
+      <c r="TK1696" s="51"/>
+      <c r="TL1696" s="51"/>
+      <c r="TM1696" s="51"/>
+      <c r="TN1696" s="51"/>
+      <c r="TO1696" s="51"/>
+      <c r="TP1696" s="51"/>
+      <c r="TQ1696" s="51"/>
+      <c r="TR1696" s="51"/>
+      <c r="TS1696" s="51"/>
+      <c r="TT1696" s="51"/>
+      <c r="TU1696" s="51"/>
+      <c r="TV1696" s="51"/>
+      <c r="TW1696" s="51"/>
+      <c r="TX1696" s="51"/>
+      <c r="TY1696" s="51"/>
+      <c r="TZ1696" s="51"/>
+      <c r="UA1696" s="51"/>
+      <c r="UB1696" s="51"/>
+      <c r="UC1696" s="51"/>
+      <c r="UD1696" s="51"/>
+      <c r="UE1696" s="51"/>
+      <c r="UF1696" s="51"/>
+      <c r="UG1696" s="51"/>
+      <c r="UH1696" s="51"/>
+      <c r="UI1696" s="51"/>
+      <c r="UJ1696" s="51"/>
+      <c r="UK1696" s="51"/>
+      <c r="UL1696" s="51"/>
+      <c r="UM1696" s="51"/>
+      <c r="UN1696" s="51"/>
+      <c r="UO1696" s="51"/>
+      <c r="UP1696" s="51"/>
+      <c r="UQ1696" s="51"/>
+      <c r="UR1696" s="51"/>
+      <c r="US1696" s="51"/>
+      <c r="UT1696" s="51"/>
+      <c r="UU1696" s="51"/>
+      <c r="UV1696" s="51"/>
+      <c r="UW1696" s="51"/>
+      <c r="UX1696" s="51"/>
+      <c r="UY1696" s="51"/>
+      <c r="UZ1696" s="51"/>
+      <c r="VA1696" s="51"/>
+      <c r="VB1696" s="51"/>
+      <c r="VC1696" s="51"/>
+      <c r="VD1696" s="51"/>
+      <c r="VE1696" s="51"/>
+      <c r="VF1696" s="51"/>
+      <c r="VG1696" s="51"/>
+      <c r="VH1696" s="51"/>
+      <c r="VI1696" s="51"/>
+      <c r="VJ1696" s="51"/>
+      <c r="VK1696" s="51"/>
+      <c r="VL1696" s="51"/>
+      <c r="VM1696" s="51"/>
+      <c r="VN1696" s="51"/>
+      <c r="VO1696" s="51"/>
+      <c r="VP1696" s="51"/>
+      <c r="VQ1696" s="51"/>
+      <c r="VR1696" s="51"/>
+      <c r="VS1696" s="51"/>
+      <c r="VT1696" s="51"/>
+      <c r="VU1696" s="51"/>
+      <c r="VV1696" s="51"/>
+      <c r="VW1696" s="51"/>
+      <c r="VX1696" s="51"/>
+      <c r="VY1696" s="51"/>
+      <c r="VZ1696" s="51"/>
+      <c r="WA1696" s="51"/>
+      <c r="WB1696" s="51"/>
+      <c r="WC1696" s="51"/>
+      <c r="WD1696" s="51"/>
+      <c r="WE1696" s="51"/>
+      <c r="WF1696" s="51"/>
+      <c r="WG1696" s="51"/>
+      <c r="WH1696" s="51"/>
+      <c r="WI1696" s="51"/>
+      <c r="WJ1696" s="51"/>
+      <c r="WK1696" s="51"/>
+      <c r="WL1696" s="51"/>
+      <c r="WM1696" s="51"/>
+      <c r="WN1696" s="51"/>
+      <c r="WO1696" s="51"/>
+      <c r="WP1696" s="51"/>
+      <c r="WQ1696" s="51"/>
+      <c r="WR1696" s="51"/>
+      <c r="WS1696" s="51"/>
+      <c r="WT1696" s="51"/>
+      <c r="WU1696" s="51"/>
+      <c r="WV1696" s="51"/>
+      <c r="WW1696" s="51"/>
+      <c r="WX1696" s="51"/>
+      <c r="WY1696" s="51"/>
+      <c r="WZ1696" s="51"/>
+      <c r="XA1696" s="51"/>
+      <c r="XB1696" s="51"/>
+      <c r="XC1696" s="51"/>
+      <c r="XD1696" s="51"/>
+      <c r="XE1696" s="51"/>
+      <c r="XF1696" s="51"/>
+      <c r="XG1696" s="51"/>
+      <c r="XH1696" s="51"/>
+      <c r="XI1696" s="51"/>
+      <c r="XJ1696" s="51"/>
+      <c r="XK1696" s="51"/>
+      <c r="XL1696" s="51"/>
+      <c r="XM1696" s="51"/>
+      <c r="XN1696" s="51"/>
+      <c r="XO1696" s="51"/>
+      <c r="XP1696" s="51"/>
+      <c r="XQ1696" s="51"/>
+      <c r="XR1696" s="51"/>
+      <c r="XS1696" s="51"/>
+      <c r="XT1696" s="51"/>
+      <c r="XU1696" s="51"/>
+      <c r="XV1696" s="51"/>
+      <c r="XW1696" s="51"/>
+      <c r="XX1696" s="51"/>
+      <c r="XY1696" s="51"/>
+      <c r="XZ1696" s="51"/>
+      <c r="YA1696" s="51"/>
+      <c r="YB1696" s="51"/>
+      <c r="YC1696" s="51"/>
+      <c r="YD1696" s="51"/>
+      <c r="YE1696" s="51"/>
+      <c r="YF1696" s="51"/>
+      <c r="YG1696" s="51"/>
+      <c r="YH1696" s="51"/>
+      <c r="YI1696" s="51"/>
+      <c r="YJ1696" s="51"/>
+      <c r="YK1696" s="51"/>
+      <c r="YL1696" s="51"/>
+      <c r="YM1696" s="51"/>
+      <c r="YN1696" s="51"/>
+      <c r="YO1696" s="51"/>
+      <c r="YP1696" s="51"/>
+      <c r="YQ1696" s="51"/>
+      <c r="YR1696" s="51"/>
+      <c r="YS1696" s="51"/>
+      <c r="YT1696" s="51"/>
+      <c r="YU1696" s="51"/>
+      <c r="YV1696" s="51"/>
+      <c r="YW1696" s="51"/>
+      <c r="YX1696" s="51"/>
+      <c r="YY1696" s="51"/>
+      <c r="YZ1696" s="51"/>
+      <c r="ZA1696" s="51"/>
+      <c r="ZB1696" s="51"/>
+      <c r="ZC1696" s="51"/>
+      <c r="ZD1696" s="51"/>
+      <c r="ZE1696" s="51"/>
+      <c r="ZF1696" s="51"/>
+      <c r="ZG1696" s="51"/>
+      <c r="ZH1696" s="51"/>
+      <c r="ZI1696" s="51"/>
+      <c r="ZJ1696" s="51"/>
+      <c r="ZK1696" s="51"/>
+      <c r="ZL1696" s="51"/>
+      <c r="ZM1696" s="51"/>
+      <c r="ZN1696" s="51"/>
+      <c r="ZO1696" s="51"/>
+      <c r="ZP1696" s="51"/>
+      <c r="ZQ1696" s="51"/>
+      <c r="ZR1696" s="51"/>
+      <c r="ZS1696" s="51"/>
+      <c r="ZT1696" s="51"/>
+      <c r="ZU1696" s="51"/>
+      <c r="ZV1696" s="51"/>
+      <c r="ZW1696" s="51"/>
+      <c r="ZX1696" s="51"/>
+      <c r="ZY1696" s="51"/>
+      <c r="ZZ1696" s="51"/>
+      <c r="AAA1696" s="51"/>
+      <c r="AAB1696" s="51"/>
+      <c r="AAC1696" s="51"/>
+      <c r="AAD1696" s="51"/>
+      <c r="AAE1696" s="51"/>
+      <c r="AAF1696" s="51"/>
+      <c r="AAG1696" s="51"/>
+      <c r="AAH1696" s="51"/>
+      <c r="AAI1696" s="51"/>
+      <c r="AAJ1696" s="51"/>
+      <c r="AAK1696" s="51"/>
+      <c r="AAL1696" s="51"/>
+      <c r="AAM1696" s="51"/>
+      <c r="AAN1696" s="51"/>
+      <c r="AAO1696" s="51"/>
+      <c r="AAP1696" s="51"/>
+      <c r="AAQ1696" s="51"/>
+      <c r="AAR1696" s="51"/>
+      <c r="AAS1696" s="51"/>
+      <c r="AAT1696" s="51"/>
+      <c r="AAU1696" s="51"/>
+      <c r="AAV1696" s="51"/>
+      <c r="AAW1696" s="51"/>
+      <c r="AAX1696" s="51"/>
+      <c r="AAY1696" s="51"/>
+      <c r="AAZ1696" s="51"/>
+      <c r="ABA1696" s="51"/>
+      <c r="ABB1696" s="51"/>
+      <c r="ABC1696" s="51"/>
+      <c r="ABD1696" s="51"/>
+      <c r="ABE1696" s="51"/>
+      <c r="ABF1696" s="51"/>
+      <c r="ABG1696" s="51"/>
+      <c r="ABH1696" s="51"/>
+      <c r="ABI1696" s="51"/>
+      <c r="ABJ1696" s="51"/>
+      <c r="ABK1696" s="51"/>
+      <c r="ABL1696" s="51"/>
+      <c r="ABM1696" s="51"/>
+      <c r="ABN1696" s="51"/>
+      <c r="ABO1696" s="51"/>
+      <c r="ABP1696" s="51"/>
+      <c r="ABQ1696" s="51"/>
+      <c r="ABR1696" s="51"/>
+      <c r="ABS1696" s="51"/>
+      <c r="ABT1696" s="51"/>
+      <c r="ABU1696" s="51"/>
+      <c r="ABV1696" s="51"/>
+      <c r="ABW1696" s="51"/>
+      <c r="ABX1696" s="51"/>
+      <c r="ABY1696" s="51"/>
+      <c r="ABZ1696" s="51"/>
+      <c r="ACA1696" s="51"/>
+      <c r="ACB1696" s="51"/>
+      <c r="ACC1696" s="51"/>
+      <c r="ACD1696" s="51"/>
+      <c r="ACE1696" s="51"/>
+      <c r="ACF1696" s="51"/>
+      <c r="ACG1696" s="51"/>
+      <c r="ACH1696" s="51"/>
+      <c r="ACI1696" s="51"/>
+      <c r="ACJ1696" s="51"/>
+      <c r="ACK1696" s="51"/>
+      <c r="ACL1696" s="51"/>
+      <c r="ACM1696" s="51"/>
+      <c r="ACN1696" s="51"/>
+      <c r="ACO1696" s="51"/>
+      <c r="ACP1696" s="51"/>
+      <c r="ACQ1696" s="51"/>
+      <c r="ACR1696" s="51"/>
+      <c r="ACS1696" s="51"/>
+      <c r="ACT1696" s="51"/>
+      <c r="ACU1696" s="51"/>
+      <c r="ACV1696" s="51"/>
+      <c r="ACW1696" s="51"/>
+      <c r="ACX1696" s="51"/>
+      <c r="ACY1696" s="51"/>
+      <c r="ACZ1696" s="51"/>
+      <c r="ADA1696" s="51"/>
+      <c r="ADB1696" s="51"/>
+      <c r="ADC1696" s="51"/>
+      <c r="ADD1696" s="51"/>
+      <c r="ADE1696" s="51"/>
+      <c r="ADF1696" s="51"/>
+      <c r="ADG1696" s="51"/>
+      <c r="ADH1696" s="51"/>
+      <c r="ADI1696" s="51"/>
+      <c r="ADJ1696" s="51"/>
+      <c r="ADK1696" s="51"/>
+      <c r="ADL1696" s="51"/>
+      <c r="ADM1696" s="51"/>
+      <c r="ADN1696" s="51"/>
+      <c r="ADO1696" s="51"/>
+      <c r="ADP1696" s="51"/>
+      <c r="ADQ1696" s="51"/>
+      <c r="ADR1696" s="51"/>
+      <c r="ADS1696" s="51"/>
+      <c r="ADT1696" s="51"/>
+      <c r="ADU1696" s="51"/>
+      <c r="ADV1696" s="51"/>
+      <c r="ADW1696" s="51"/>
+      <c r="ADX1696" s="51"/>
+      <c r="ADY1696" s="51"/>
+      <c r="ADZ1696" s="51"/>
+      <c r="AEA1696" s="51"/>
+      <c r="AEB1696" s="51"/>
+      <c r="AEC1696" s="51"/>
+      <c r="AED1696" s="51"/>
+      <c r="AEE1696" s="51"/>
+      <c r="AEF1696" s="51"/>
+      <c r="AEG1696" s="51"/>
+      <c r="AEH1696" s="51"/>
+      <c r="AEI1696" s="51"/>
+      <c r="AEJ1696" s="51"/>
+      <c r="AEK1696" s="51"/>
+      <c r="AEL1696" s="51"/>
+      <c r="AEM1696" s="51"/>
+      <c r="AEN1696" s="51"/>
+      <c r="AEO1696" s="51"/>
+      <c r="AEP1696" s="51"/>
+      <c r="AEQ1696" s="51"/>
+      <c r="AER1696" s="51"/>
+      <c r="AES1696" s="51"/>
+      <c r="AET1696" s="51"/>
+      <c r="AEU1696" s="51"/>
+      <c r="AEV1696" s="51"/>
+      <c r="AEW1696" s="51"/>
+      <c r="AEX1696" s="51"/>
+      <c r="AEY1696" s="51"/>
+      <c r="AEZ1696" s="51"/>
+      <c r="AFA1696" s="51"/>
+      <c r="AFB1696" s="51"/>
+      <c r="AFC1696" s="51"/>
+      <c r="AFD1696" s="51"/>
+      <c r="AFE1696" s="51"/>
+      <c r="AFF1696" s="51"/>
+      <c r="AFG1696" s="51"/>
+      <c r="AFH1696" s="51"/>
+      <c r="AFI1696" s="51"/>
+      <c r="AFJ1696" s="51"/>
+      <c r="AFK1696" s="51"/>
+      <c r="AFL1696" s="51"/>
+      <c r="AFM1696" s="51"/>
+      <c r="AFN1696" s="51"/>
+      <c r="AFO1696" s="51"/>
+      <c r="AFP1696" s="51"/>
+      <c r="AFQ1696" s="51"/>
+      <c r="AFR1696" s="51"/>
+      <c r="AFS1696" s="51"/>
+      <c r="AFT1696" s="51"/>
+      <c r="AFU1696" s="51"/>
+      <c r="AFV1696" s="51"/>
+      <c r="AFW1696" s="51"/>
+      <c r="AFX1696" s="51"/>
+      <c r="AFY1696" s="51"/>
+      <c r="AFZ1696" s="51"/>
+      <c r="AGA1696" s="51"/>
+      <c r="AGB1696" s="51"/>
+      <c r="AGC1696" s="51"/>
+      <c r="AGD1696" s="51"/>
+      <c r="AGE1696" s="51"/>
+      <c r="AGF1696" s="51"/>
+      <c r="AGG1696" s="51"/>
+      <c r="AGH1696" s="51"/>
+      <c r="AGI1696" s="51"/>
+      <c r="AGJ1696" s="51"/>
+      <c r="AGK1696" s="51"/>
+      <c r="AGL1696" s="51"/>
+      <c r="AGM1696" s="51"/>
+      <c r="AGN1696" s="51"/>
+      <c r="AGO1696" s="51"/>
+      <c r="AGP1696" s="51"/>
+      <c r="AGQ1696" s="51"/>
+      <c r="AGR1696" s="51"/>
+      <c r="AGS1696" s="51"/>
+      <c r="AGT1696" s="51"/>
+      <c r="AGU1696" s="51"/>
+      <c r="AGV1696" s="51"/>
+      <c r="AGW1696" s="51"/>
+      <c r="AGX1696" s="51"/>
+      <c r="AGY1696" s="51"/>
+      <c r="AGZ1696" s="51"/>
+      <c r="AHA1696" s="51"/>
+      <c r="AHB1696" s="51"/>
+      <c r="AHC1696" s="51"/>
+      <c r="AHD1696" s="51"/>
+      <c r="AHE1696" s="51"/>
+      <c r="AHF1696" s="51"/>
+      <c r="AHG1696" s="51"/>
+      <c r="AHH1696" s="51"/>
+      <c r="AHI1696" s="51"/>
+      <c r="AHJ1696" s="51"/>
+      <c r="AHK1696" s="51"/>
+      <c r="AHL1696" s="51"/>
+      <c r="AHM1696" s="51"/>
+      <c r="AHN1696" s="51"/>
+      <c r="AHO1696" s="51"/>
+      <c r="AHP1696" s="51"/>
+      <c r="AHQ1696" s="51"/>
+      <c r="AHR1696" s="51"/>
+      <c r="AHS1696" s="51"/>
+      <c r="AHT1696" s="51"/>
+      <c r="AHU1696" s="51"/>
+      <c r="AHV1696" s="51"/>
+      <c r="AHW1696" s="51"/>
+      <c r="AHX1696" s="51"/>
+      <c r="AHY1696" s="51"/>
+      <c r="AHZ1696" s="51"/>
+      <c r="AIA1696" s="51"/>
+      <c r="AIB1696" s="51"/>
+      <c r="AIC1696" s="51"/>
+      <c r="AID1696" s="51"/>
+      <c r="AIE1696" s="51"/>
+      <c r="AIF1696" s="51"/>
+      <c r="AIG1696" s="51"/>
+      <c r="AIH1696" s="51"/>
+      <c r="AII1696" s="51"/>
+      <c r="AIJ1696" s="51"/>
+      <c r="AIK1696" s="51"/>
+      <c r="AIL1696" s="51"/>
+      <c r="AIM1696" s="51"/>
+      <c r="AIN1696" s="51"/>
+      <c r="AIO1696" s="51"/>
+      <c r="AIP1696" s="51"/>
+      <c r="AIQ1696" s="51"/>
+      <c r="AIR1696" s="51"/>
+      <c r="AIS1696" s="51"/>
+      <c r="AIT1696" s="51"/>
+      <c r="AIU1696" s="51"/>
+      <c r="AIV1696" s="51"/>
+      <c r="AIW1696" s="51"/>
+      <c r="AIX1696" s="51"/>
+      <c r="AIY1696" s="51"/>
+      <c r="AIZ1696" s="51"/>
+      <c r="AJA1696" s="51"/>
+      <c r="AJB1696" s="51"/>
+      <c r="AJC1696" s="51"/>
+      <c r="AJD1696" s="51"/>
+      <c r="AJE1696" s="51"/>
+      <c r="AJF1696" s="51"/>
+      <c r="AJG1696" s="51"/>
+      <c r="AJH1696" s="51"/>
+      <c r="AJI1696" s="51"/>
+      <c r="AJJ1696" s="51"/>
+      <c r="AJK1696" s="51"/>
+      <c r="AJL1696" s="51"/>
+      <c r="AJM1696" s="51"/>
+      <c r="AJN1696" s="51"/>
+      <c r="AJO1696" s="51"/>
+      <c r="AJP1696" s="51"/>
+      <c r="AJQ1696" s="51"/>
+      <c r="AJR1696" s="51"/>
+      <c r="AJS1696" s="51"/>
+      <c r="AJT1696" s="51"/>
+      <c r="AJU1696" s="51"/>
+      <c r="AJV1696" s="51"/>
+      <c r="AJW1696" s="51"/>
+      <c r="AJX1696" s="51"/>
+      <c r="AJY1696" s="51"/>
+      <c r="AJZ1696" s="51"/>
+      <c r="AKA1696" s="51"/>
+      <c r="AKB1696" s="51"/>
+      <c r="AKC1696" s="51"/>
+      <c r="AKD1696" s="51"/>
+      <c r="AKE1696" s="51"/>
+      <c r="AKF1696" s="51"/>
+      <c r="AKG1696" s="51"/>
+      <c r="AKH1696" s="51"/>
+      <c r="AKI1696" s="51"/>
+      <c r="AKJ1696" s="51"/>
+      <c r="AKK1696" s="51"/>
+      <c r="AKL1696" s="51"/>
+      <c r="AKM1696" s="51"/>
+      <c r="AKN1696" s="51"/>
+      <c r="AKO1696" s="51"/>
+      <c r="AKP1696" s="51"/>
+      <c r="AKQ1696" s="51"/>
+      <c r="AKR1696" s="51"/>
+      <c r="AKS1696" s="51"/>
+      <c r="AKT1696" s="51"/>
+      <c r="AKU1696" s="51"/>
+      <c r="AKV1696" s="51"/>
+      <c r="AKW1696" s="51"/>
+      <c r="AKX1696" s="51"/>
+      <c r="AKY1696" s="51"/>
+      <c r="AKZ1696" s="51"/>
+      <c r="ALA1696" s="51"/>
+      <c r="ALB1696" s="51"/>
+      <c r="ALC1696" s="51"/>
+      <c r="ALD1696" s="51"/>
+      <c r="ALE1696" s="51"/>
+      <c r="ALF1696" s="51"/>
+      <c r="ALG1696" s="51"/>
+      <c r="ALH1696" s="51"/>
+      <c r="ALI1696" s="51"/>
+      <c r="ALJ1696" s="51"/>
+      <c r="ALK1696" s="51"/>
+      <c r="ALL1696" s="51"/>
+      <c r="ALM1696" s="51"/>
+      <c r="ALN1696" s="51"/>
+      <c r="ALO1696" s="51"/>
+      <c r="ALP1696" s="51"/>
+      <c r="ALQ1696" s="51"/>
+      <c r="ALR1696" s="51"/>
+      <c r="ALS1696" s="51"/>
+      <c r="ALT1696" s="51"/>
+      <c r="ALU1696" s="51"/>
+      <c r="ALV1696" s="51"/>
+      <c r="ALW1696" s="51"/>
+      <c r="ALX1696" s="51"/>
+      <c r="ALY1696" s="51"/>
+      <c r="ALZ1696" s="51"/>
+      <c r="AMA1696" s="51"/>
+      <c r="AMB1696" s="51"/>
+      <c r="AMC1696" s="51"/>
+      <c r="AMD1696" s="51"/>
+      <c r="AME1696" s="51"/>
+      <c r="AMF1696" s="51"/>
+      <c r="AMG1696" s="51"/>
+      <c r="AMH1696" s="51"/>
+      <c r="AMI1696" s="51"/>
+    </row>
+    <row r="1697" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1697" s="19"/>
+      <c r="B1697" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1697" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1697" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1697" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1697" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1697" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1697" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1697" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1697" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1697" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1697" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1697" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1697" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1697" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1698" s="22" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B1698" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1698" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1698" s="23"/>
+      <c r="E1698" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1698" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G1696" s="23"/>
-      <c r="H1696" s="23"/>
-      <c r="I1696" s="25" t="s">
-        <v>1677</v>
-      </c>
-      <c r="J1696" s="25"/>
-      <c r="K1696" s="25"/>
-      <c r="L1696" s="23"/>
-      <c r="M1696" s="23"/>
-      <c r="N1696" s="23"/>
-      <c r="O1696" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="1697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1697" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1697" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1697" s="23"/>
-      <c r="E1697" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1697" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1697" s="23"/>
-      <c r="H1697" s="23"/>
-      <c r="I1697" s="25" t="s">
-        <v>1678</v>
-      </c>
-      <c r="J1697" s="25"/>
-      <c r="K1697" s="25"/>
-      <c r="L1697" s="23"/>
-      <c r="M1697" s="23"/>
-      <c r="N1697" s="23"/>
-      <c r="O1697" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="1698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1698" s="23"/>
-      <c r="C1698" s="23"/>
-      <c r="D1698" s="23"/>
-      <c r="E1698" s="23"/>
-      <c r="F1698" s="23"/>
       <c r="G1698" s="23"/>
       <c r="H1698" s="23"/>
-      <c r="I1698" s="25"/>
+      <c r="I1698" s="25" t="s">
+        <v>1681</v>
+      </c>
       <c r="J1698" s="25"/>
       <c r="K1698" s="25"/>
       <c r="L1698" s="23"/>
@@ -56517,92 +56448,70 @@
       </c>
     </row>
     <row r="1699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1699" s="26"/>
-      <c r="C1699" s="1"/>
-      <c r="D1699" s="1"/>
-      <c r="E1699" s="1"/>
-      <c r="F1699" s="1"/>
-      <c r="G1699" s="1"/>
-      <c r="H1699" s="1"/>
-      <c r="I1699" s="1"/>
-      <c r="J1699" s="1"/>
-      <c r="K1699" s="1"/>
-      <c r="L1699" s="1"/>
-      <c r="M1699" s="1"/>
-      <c r="N1699" s="1"/>
+      <c r="B1699" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1699" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1699" s="23"/>
+      <c r="E1699" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1699" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1699" s="23"/>
+      <c r="H1699" s="23"/>
+      <c r="I1699" s="25" t="s">
+        <v>1682</v>
+      </c>
+      <c r="J1699" s="25"/>
+      <c r="K1699" s="25"/>
+      <c r="L1699" s="23"/>
+      <c r="M1699" s="23"/>
+      <c r="N1699" s="23"/>
       <c r="O1699" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="1700" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1700" s="19"/>
-      <c r="B1700" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1700" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1700" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1700" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1700" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1700" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1700" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1700" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1700" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1700" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1700" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1700" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1700" s="11" t="s">
-        <v>29</v>
-      </c>
+    <row r="1700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1700" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1700" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1700" s="23"/>
+      <c r="E1700" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1700" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1700" s="23"/>
+      <c r="H1700" s="23"/>
+      <c r="I1700" s="25" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J1700" s="25"/>
+      <c r="K1700" s="25"/>
+      <c r="L1700" s="23"/>
+      <c r="M1700" s="23"/>
+      <c r="N1700" s="23"/>
       <c r="O1700" s="26" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="1701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1701" s="22" t="s">
-        <v>1679</v>
-      </c>
-      <c r="B1701" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1701" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1701" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1701" s="23" t="s">
-        <v>32</v>
-      </c>
+      <c r="B1701" s="23"/>
+      <c r="C1701" s="23"/>
+      <c r="D1701" s="23"/>
+      <c r="E1701" s="23"/>
       <c r="F1701" s="23"/>
       <c r="G1701" s="23"/>
-      <c r="H1701" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1701" s="25" t="s">
-        <v>1680</v>
-      </c>
+      <c r="H1701" s="23"/>
+      <c r="I1701" s="25"/>
       <c r="J1701" s="25"/>
       <c r="K1701" s="25"/>
       <c r="L1701" s="23"/>
@@ -56613,77 +56522,91 @@
       </c>
     </row>
     <row r="1702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1702" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1702" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1702" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1702" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1702" s="23"/>
-      <c r="G1702" s="23"/>
-      <c r="H1702" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1702" s="25" t="s">
-        <v>1681</v>
-      </c>
-      <c r="J1702" s="25"/>
-      <c r="K1702" s="25"/>
-      <c r="L1702" s="23"/>
-      <c r="M1702" s="23"/>
-      <c r="N1702" s="23"/>
+      <c r="B1702" s="26"/>
+      <c r="C1702" s="1"/>
+      <c r="D1702" s="1"/>
+      <c r="E1702" s="1"/>
+      <c r="F1702" s="1"/>
+      <c r="G1702" s="1"/>
+      <c r="H1702" s="1"/>
+      <c r="I1702" s="1"/>
+      <c r="J1702" s="1"/>
+      <c r="K1702" s="1"/>
+      <c r="L1702" s="1"/>
+      <c r="M1702" s="1"/>
+      <c r="N1702" s="1"/>
       <c r="O1702" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="1703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1703" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1703" s="23"/>
-      <c r="D1703" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1703" s="23" t="s">
-        <v>1682</v>
-      </c>
-      <c r="F1703" s="23"/>
-      <c r="G1703" s="23"/>
-      <c r="H1703" s="23"/>
-      <c r="I1703" s="25" t="s">
-        <v>1683</v>
-      </c>
-      <c r="J1703" s="25"/>
-      <c r="K1703" s="25"/>
-      <c r="L1703" s="23"/>
-      <c r="M1703" s="23"/>
-      <c r="N1703" s="23"/>
+    <row r="1703" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1703" s="19"/>
+      <c r="B1703" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1703" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1703" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1703" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1703" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1703" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1703" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1703" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1703" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1703" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1703" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1703" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1703" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="O1703" s="26" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="1704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1704" s="22" t="s">
+        <v>1684</v>
+      </c>
       <c r="B1704" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C1704" s="23"/>
+      <c r="C1704" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="D1704" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E1704" s="23" t="s">
-        <v>1682</v>
+        <v>32</v>
       </c>
       <c r="F1704" s="23"/>
       <c r="G1704" s="23"/>
-      <c r="H1704" s="23"/>
+      <c r="H1704" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="I1704" s="25" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="J1704" s="25"/>
       <c r="K1704" s="25"/>
@@ -56698,18 +56621,22 @@
       <c r="B1705" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C1705" s="23"/>
+      <c r="C1705" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="D1705" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E1705" s="23" t="s">
-        <v>1682</v>
+        <v>32</v>
       </c>
       <c r="F1705" s="23"/>
       <c r="G1705" s="23"/>
-      <c r="H1705" s="23"/>
+      <c r="H1705" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="I1705" s="25" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="J1705" s="25"/>
       <c r="K1705" s="25"/>
@@ -56724,22 +56651,18 @@
       <c r="B1706" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C1706" s="23" t="s">
-        <v>32</v>
-      </c>
+      <c r="C1706" s="23"/>
       <c r="D1706" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E1706" s="23" t="s">
-        <v>32</v>
+        <v>1674</v>
       </c>
       <c r="F1706" s="23"/>
       <c r="G1706" s="23"/>
-      <c r="H1706" s="23" t="s">
-        <v>32</v>
-      </c>
+      <c r="H1706" s="23"/>
       <c r="I1706" s="25" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="J1706" s="25"/>
       <c r="K1706" s="25"/>
@@ -56754,22 +56677,18 @@
       <c r="B1707" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C1707" s="23" t="s">
-        <v>32</v>
-      </c>
+      <c r="C1707" s="23"/>
       <c r="D1707" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E1707" s="23" t="s">
-        <v>32</v>
+        <v>1674</v>
       </c>
       <c r="F1707" s="23"/>
       <c r="G1707" s="23"/>
-      <c r="H1707" s="23" t="s">
-        <v>32</v>
-      </c>
+      <c r="H1707" s="23"/>
       <c r="I1707" s="25" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="J1707" s="25"/>
       <c r="K1707" s="25"/>
@@ -56789,13 +56708,13 @@
         <v>32</v>
       </c>
       <c r="E1708" s="23" t="s">
-        <v>1682</v>
+        <v>1674</v>
       </c>
       <c r="F1708" s="23"/>
       <c r="G1708" s="23"/>
       <c r="H1708" s="23"/>
       <c r="I1708" s="25" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="J1708" s="25"/>
       <c r="K1708" s="25"/>
@@ -56810,18 +56729,22 @@
       <c r="B1709" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C1709" s="23"/>
+      <c r="C1709" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="D1709" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E1709" s="23" t="s">
-        <v>1682</v>
+        <v>32</v>
       </c>
       <c r="F1709" s="23"/>
       <c r="G1709" s="23"/>
-      <c r="H1709" s="23"/>
+      <c r="H1709" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="I1709" s="25" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="J1709" s="25"/>
       <c r="K1709" s="25"/>
@@ -56836,18 +56759,22 @@
       <c r="B1710" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C1710" s="23"/>
+      <c r="C1710" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="D1710" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E1710" s="23" t="s">
-        <v>1682</v>
+        <v>32</v>
       </c>
       <c r="F1710" s="23"/>
       <c r="G1710" s="23"/>
-      <c r="H1710" s="23"/>
+      <c r="H1710" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="I1710" s="25" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="J1710" s="25"/>
       <c r="K1710" s="25"/>
@@ -56867,13 +56794,13 @@
         <v>32</v>
       </c>
       <c r="E1711" s="23" t="s">
-        <v>1682</v>
+        <v>1674</v>
       </c>
       <c r="F1711" s="23"/>
       <c r="G1711" s="23"/>
       <c r="H1711" s="23"/>
       <c r="I1711" s="25" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="J1711" s="25"/>
       <c r="K1711" s="25"/>
@@ -56885,14 +56812,22 @@
       </c>
     </row>
     <row r="1712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1712" s="23"/>
+      <c r="B1712" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="C1712" s="23"/>
-      <c r="D1712" s="23"/>
-      <c r="E1712" s="23"/>
+      <c r="D1712" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1712" s="23" t="s">
+        <v>1674</v>
+      </c>
       <c r="F1712" s="23"/>
       <c r="G1712" s="23"/>
       <c r="H1712" s="23"/>
-      <c r="I1712" s="25"/>
+      <c r="I1712" s="25" t="s">
+        <v>1693</v>
+      </c>
       <c r="J1712" s="25"/>
       <c r="K1712" s="25"/>
       <c r="L1712" s="23"/>
@@ -56903,78 +56838,83 @@
       </c>
     </row>
     <row r="1713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1713" s="26"/>
-      <c r="C1713" s="1"/>
-      <c r="D1713" s="1"/>
-      <c r="E1713" s="1"/>
-      <c r="F1713" s="1"/>
-      <c r="G1713" s="1"/>
-      <c r="H1713" s="1"/>
-      <c r="I1713" s="1"/>
-      <c r="J1713" s="1"/>
-      <c r="K1713" s="1"/>
-      <c r="L1713" s="1"/>
-      <c r="M1713" s="1"/>
-      <c r="N1713" s="1"/>
+      <c r="B1713" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1713" s="23"/>
+      <c r="D1713" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1713" s="23" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F1713" s="23"/>
+      <c r="G1713" s="23"/>
+      <c r="H1713" s="23"/>
+      <c r="I1713" s="25" t="s">
+        <v>1694</v>
+      </c>
+      <c r="J1713" s="25"/>
+      <c r="K1713" s="25"/>
+      <c r="L1713" s="23"/>
+      <c r="M1713" s="23"/>
+      <c r="N1713" s="23"/>
       <c r="O1713" s="26" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="1714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1714" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1714" s="17"/>
-      <c r="C1714" s="18"/>
-      <c r="D1714" s="18"/>
-      <c r="E1714" s="18"/>
-      <c r="F1714" s="18"/>
-      <c r="G1714" s="18"/>
-      <c r="H1714" s="18"/>
-      <c r="I1714" s="1"/>
-      <c r="J1714" s="1"/>
-      <c r="K1714" s="1"/>
-      <c r="L1714" s="1"/>
-      <c r="M1714" s="1"/>
-      <c r="N1714" s="1"/>
+      <c r="B1714" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1714" s="23"/>
+      <c r="D1714" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1714" s="23" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F1714" s="23"/>
+      <c r="G1714" s="23"/>
+      <c r="H1714" s="23"/>
+      <c r="I1714" s="25" t="s">
+        <v>1695</v>
+      </c>
+      <c r="J1714" s="25"/>
+      <c r="K1714" s="25"/>
+      <c r="L1714" s="23"/>
+      <c r="M1714" s="23"/>
+      <c r="N1714" s="23"/>
       <c r="O1714" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="P1714" s="1"/>
     </row>
     <row r="1715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1715" s="16" t="s">
-        <v>1692</v>
-      </c>
-      <c r="B1715" s="17"/>
-      <c r="C1715" s="18"/>
-      <c r="D1715" s="18"/>
-      <c r="E1715" s="18"/>
-      <c r="F1715" s="18"/>
-      <c r="G1715" s="18"/>
-      <c r="H1715" s="18"/>
-      <c r="I1715" s="1"/>
-      <c r="J1715" s="1"/>
-      <c r="K1715" s="1"/>
-      <c r="L1715" s="1"/>
-      <c r="M1715" s="1"/>
-      <c r="N1715" s="1"/>
+      <c r="B1715" s="23"/>
+      <c r="C1715" s="23"/>
+      <c r="D1715" s="23"/>
+      <c r="E1715" s="23"/>
+      <c r="F1715" s="23"/>
+      <c r="G1715" s="23"/>
+      <c r="H1715" s="23"/>
+      <c r="I1715" s="25"/>
+      <c r="J1715" s="25"/>
+      <c r="K1715" s="25"/>
+      <c r="L1715" s="23"/>
+      <c r="M1715" s="23"/>
+      <c r="N1715" s="23"/>
       <c r="O1715" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="P1715" s="1"/>
     </row>
     <row r="1716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1716" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1716" s="17"/>
-      <c r="C1716" s="18"/>
-      <c r="D1716" s="18"/>
-      <c r="E1716" s="18"/>
-      <c r="F1716" s="18"/>
-      <c r="G1716" s="18"/>
-      <c r="H1716" s="18"/>
+      <c r="B1716" s="26"/>
+      <c r="C1716" s="1"/>
+      <c r="D1716" s="1"/>
+      <c r="E1716" s="1"/>
+      <c r="F1716" s="1"/>
+      <c r="G1716" s="1"/>
+      <c r="H1716" s="1"/>
       <c r="I1716" s="1"/>
       <c r="J1716" s="1"/>
       <c r="K1716" s="1"/>
@@ -56984,16 +56924,18 @@
       <c r="O1716" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="P1716" s="1"/>
     </row>
     <row r="1717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1717" s="1"/>
-      <c r="C1717" s="1"/>
-      <c r="D1717" s="1"/>
-      <c r="E1717" s="1"/>
-      <c r="F1717" s="1"/>
-      <c r="G1717" s="1"/>
-      <c r="H1717" s="1"/>
+      <c r="A1717" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1717" s="17"/>
+      <c r="C1717" s="18"/>
+      <c r="D1717" s="18"/>
+      <c r="E1717" s="18"/>
+      <c r="F1717" s="18"/>
+      <c r="G1717" s="18"/>
+      <c r="H1717" s="18"/>
       <c r="I1717" s="1"/>
       <c r="J1717" s="1"/>
       <c r="K1717" s="1"/>
@@ -57005,157 +56947,139 @@
       </c>
       <c r="P1717" s="1"/>
     </row>
-    <row r="1718" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1718" s="19"/>
-      <c r="B1718" s="11" t="s">
+    <row r="1718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1718" s="16" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B1718" s="17"/>
+      <c r="C1718" s="18"/>
+      <c r="D1718" s="18"/>
+      <c r="E1718" s="18"/>
+      <c r="F1718" s="18"/>
+      <c r="G1718" s="18"/>
+      <c r="H1718" s="18"/>
+      <c r="I1718" s="1"/>
+      <c r="J1718" s="1"/>
+      <c r="K1718" s="1"/>
+      <c r="L1718" s="1"/>
+      <c r="M1718" s="1"/>
+      <c r="N1718" s="1"/>
+      <c r="O1718" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1718" s="1"/>
+    </row>
+    <row r="1719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1719" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1719" s="17"/>
+      <c r="C1719" s="18"/>
+      <c r="D1719" s="18"/>
+      <c r="E1719" s="18"/>
+      <c r="F1719" s="18"/>
+      <c r="G1719" s="18"/>
+      <c r="H1719" s="18"/>
+      <c r="I1719" s="1"/>
+      <c r="J1719" s="1"/>
+      <c r="K1719" s="1"/>
+      <c r="L1719" s="1"/>
+      <c r="M1719" s="1"/>
+      <c r="N1719" s="1"/>
+      <c r="O1719" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1719" s="1"/>
+    </row>
+    <row r="1720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1720" s="1"/>
+      <c r="C1720" s="1"/>
+      <c r="D1720" s="1"/>
+      <c r="E1720" s="1"/>
+      <c r="F1720" s="1"/>
+      <c r="G1720" s="1"/>
+      <c r="H1720" s="1"/>
+      <c r="I1720" s="1"/>
+      <c r="J1720" s="1"/>
+      <c r="K1720" s="1"/>
+      <c r="L1720" s="1"/>
+      <c r="M1720" s="1"/>
+      <c r="N1720" s="1"/>
+      <c r="O1720" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1720" s="1"/>
+    </row>
+    <row r="1721" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1721" s="19"/>
+      <c r="B1721" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C1718" s="11" t="s">
+      <c r="C1721" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D1718" s="11" t="s">
+      <c r="D1721" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E1718" s="11" t="s">
+      <c r="E1721" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F1718" s="11" t="s">
+      <c r="F1721" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G1718" s="11" t="s">
+      <c r="G1721" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H1718" s="11" t="s">
+      <c r="H1721" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I1718" s="21" t="s">
+      <c r="I1721" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="J1718" s="21" t="s">
+      <c r="J1721" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K1718" s="21" t="s">
+      <c r="K1721" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="L1718" s="11" t="s">
+      <c r="L1721" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M1718" s="11" t="s">
+      <c r="M1721" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N1718" s="11" t="s">
+      <c r="N1721" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O1718" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1718" s="1"/>
-    </row>
-    <row r="1719" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1719" s="22" t="s">
-        <v>1693</v>
-      </c>
-      <c r="B1719" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1719" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1719" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1719" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1719" s="23" t="s">
+      <c r="O1721" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1721" s="1"/>
+    </row>
+    <row r="1722" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1722" s="22" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B1722" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1722" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1722" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1722" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1722" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G1719" s="23"/>
-      <c r="H1719" s="23"/>
-      <c r="I1719" s="25" t="s">
-        <v>1694</v>
-      </c>
-      <c r="J1719" s="25"/>
-      <c r="K1719" s="25"/>
-      <c r="L1719" s="23"/>
-      <c r="M1719" s="23"/>
-      <c r="N1719" s="23"/>
-      <c r="O1719" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1719" s="1"/>
-    </row>
-    <row r="1720" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1720" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1720" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1720" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1720" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1720" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1720" s="23"/>
-      <c r="H1720" s="23"/>
-      <c r="I1720" s="25" t="s">
-        <v>1695</v>
-      </c>
-      <c r="J1720" s="25"/>
-      <c r="K1720" s="25"/>
-      <c r="L1720" s="23"/>
-      <c r="M1720" s="23"/>
-      <c r="N1720" s="23"/>
-      <c r="O1720" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1720" s="1"/>
-    </row>
-    <row r="1721" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1721" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1721" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1721" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1721" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1721" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1721" s="23"/>
-      <c r="H1721" s="23"/>
-      <c r="I1721" s="25" t="s">
-        <v>1696</v>
-      </c>
-      <c r="J1721" s="25"/>
-      <c r="K1721" s="25"/>
-      <c r="L1721" s="23"/>
-      <c r="M1721" s="23"/>
-      <c r="N1721" s="23"/>
-      <c r="O1721" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1721" s="1"/>
-    </row>
-    <row r="1722" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1722" s="23"/>
-      <c r="C1722" s="23"/>
-      <c r="D1722" s="23"/>
-      <c r="E1722" s="23"/>
-      <c r="F1722" s="23"/>
       <c r="G1722" s="23"/>
       <c r="H1722" s="23"/>
-      <c r="I1722" s="25"/>
+      <c r="I1722" s="25" t="s">
+        <v>1698</v>
+      </c>
       <c r="J1722" s="25"/>
       <c r="K1722" s="25"/>
       <c r="L1722" s="23"/>
@@ -57166,231 +57090,228 @@
       </c>
       <c r="P1722" s="1"/>
     </row>
-    <row r="1723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1723" s="26"/>
-      <c r="C1723" s="1"/>
-      <c r="D1723" s="1"/>
-      <c r="E1723" s="1"/>
-      <c r="F1723" s="1"/>
-      <c r="G1723" s="1"/>
-      <c r="H1723" s="1"/>
-      <c r="I1723" s="1"/>
-      <c r="J1723" s="1"/>
-      <c r="K1723" s="1"/>
-      <c r="L1723" s="1"/>
-      <c r="M1723" s="1"/>
-      <c r="N1723" s="1"/>
+    <row r="1723" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1723" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1723" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1723" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1723" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1723" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1723" s="23"/>
+      <c r="H1723" s="23"/>
+      <c r="I1723" s="25" t="s">
+        <v>1699</v>
+      </c>
+      <c r="J1723" s="25"/>
+      <c r="K1723" s="25"/>
+      <c r="L1723" s="23"/>
+      <c r="M1723" s="23"/>
+      <c r="N1723" s="23"/>
       <c r="O1723" s="26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="1724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1724" s="26"/>
-      <c r="C1724" s="1"/>
-      <c r="D1724" s="1"/>
-      <c r="E1724" s="1"/>
-      <c r="F1724" s="1"/>
-      <c r="G1724" s="1"/>
-      <c r="H1724" s="1"/>
-      <c r="I1724" s="1"/>
-      <c r="J1724" s="1"/>
-      <c r="K1724" s="1"/>
-      <c r="L1724" s="1"/>
-      <c r="M1724" s="1"/>
-      <c r="N1724" s="1"/>
+      <c r="P1723" s="1"/>
+    </row>
+    <row r="1724" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1724" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1724" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1724" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1724" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1724" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1724" s="23"/>
+      <c r="H1724" s="23"/>
+      <c r="I1724" s="25" t="s">
+        <v>1700</v>
+      </c>
+      <c r="J1724" s="25"/>
+      <c r="K1724" s="25"/>
+      <c r="L1724" s="23"/>
+      <c r="M1724" s="23"/>
+      <c r="N1724" s="23"/>
       <c r="O1724" s="26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="1725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1725" s="9"/>
+      <c r="P1724" s="1"/>
+    </row>
+    <row r="1725" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1725" s="23"/>
+      <c r="C1725" s="23"/>
+      <c r="D1725" s="23"/>
+      <c r="E1725" s="23"/>
+      <c r="F1725" s="23"/>
+      <c r="G1725" s="23"/>
+      <c r="H1725" s="23"/>
+      <c r="I1725" s="25"/>
+      <c r="J1725" s="25"/>
+      <c r="K1725" s="25"/>
+      <c r="L1725" s="23"/>
+      <c r="M1725" s="23"/>
+      <c r="N1725" s="23"/>
       <c r="O1725" s="26" t="s">
         <v>35</v>
       </c>
+      <c r="P1725" s="1"/>
     </row>
     <row r="1726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1726" s="16" t="s">
+      <c r="B1726" s="26"/>
+      <c r="C1726" s="1"/>
+      <c r="D1726" s="1"/>
+      <c r="E1726" s="1"/>
+      <c r="F1726" s="1"/>
+      <c r="G1726" s="1"/>
+      <c r="H1726" s="1"/>
+      <c r="I1726" s="1"/>
+      <c r="J1726" s="1"/>
+      <c r="K1726" s="1"/>
+      <c r="L1726" s="1"/>
+      <c r="M1726" s="1"/>
+      <c r="N1726" s="1"/>
+      <c r="O1726" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1727" s="26"/>
+      <c r="C1727" s="1"/>
+      <c r="D1727" s="1"/>
+      <c r="E1727" s="1"/>
+      <c r="F1727" s="1"/>
+      <c r="G1727" s="1"/>
+      <c r="H1727" s="1"/>
+      <c r="I1727" s="1"/>
+      <c r="J1727" s="1"/>
+      <c r="K1727" s="1"/>
+      <c r="L1727" s="1"/>
+      <c r="M1727" s="1"/>
+      <c r="N1727" s="1"/>
+      <c r="O1727" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1728" s="9"/>
+      <c r="O1728" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1729" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B1726" s="17"/>
-      <c r="C1726" s="18"/>
-      <c r="D1726" s="18"/>
-      <c r="E1726" s="18"/>
-      <c r="F1726" s="18"/>
-      <c r="G1726" s="18"/>
-      <c r="H1726" s="18"/>
-      <c r="O1726" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="1727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1727" s="16" t="s">
-        <v>1697</v>
-      </c>
-      <c r="B1727" s="17"/>
-      <c r="C1727" s="18"/>
-      <c r="D1727" s="18"/>
-      <c r="E1727" s="18"/>
-      <c r="F1727" s="18"/>
-      <c r="G1727" s="18"/>
-      <c r="H1727" s="18"/>
-      <c r="O1727" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="1728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1728" s="16" t="s">
+      <c r="B1729" s="17"/>
+      <c r="C1729" s="18"/>
+      <c r="D1729" s="18"/>
+      <c r="E1729" s="18"/>
+      <c r="F1729" s="18"/>
+      <c r="G1729" s="18"/>
+      <c r="H1729" s="18"/>
+      <c r="O1729" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1730" s="16" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B1730" s="17"/>
+      <c r="C1730" s="18"/>
+      <c r="D1730" s="18"/>
+      <c r="E1730" s="18"/>
+      <c r="F1730" s="18"/>
+      <c r="G1730" s="18"/>
+      <c r="H1730" s="18"/>
+      <c r="O1730" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1731" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B1728" s="17"/>
-      <c r="C1728" s="18"/>
-      <c r="D1728" s="18"/>
-      <c r="E1728" s="18"/>
-      <c r="F1728" s="18"/>
-      <c r="G1728" s="18"/>
-      <c r="H1728" s="18"/>
-      <c r="O1728" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="1729" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1729" s="9"/>
-      <c r="B1729" s="11" t="s">
+      <c r="B1731" s="17"/>
+      <c r="C1731" s="18"/>
+      <c r="D1731" s="18"/>
+      <c r="E1731" s="18"/>
+      <c r="F1731" s="18"/>
+      <c r="G1731" s="18"/>
+      <c r="H1731" s="18"/>
+      <c r="O1731" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1732" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1732" s="9"/>
+      <c r="B1732" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C1729" s="11" t="s">
+      <c r="C1732" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D1729" s="11" t="s">
+      <c r="D1732" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E1729" s="11" t="s">
+      <c r="E1732" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F1729" s="11" t="s">
+      <c r="F1732" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G1729" s="11" t="s">
+      <c r="G1732" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H1729" s="11" t="s">
+      <c r="H1732" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I1729" s="21" t="s">
+      <c r="I1732" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="J1729" s="21" t="s">
+      <c r="J1732" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K1729" s="21" t="s">
+      <c r="K1732" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="L1729" s="11" t="s">
+      <c r="L1732" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M1729" s="11" t="s">
+      <c r="M1732" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N1729" s="11" t="s">
+      <c r="N1732" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O1729" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="1730" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1730" s="22" t="s">
-        <v>1698</v>
-      </c>
-      <c r="B1730" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1730" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="D1730" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1730" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1730" s="23" t="s">
-        <v>1019</v>
-      </c>
-      <c r="G1730" s="23"/>
-      <c r="H1730" s="23"/>
-      <c r="I1730" s="25" t="s">
-        <v>1700</v>
-      </c>
-      <c r="J1730" s="25"/>
-      <c r="K1730" s="25"/>
-      <c r="O1730" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="1731" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1731" s="22"/>
-      <c r="B1731" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1731" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="D1731" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1731" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1731" s="23" t="s">
-        <v>1019</v>
-      </c>
-      <c r="G1731" s="23"/>
-      <c r="H1731" s="23"/>
-      <c r="I1731" s="25" t="s">
-        <v>1701</v>
-      </c>
-      <c r="J1731" s="25"/>
-      <c r="K1731" s="25"/>
-      <c r="O1731" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="1732" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1732" s="22"/>
-      <c r="B1732" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1732" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="D1732" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1732" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1732" s="23" t="s">
-        <v>1019</v>
-      </c>
-      <c r="G1732" s="23"/>
-      <c r="H1732" s="23"/>
-      <c r="I1732" s="25" t="s">
+      <c r="O1732" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1733" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1733" s="22" t="s">
         <v>1702</v>
       </c>
-      <c r="J1732" s="25"/>
-      <c r="K1732" s="25"/>
-      <c r="O1732" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="1733" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1733" s="22"/>
       <c r="B1733" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1733" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1733" s="23" t="s">
         <v>32</v>
@@ -57404,7 +57325,7 @@
       <c r="G1733" s="23"/>
       <c r="H1733" s="23"/>
       <c r="I1733" s="25" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="J1733" s="25"/>
       <c r="K1733" s="25"/>
@@ -57415,10 +57336,10 @@
     <row r="1734" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1734" s="22"/>
       <c r="B1734" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1734" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1734" s="23" t="s">
         <v>32</v>
@@ -57432,7 +57353,7 @@
       <c r="G1734" s="23"/>
       <c r="H1734" s="23"/>
       <c r="I1734" s="25" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="J1734" s="25"/>
       <c r="K1734" s="25"/>
@@ -57443,10 +57364,10 @@
     <row r="1735" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1735" s="22"/>
       <c r="B1735" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1735" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1735" s="23" t="s">
         <v>32</v>
@@ -57460,7 +57381,7 @@
       <c r="G1735" s="23"/>
       <c r="H1735" s="23"/>
       <c r="I1735" s="25" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="J1735" s="25"/>
       <c r="K1735" s="25"/>
@@ -57471,10 +57392,10 @@
     <row r="1736" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1736" s="22"/>
       <c r="B1736" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1736" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1736" s="23" t="s">
         <v>32</v>
@@ -57488,7 +57409,7 @@
       <c r="G1736" s="23"/>
       <c r="H1736" s="23"/>
       <c r="I1736" s="25" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="J1736" s="25"/>
       <c r="K1736" s="25"/>
@@ -57496,12 +57417,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1737" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1737" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1737" s="22"/>
-      <c r="B1737" s="30" t="s">
-        <v>1707</v>
-      </c>
-      <c r="C1737" s="24"/>
+      <c r="B1737" s="23" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C1737" s="23" t="s">
+        <v>1703</v>
+      </c>
       <c r="D1737" s="23" t="s">
         <v>32</v>
       </c>
@@ -57517,9 +57440,7 @@
         <v>1708</v>
       </c>
       <c r="J1737" s="25"/>
-      <c r="K1737" s="25" t="s">
-        <v>1709</v>
-      </c>
+      <c r="K1737" s="25"/>
       <c r="O1737" s="26" t="s">
         <v>35</v>
       </c>
@@ -57527,10 +57448,10 @@
     <row r="1738" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1738" s="22"/>
       <c r="B1738" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1738" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1738" s="23" t="s">
         <v>32</v>
@@ -57544,7 +57465,7 @@
       <c r="G1738" s="23"/>
       <c r="H1738" s="23"/>
       <c r="I1738" s="25" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="J1738" s="25"/>
       <c r="K1738" s="25"/>
@@ -57552,13 +57473,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1739" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1739" s="22"/>
       <c r="B1739" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1739" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1739" s="23" t="s">
         <v>32</v>
@@ -57572,7 +57493,7 @@
       <c r="G1739" s="23"/>
       <c r="H1739" s="23"/>
       <c r="I1739" s="25" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="J1739" s="25"/>
       <c r="K1739" s="25"/>
@@ -57580,14 +57501,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1740" s="9"/>
-      <c r="B1740" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1740" s="23" t="s">
-        <v>1699</v>
-      </c>
+    <row r="1740" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1740" s="22"/>
+      <c r="B1740" s="30" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C1740" s="24"/>
       <c r="D1740" s="23" t="s">
         <v>32</v>
       </c>
@@ -57603,18 +57522,20 @@
         <v>1712</v>
       </c>
       <c r="J1740" s="25"/>
-      <c r="K1740" s="25"/>
+      <c r="K1740" s="25" t="s">
+        <v>1713</v>
+      </c>
       <c r="O1740" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="1741" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1741" s="9"/>
+    <row r="1741" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1741" s="22"/>
       <c r="B1741" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1741" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1741" s="23" t="s">
         <v>32</v>
@@ -57628,7 +57549,7 @@
       <c r="G1741" s="23"/>
       <c r="H1741" s="23"/>
       <c r="I1741" s="25" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="J1741" s="25"/>
       <c r="K1741" s="25"/>
@@ -57637,12 +57558,12 @@
       </c>
     </row>
     <row r="1742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1742" s="9"/>
+      <c r="A1742" s="22"/>
       <c r="B1742" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1742" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1742" s="23" t="s">
         <v>32</v>
@@ -57656,7 +57577,7 @@
       <c r="G1742" s="23"/>
       <c r="H1742" s="23"/>
       <c r="I1742" s="25" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="J1742" s="25"/>
       <c r="K1742" s="25"/>
@@ -57667,10 +57588,10 @@
     <row r="1743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1743" s="9"/>
       <c r="B1743" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1743" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1743" s="23" t="s">
         <v>32</v>
@@ -57683,8 +57604,8 @@
       </c>
       <c r="G1743" s="23"/>
       <c r="H1743" s="23"/>
-      <c r="I1743" s="48" t="s">
-        <v>1715</v>
+      <c r="I1743" s="25" t="s">
+        <v>1716</v>
       </c>
       <c r="J1743" s="25"/>
       <c r="K1743" s="25"/>
@@ -57694,26 +57615,28 @@
     </row>
     <row r="1744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1744" s="9"/>
-      <c r="B1744" s="30" t="s">
-        <v>975</v>
-      </c>
-      <c r="C1744" s="30"/>
-      <c r="D1744" s="30" t="s">
-        <v>975</v>
-      </c>
-      <c r="E1744" s="30"/>
-      <c r="F1744" s="30" t="s">
-        <v>975</v>
-      </c>
-      <c r="G1744" s="30"/>
-      <c r="H1744" s="30"/>
-      <c r="I1744" s="52" t="s">
-        <v>1716</v>
+      <c r="B1744" s="23" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C1744" s="23" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D1744" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1744" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1744" s="23" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G1744" s="23"/>
+      <c r="H1744" s="23"/>
+      <c r="I1744" s="25" t="s">
+        <v>1717</v>
       </c>
       <c r="J1744" s="25"/>
-      <c r="K1744" s="25" t="s">
-        <v>284</v>
-      </c>
+      <c r="K1744" s="25"/>
       <c r="O1744" s="26" t="s">
         <v>35</v>
       </c>
@@ -57721,13 +57644,13 @@
     <row r="1745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1745" s="9"/>
       <c r="B1745" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1745" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1745" s="23" t="s">
-        <v>1699</v>
+        <v>32</v>
       </c>
       <c r="E1745" s="23" t="s">
         <v>32</v>
@@ -57737,8 +57660,8 @@
       </c>
       <c r="G1745" s="23"/>
       <c r="H1745" s="23"/>
-      <c r="I1745" s="48" t="s">
-        <v>1717</v>
+      <c r="I1745" s="25" t="s">
+        <v>1718</v>
       </c>
       <c r="J1745" s="25"/>
       <c r="K1745" s="25"/>
@@ -57749,10 +57672,10 @@
     <row r="1746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1746" s="9"/>
       <c r="B1746" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1746" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1746" s="23" t="s">
         <v>32</v>
@@ -57766,7 +57689,7 @@
       <c r="G1746" s="23"/>
       <c r="H1746" s="23"/>
       <c r="I1746" s="48" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="J1746" s="25"/>
       <c r="K1746" s="25"/>
@@ -57776,28 +57699,26 @@
     </row>
     <row r="1747" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1747" s="9"/>
-      <c r="B1747" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1747" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="D1747" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1747" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1747" s="23" t="s">
-        <v>1019</v>
-      </c>
-      <c r="G1747" s="23"/>
-      <c r="H1747" s="23"/>
-      <c r="I1747" s="48" t="s">
-        <v>1719</v>
+      <c r="B1747" s="30" t="s">
+        <v>975</v>
+      </c>
+      <c r="C1747" s="30"/>
+      <c r="D1747" s="30" t="s">
+        <v>975</v>
+      </c>
+      <c r="E1747" s="30"/>
+      <c r="F1747" s="30" t="s">
+        <v>975</v>
+      </c>
+      <c r="G1747" s="30"/>
+      <c r="H1747" s="30"/>
+      <c r="I1747" s="52" t="s">
+        <v>1720</v>
       </c>
       <c r="J1747" s="25"/>
-      <c r="K1747" s="25"/>
+      <c r="K1747" s="25" t="s">
+        <v>284</v>
+      </c>
       <c r="O1747" s="26" t="s">
         <v>35</v>
       </c>
@@ -57805,13 +57726,13 @@
     <row r="1748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1748" s="9"/>
       <c r="B1748" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1748" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1748" s="23" t="s">
-        <v>32</v>
+        <v>1703</v>
       </c>
       <c r="E1748" s="23" t="s">
         <v>32</v>
@@ -57822,7 +57743,7 @@
       <c r="G1748" s="23"/>
       <c r="H1748" s="23"/>
       <c r="I1748" s="48" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="J1748" s="25"/>
       <c r="K1748" s="25"/>
@@ -57833,10 +57754,10 @@
     <row r="1749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1749" s="9"/>
       <c r="B1749" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1749" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1749" s="23" t="s">
         <v>32</v>
@@ -57850,7 +57771,7 @@
       <c r="G1749" s="23"/>
       <c r="H1749" s="23"/>
       <c r="I1749" s="48" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="J1749" s="25"/>
       <c r="K1749" s="25"/>
@@ -57861,10 +57782,10 @@
     <row r="1750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1750" s="9"/>
       <c r="B1750" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1750" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1750" s="23" t="s">
         <v>32</v>
@@ -57878,7 +57799,7 @@
       <c r="G1750" s="23"/>
       <c r="H1750" s="23"/>
       <c r="I1750" s="48" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="J1750" s="25"/>
       <c r="K1750" s="25"/>
@@ -57889,10 +57810,10 @@
     <row r="1751" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1751" s="9"/>
       <c r="B1751" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1751" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1751" s="23" t="s">
         <v>32</v>
@@ -57905,8 +57826,8 @@
       </c>
       <c r="G1751" s="23"/>
       <c r="H1751" s="23"/>
-      <c r="I1751" s="25" t="s">
-        <v>1723</v>
+      <c r="I1751" s="48" t="s">
+        <v>1724</v>
       </c>
       <c r="J1751" s="25"/>
       <c r="K1751" s="25"/>
@@ -57914,13 +57835,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1752" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1752" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1752" s="9"/>
       <c r="B1752" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1752" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1752" s="23" t="s">
         <v>32</v>
@@ -57933,8 +57854,8 @@
       </c>
       <c r="G1752" s="23"/>
       <c r="H1752" s="23"/>
-      <c r="I1752" s="25" t="s">
-        <v>1724</v>
+      <c r="I1752" s="48" t="s">
+        <v>1725</v>
       </c>
       <c r="J1752" s="25"/>
       <c r="K1752" s="25"/>
@@ -57942,13 +57863,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1753" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1753" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1753" s="9"/>
       <c r="B1753" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1753" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1753" s="23" t="s">
         <v>32</v>
@@ -57961,8 +57882,8 @@
       </c>
       <c r="G1753" s="23"/>
       <c r="H1753" s="23"/>
-      <c r="I1753" s="25" t="s">
-        <v>1725</v>
+      <c r="I1753" s="48" t="s">
+        <v>1726</v>
       </c>
       <c r="J1753" s="25"/>
       <c r="K1753" s="25"/>
@@ -57970,13 +57891,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1754" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1754" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1754" s="9"/>
       <c r="B1754" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1754" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1754" s="23" t="s">
         <v>32</v>
@@ -57990,7 +57911,7 @@
       <c r="G1754" s="23"/>
       <c r="H1754" s="23"/>
       <c r="I1754" s="25" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="J1754" s="25"/>
       <c r="K1754" s="25"/>
@@ -58001,10 +57922,10 @@
     <row r="1755" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1755" s="9"/>
       <c r="B1755" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1755" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1755" s="23" t="s">
         <v>32</v>
@@ -58018,7 +57939,7 @@
       <c r="G1755" s="23"/>
       <c r="H1755" s="23"/>
       <c r="I1755" s="25" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="J1755" s="25"/>
       <c r="K1755" s="25"/>
@@ -58029,10 +57950,10 @@
     <row r="1756" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1756" s="9"/>
       <c r="B1756" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1756" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1756" s="23" t="s">
         <v>32</v>
@@ -58046,7 +57967,7 @@
       <c r="G1756" s="23"/>
       <c r="H1756" s="23"/>
       <c r="I1756" s="25" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="J1756" s="25"/>
       <c r="K1756" s="25"/>
@@ -58057,16 +57978,16 @@
     <row r="1757" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1757" s="9"/>
       <c r="B1757" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1757" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1757" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E1757" s="23" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="F1757" s="23" t="s">
         <v>1019</v>
@@ -58074,7 +57995,7 @@
       <c r="G1757" s="23"/>
       <c r="H1757" s="23"/>
       <c r="I1757" s="25" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="J1757" s="25"/>
       <c r="K1757" s="25"/>
@@ -58085,10 +58006,10 @@
     <row r="1758" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1758" s="9"/>
       <c r="B1758" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1758" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1758" s="23" t="s">
         <v>32</v>
@@ -58102,7 +58023,7 @@
       <c r="G1758" s="23"/>
       <c r="H1758" s="23"/>
       <c r="I1758" s="25" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="J1758" s="25"/>
       <c r="K1758" s="25"/>
@@ -58113,10 +58034,10 @@
     <row r="1759" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1759" s="9"/>
       <c r="B1759" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1759" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1759" s="23" t="s">
         <v>32</v>
@@ -58130,7 +58051,7 @@
       <c r="G1759" s="23"/>
       <c r="H1759" s="23"/>
       <c r="I1759" s="25" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="J1759" s="25"/>
       <c r="K1759" s="25"/>
@@ -58141,14 +58062,16 @@
     <row r="1760" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1760" s="9"/>
       <c r="B1760" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1760" s="24"/>
+        <v>1703</v>
+      </c>
+      <c r="C1760" s="23" t="s">
+        <v>1703</v>
+      </c>
       <c r="D1760" s="23" t="s">
-        <v>1699</v>
+        <v>32</v>
       </c>
       <c r="E1760" s="23" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="F1760" s="23" t="s">
         <v>1019</v>
@@ -58156,7 +58079,7 @@
       <c r="G1760" s="23"/>
       <c r="H1760" s="23"/>
       <c r="I1760" s="25" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="J1760" s="25"/>
       <c r="K1760" s="25"/>
@@ -58167,11 +58090,13 @@
     <row r="1761" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1761" s="9"/>
       <c r="B1761" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1761" s="24"/>
+        <v>1703</v>
+      </c>
+      <c r="C1761" s="23" t="s">
+        <v>1703</v>
+      </c>
       <c r="D1761" s="23" t="s">
-        <v>1699</v>
+        <v>32</v>
       </c>
       <c r="E1761" s="23" t="s">
         <v>32</v>
@@ -58182,7 +58107,7 @@
       <c r="G1761" s="23"/>
       <c r="H1761" s="23"/>
       <c r="I1761" s="25" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="J1761" s="25"/>
       <c r="K1761" s="25"/>
@@ -58193,10 +58118,10 @@
     <row r="1762" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1762" s="9"/>
       <c r="B1762" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1762" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1762" s="23" t="s">
         <v>32</v>
@@ -58210,7 +58135,7 @@
       <c r="G1762" s="23"/>
       <c r="H1762" s="23"/>
       <c r="I1762" s="25" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="J1762" s="25"/>
       <c r="K1762" s="25"/>
@@ -58221,13 +58146,11 @@
     <row r="1763" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1763" s="9"/>
       <c r="B1763" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1763" s="23" t="s">
-        <v>1699</v>
-      </c>
+        <v>1703</v>
+      </c>
+      <c r="C1763" s="24"/>
       <c r="D1763" s="23" t="s">
-        <v>32</v>
+        <v>1703</v>
       </c>
       <c r="E1763" s="23" t="s">
         <v>32</v>
@@ -58238,7 +58161,7 @@
       <c r="G1763" s="23"/>
       <c r="H1763" s="23"/>
       <c r="I1763" s="25" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="J1763" s="25"/>
       <c r="K1763" s="25"/>
@@ -58246,22 +58169,20 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1764" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1764" s="9"/>
       <c r="B1764" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1764" s="23" t="s">
-        <v>1699</v>
-      </c>
+        <v>1703</v>
+      </c>
+      <c r="C1764" s="24"/>
       <c r="D1764" s="23" t="s">
-        <v>32</v>
+        <v>1703</v>
       </c>
       <c r="E1764" s="23" t="s">
         <v>32</v>
       </c>
       <c r="F1764" s="23" t="s">
-        <v>1736</v>
+        <v>1019</v>
       </c>
       <c r="G1764" s="23"/>
       <c r="H1764" s="23"/>
@@ -58269,20 +58190,18 @@
         <v>1737</v>
       </c>
       <c r="J1764" s="25"/>
-      <c r="K1764" s="25" t="s">
-        <v>1738</v>
-      </c>
+      <c r="K1764" s="25"/>
       <c r="O1764" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="1765" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1765" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1765" s="9"/>
       <c r="B1765" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1765" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1765" s="23" t="s">
         <v>32</v>
@@ -58291,38 +58210,40 @@
         <v>32</v>
       </c>
       <c r="F1765" s="23" t="s">
-        <v>1736</v>
+        <v>1019</v>
       </c>
       <c r="G1765" s="23"/>
       <c r="H1765" s="23"/>
       <c r="I1765" s="25" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="J1765" s="25"/>
-      <c r="K1765" s="25" t="s">
-        <v>1740</v>
-      </c>
+      <c r="K1765" s="25"/>
       <c r="O1765" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="1766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1766" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1766" s="9"/>
       <c r="B1766" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1766" s="24"/>
+        <v>1703</v>
+      </c>
+      <c r="C1766" s="23" t="s">
+        <v>1703</v>
+      </c>
       <c r="D1766" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E1766" s="24"/>
+      <c r="E1766" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1766" s="23" t="s">
-        <v>1736</v>
+        <v>1019</v>
       </c>
       <c r="G1766" s="23"/>
       <c r="H1766" s="23"/>
       <c r="I1766" s="25" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="J1766" s="25"/>
       <c r="K1766" s="25"/>
@@ -58333,34 +58254,40 @@
     <row r="1767" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1767" s="9"/>
       <c r="B1767" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1767" s="24"/>
+        <v>1703</v>
+      </c>
+      <c r="C1767" s="23" t="s">
+        <v>1703</v>
+      </c>
       <c r="D1767" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E1767" s="24"/>
+      <c r="E1767" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1767" s="23" t="s">
-        <v>1736</v>
+        <v>1740</v>
       </c>
       <c r="G1767" s="23"/>
       <c r="H1767" s="23"/>
       <c r="I1767" s="25" t="s">
+        <v>1741</v>
+      </c>
+      <c r="J1767" s="25"/>
+      <c r="K1767" s="25" t="s">
         <v>1742</v>
       </c>
-      <c r="J1767" s="25"/>
-      <c r="K1767" s="25"/>
       <c r="O1767" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="1768" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1768" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1768" s="9"/>
       <c r="B1768" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1768" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1768" s="23" t="s">
         <v>32</v>
@@ -58369,7 +58296,7 @@
         <v>32</v>
       </c>
       <c r="F1768" s="23" t="s">
-        <v>1019</v>
+        <v>1740</v>
       </c>
       <c r="G1768" s="23"/>
       <c r="H1768" s="23"/>
@@ -58377,32 +58304,30 @@
         <v>1743</v>
       </c>
       <c r="J1768" s="25"/>
-      <c r="K1768" s="25"/>
+      <c r="K1768" s="25" t="s">
+        <v>1744</v>
+      </c>
       <c r="O1768" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="1769" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1769" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1769" s="9"/>
       <c r="B1769" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1769" s="23" t="s">
-        <v>1699</v>
-      </c>
+        <v>1703</v>
+      </c>
+      <c r="C1769" s="24"/>
       <c r="D1769" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E1769" s="23" t="s">
-        <v>32</v>
-      </c>
+      <c r="E1769" s="24"/>
       <c r="F1769" s="23" t="s">
-        <v>1019</v>
+        <v>1740</v>
       </c>
       <c r="G1769" s="23"/>
       <c r="H1769" s="23"/>
       <c r="I1769" s="25" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="J1769" s="25"/>
       <c r="K1769" s="25"/>
@@ -58410,27 +58335,23 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1770" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1770" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1770" s="9"/>
       <c r="B1770" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1770" s="23" t="s">
-        <v>1699</v>
-      </c>
+        <v>1703</v>
+      </c>
+      <c r="C1770" s="24"/>
       <c r="D1770" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="E1770" s="23" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E1770" s="24"/>
       <c r="F1770" s="23" t="s">
-        <v>1019</v>
+        <v>1740</v>
       </c>
       <c r="G1770" s="23"/>
       <c r="H1770" s="23"/>
       <c r="I1770" s="25" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="J1770" s="25"/>
       <c r="K1770" s="25"/>
@@ -58441,10 +58362,10 @@
     <row r="1771" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1771" s="9"/>
       <c r="B1771" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1771" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1771" s="23" t="s">
         <v>32</v>
@@ -58458,7 +58379,7 @@
       <c r="G1771" s="23"/>
       <c r="H1771" s="23"/>
       <c r="I1771" s="25" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="J1771" s="25"/>
       <c r="K1771" s="25"/>
@@ -58466,14 +58387,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1772" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1772" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1772" s="9"/>
       <c r="B1772" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1772" s="24"/>
+        <v>1703</v>
+      </c>
+      <c r="C1772" s="23" t="s">
+        <v>1703</v>
+      </c>
       <c r="D1772" s="23" t="s">
-        <v>1699</v>
+        <v>32</v>
       </c>
       <c r="E1772" s="23" t="s">
         <v>32</v>
@@ -58484,7 +58407,7 @@
       <c r="G1772" s="23"/>
       <c r="H1772" s="23"/>
       <c r="I1772" s="25" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="J1772" s="25"/>
       <c r="K1772" s="25"/>
@@ -58492,14 +58415,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1773" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1773" s="9"/>
       <c r="B1773" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1773" s="24"/>
+        <v>1703</v>
+      </c>
+      <c r="C1773" s="23" t="s">
+        <v>1703</v>
+      </c>
       <c r="D1773" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="E1773" s="23" t="s">
         <v>32</v>
@@ -58510,7 +58435,7 @@
       <c r="G1773" s="23"/>
       <c r="H1773" s="23"/>
       <c r="I1773" s="25" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="J1773" s="25"/>
       <c r="K1773" s="25"/>
@@ -58518,23 +58443,27 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1774" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1774" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1774" s="9"/>
       <c r="B1774" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1774" s="24"/>
+        <v>1703</v>
+      </c>
+      <c r="C1774" s="23" t="s">
+        <v>1703</v>
+      </c>
       <c r="D1774" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="E1774" s="23"/>
+        <v>32</v>
+      </c>
+      <c r="E1774" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1774" s="23" t="s">
         <v>1019</v>
       </c>
       <c r="G1774" s="23"/>
       <c r="H1774" s="23"/>
       <c r="I1774" s="25" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="J1774" s="25"/>
       <c r="K1774" s="25"/>
@@ -58545,20 +58474,22 @@
     <row r="1775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1775" s="9"/>
       <c r="B1775" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1775" s="24"/>
       <c r="D1775" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="E1775" s="23"/>
+        <v>1703</v>
+      </c>
+      <c r="E1775" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1775" s="23" t="s">
         <v>1019</v>
       </c>
       <c r="G1775" s="23"/>
       <c r="H1775" s="23"/>
       <c r="I1775" s="25" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="J1775" s="25"/>
       <c r="K1775" s="25"/>
@@ -58566,16 +58497,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1776" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1776" s="9"/>
       <c r="B1776" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1776" s="23" t="s">
-        <v>1699</v>
-      </c>
+        <v>1703</v>
+      </c>
+      <c r="C1776" s="24"/>
       <c r="D1776" s="23" t="s">
-        <v>32</v>
+        <v>1703</v>
       </c>
       <c r="E1776" s="23" t="s">
         <v>32</v>
@@ -58586,7 +58515,7 @@
       <c r="G1776" s="23"/>
       <c r="H1776" s="23"/>
       <c r="I1776" s="25" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="J1776" s="25"/>
       <c r="K1776" s="25"/>
@@ -58594,27 +58523,23 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1777" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1777" s="9"/>
       <c r="B1777" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1777" s="23" t="s">
-        <v>1699</v>
-      </c>
+        <v>1703</v>
+      </c>
+      <c r="C1777" s="24"/>
       <c r="D1777" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="E1777" s="23" t="s">
-        <v>32</v>
-      </c>
+        <v>1703</v>
+      </c>
+      <c r="E1777" s="23"/>
       <c r="F1777" s="23" t="s">
         <v>1019</v>
       </c>
       <c r="G1777" s="23"/>
       <c r="H1777" s="23"/>
       <c r="I1777" s="25" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="J1777" s="25"/>
       <c r="K1777" s="25"/>
@@ -58622,27 +58547,23 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1778" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1778" s="9"/>
       <c r="B1778" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1778" s="23" t="s">
-        <v>1699</v>
-      </c>
+        <v>1703</v>
+      </c>
+      <c r="C1778" s="24"/>
       <c r="D1778" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1778" s="23" t="s">
-        <v>32</v>
-      </c>
+        <v>1703</v>
+      </c>
+      <c r="E1778" s="23"/>
       <c r="F1778" s="23" t="s">
         <v>1019</v>
       </c>
       <c r="G1778" s="23"/>
       <c r="H1778" s="23"/>
       <c r="I1778" s="25" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="J1778" s="25"/>
       <c r="K1778" s="25"/>
@@ -58653,10 +58574,10 @@
     <row r="1779" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1779" s="9"/>
       <c r="B1779" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1779" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1779" s="23" t="s">
         <v>32</v>
@@ -58670,7 +58591,7 @@
       <c r="G1779" s="23"/>
       <c r="H1779" s="23"/>
       <c r="I1779" s="25" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="J1779" s="25"/>
       <c r="K1779" s="25"/>
@@ -58681,13 +58602,13 @@
     <row r="1780" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1780" s="9"/>
       <c r="B1780" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1780" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1780" s="23" t="s">
-        <v>32</v>
+        <v>1703</v>
       </c>
       <c r="E1780" s="23" t="s">
         <v>32</v>
@@ -58698,12 +58619,10 @@
       <c r="G1780" s="23"/>
       <c r="H1780" s="23"/>
       <c r="I1780" s="25" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="J1780" s="25"/>
-      <c r="K1780" s="25" t="s">
-        <v>493</v>
-      </c>
+      <c r="K1780" s="25"/>
       <c r="O1780" s="26" t="s">
         <v>35</v>
       </c>
@@ -58711,10 +58630,10 @@
     <row r="1781" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1781" s="9"/>
       <c r="B1781" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1781" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1781" s="23" t="s">
         <v>32</v>
@@ -58728,7 +58647,7 @@
       <c r="G1781" s="23"/>
       <c r="H1781" s="23"/>
       <c r="I1781" s="25" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="J1781" s="25"/>
       <c r="K1781" s="25"/>
@@ -58739,10 +58658,10 @@
     <row r="1782" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1782" s="9"/>
       <c r="B1782" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1782" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1782" s="23" t="s">
         <v>32</v>
@@ -58756,7 +58675,7 @@
       <c r="G1782" s="23"/>
       <c r="H1782" s="23"/>
       <c r="I1782" s="25" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="J1782" s="25"/>
       <c r="K1782" s="25"/>
@@ -58767,10 +58686,10 @@
     <row r="1783" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1783" s="9"/>
       <c r="B1783" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1783" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1783" s="23" t="s">
         <v>32</v>
@@ -58784,10 +58703,12 @@
       <c r="G1783" s="23"/>
       <c r="H1783" s="23"/>
       <c r="I1783" s="25" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="J1783" s="25"/>
-      <c r="K1783" s="25"/>
+      <c r="K1783" s="25" t="s">
+        <v>493</v>
+      </c>
       <c r="O1783" s="26" t="s">
         <v>35</v>
       </c>
@@ -58795,10 +58716,10 @@
     <row r="1784" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1784" s="9"/>
       <c r="B1784" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1784" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1784" s="23" t="s">
         <v>32</v>
@@ -58812,7 +58733,7 @@
       <c r="G1784" s="23"/>
       <c r="H1784" s="23"/>
       <c r="I1784" s="25" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="J1784" s="25"/>
       <c r="K1784" s="25"/>
@@ -58823,10 +58744,10 @@
     <row r="1785" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1785" s="9"/>
       <c r="B1785" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1785" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1785" s="23" t="s">
         <v>32</v>
@@ -58840,7 +58761,7 @@
       <c r="G1785" s="23"/>
       <c r="H1785" s="23"/>
       <c r="I1785" s="25" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="J1785" s="25"/>
       <c r="K1785" s="25"/>
@@ -58851,10 +58772,10 @@
     <row r="1786" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1786" s="9"/>
       <c r="B1786" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1786" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1786" s="23" t="s">
         <v>32</v>
@@ -58868,7 +58789,7 @@
       <c r="G1786" s="23"/>
       <c r="H1786" s="23"/>
       <c r="I1786" s="25" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="J1786" s="25"/>
       <c r="K1786" s="25"/>
@@ -58879,13 +58800,13 @@
     <row r="1787" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1787" s="9"/>
       <c r="B1787" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1787" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1787" s="23" t="s">
-        <v>1699</v>
+        <v>32</v>
       </c>
       <c r="E1787" s="23" t="s">
         <v>32</v>
@@ -58896,7 +58817,7 @@
       <c r="G1787" s="23"/>
       <c r="H1787" s="23"/>
       <c r="I1787" s="25" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="J1787" s="25"/>
       <c r="K1787" s="25"/>
@@ -58907,11 +58828,13 @@
     <row r="1788" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1788" s="9"/>
       <c r="B1788" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1788" s="24"/>
+        <v>1703</v>
+      </c>
+      <c r="C1788" s="23" t="s">
+        <v>1703</v>
+      </c>
       <c r="D1788" s="23" t="s">
-        <v>1699</v>
+        <v>32</v>
       </c>
       <c r="E1788" s="23" t="s">
         <v>32</v>
@@ -58922,7 +58845,7 @@
       <c r="G1788" s="23"/>
       <c r="H1788" s="23"/>
       <c r="I1788" s="25" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="J1788" s="25"/>
       <c r="K1788" s="25"/>
@@ -58933,11 +58856,13 @@
     <row r="1789" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1789" s="9"/>
       <c r="B1789" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1789" s="24"/>
+        <v>1703</v>
+      </c>
+      <c r="C1789" s="23" t="s">
+        <v>1703</v>
+      </c>
       <c r="D1789" s="23" t="s">
-        <v>1699</v>
+        <v>32</v>
       </c>
       <c r="E1789" s="23" t="s">
         <v>32</v>
@@ -58948,7 +58873,7 @@
       <c r="G1789" s="23"/>
       <c r="H1789" s="23"/>
       <c r="I1789" s="25" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="J1789" s="25"/>
       <c r="K1789" s="25"/>
@@ -58959,11 +58884,13 @@
     <row r="1790" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1790" s="9"/>
       <c r="B1790" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1790" s="24"/>
+        <v>1703</v>
+      </c>
+      <c r="C1790" s="23" t="s">
+        <v>1703</v>
+      </c>
       <c r="D1790" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="E1790" s="23" t="s">
         <v>32</v>
@@ -58974,7 +58901,7 @@
       <c r="G1790" s="23"/>
       <c r="H1790" s="23"/>
       <c r="I1790" s="25" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="J1790" s="25"/>
       <c r="K1790" s="25"/>
@@ -58985,13 +58912,11 @@
     <row r="1791" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1791" s="9"/>
       <c r="B1791" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1791" s="23" t="s">
-        <v>1699</v>
-      </c>
+        <v>1703</v>
+      </c>
+      <c r="C1791" s="24"/>
       <c r="D1791" s="23" t="s">
-        <v>32</v>
+        <v>1703</v>
       </c>
       <c r="E1791" s="23" t="s">
         <v>32</v>
@@ -59002,7 +58927,7 @@
       <c r="G1791" s="23"/>
       <c r="H1791" s="23"/>
       <c r="I1791" s="25" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="J1791" s="25"/>
       <c r="K1791" s="25"/>
@@ -59013,13 +58938,11 @@
     <row r="1792" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1792" s="9"/>
       <c r="B1792" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1792" s="23" t="s">
-        <v>1699</v>
-      </c>
+        <v>1703</v>
+      </c>
+      <c r="C1792" s="24"/>
       <c r="D1792" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="E1792" s="23" t="s">
         <v>32</v>
@@ -59030,7 +58953,7 @@
       <c r="G1792" s="23"/>
       <c r="H1792" s="23"/>
       <c r="I1792" s="25" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="J1792" s="25"/>
       <c r="K1792" s="25"/>
@@ -59041,13 +58964,11 @@
     <row r="1793" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1793" s="9"/>
       <c r="B1793" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1793" s="23" t="s">
-        <v>1699</v>
-      </c>
+        <v>1703</v>
+      </c>
+      <c r="C1793" s="24"/>
       <c r="D1793" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="E1793" s="23" t="s">
         <v>32</v>
@@ -59058,7 +58979,7 @@
       <c r="G1793" s="23"/>
       <c r="H1793" s="23"/>
       <c r="I1793" s="25" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="J1793" s="25"/>
       <c r="K1793" s="25"/>
@@ -59069,13 +58990,13 @@
     <row r="1794" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1794" s="9"/>
       <c r="B1794" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1794" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1794" s="23" t="s">
-        <v>1699</v>
+        <v>32</v>
       </c>
       <c r="E1794" s="23" t="s">
         <v>32</v>
@@ -59086,7 +59007,7 @@
       <c r="G1794" s="23"/>
       <c r="H1794" s="23"/>
       <c r="I1794" s="25" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="J1794" s="25"/>
       <c r="K1794" s="25"/>
@@ -59097,13 +59018,13 @@
     <row r="1795" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1795" s="9"/>
       <c r="B1795" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1795" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1795" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="E1795" s="23" t="s">
         <v>32</v>
@@ -59114,7 +59035,7 @@
       <c r="G1795" s="23"/>
       <c r="H1795" s="23"/>
       <c r="I1795" s="25" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="J1795" s="25"/>
       <c r="K1795" s="25"/>
@@ -59125,13 +59046,13 @@
     <row r="1796" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1796" s="9"/>
       <c r="B1796" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1796" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1796" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="E1796" s="23" t="s">
         <v>32</v>
@@ -59142,7 +59063,7 @@
       <c r="G1796" s="23"/>
       <c r="H1796" s="23"/>
       <c r="I1796" s="25" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="J1796" s="25"/>
       <c r="K1796" s="25"/>
@@ -59150,16 +59071,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1797" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1797" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1797" s="9"/>
       <c r="B1797" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1797" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1797" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="E1797" s="23" t="s">
         <v>32</v>
@@ -59170,7 +59091,7 @@
       <c r="G1797" s="23"/>
       <c r="H1797" s="23"/>
       <c r="I1797" s="25" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="J1797" s="25"/>
       <c r="K1797" s="25"/>
@@ -59181,13 +59102,13 @@
     <row r="1798" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1798" s="9"/>
       <c r="B1798" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1798" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1798" s="23" t="s">
-        <v>32</v>
+        <v>1703</v>
       </c>
       <c r="E1798" s="23" t="s">
         <v>32</v>
@@ -59198,7 +59119,7 @@
       <c r="G1798" s="23"/>
       <c r="H1798" s="23"/>
       <c r="I1798" s="25" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="J1798" s="25"/>
       <c r="K1798" s="25"/>
@@ -59206,16 +59127,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1799" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1799" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1799" s="9"/>
       <c r="B1799" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1799" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1799" s="23" t="s">
-        <v>32</v>
+        <v>1703</v>
       </c>
       <c r="E1799" s="23" t="s">
         <v>32</v>
@@ -59226,7 +59147,7 @@
       <c r="G1799" s="23"/>
       <c r="H1799" s="23"/>
       <c r="I1799" s="25" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="J1799" s="25"/>
       <c r="K1799" s="25"/>
@@ -59237,13 +59158,13 @@
     <row r="1800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1800" s="9"/>
       <c r="B1800" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1800" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1800" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="E1800" s="23" t="s">
         <v>32</v>
@@ -59254,7 +59175,7 @@
       <c r="G1800" s="23"/>
       <c r="H1800" s="23"/>
       <c r="I1800" s="25" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="J1800" s="25"/>
       <c r="K1800" s="25"/>
@@ -59262,16 +59183,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1801" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1801" s="9"/>
       <c r="B1801" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1801" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1801" s="23" t="s">
-        <v>1699</v>
+        <v>32</v>
       </c>
       <c r="E1801" s="23" t="s">
         <v>32</v>
@@ -59282,7 +59203,7 @@
       <c r="G1801" s="23"/>
       <c r="H1801" s="23"/>
       <c r="I1801" s="25" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="J1801" s="25"/>
       <c r="K1801" s="25"/>
@@ -59290,13 +59211,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1802" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1802" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1802" s="9"/>
       <c r="B1802" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1802" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1802" s="23" t="s">
         <v>32</v>
@@ -59310,7 +59231,7 @@
       <c r="G1802" s="23"/>
       <c r="H1802" s="23"/>
       <c r="I1802" s="25" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="J1802" s="25"/>
       <c r="K1802" s="25"/>
@@ -59318,16 +59239,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1803" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1803" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1803" s="9"/>
       <c r="B1803" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1803" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1803" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="E1803" s="23" t="s">
         <v>32</v>
@@ -59338,7 +59259,7 @@
       <c r="G1803" s="23"/>
       <c r="H1803" s="23"/>
       <c r="I1803" s="25" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="J1803" s="25"/>
       <c r="K1803" s="25"/>
@@ -59346,16 +59267,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1804" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1804" s="9"/>
       <c r="B1804" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1804" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1804" s="23" t="s">
-        <v>32</v>
+        <v>1703</v>
       </c>
       <c r="E1804" s="23" t="s">
         <v>32</v>
@@ -59366,7 +59287,7 @@
       <c r="G1804" s="23"/>
       <c r="H1804" s="23"/>
       <c r="I1804" s="25" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="J1804" s="25"/>
       <c r="K1804" s="25"/>
@@ -59377,13 +59298,13 @@
     <row r="1805" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1805" s="9"/>
       <c r="B1805" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1805" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1805" s="23" t="s">
-        <v>1699</v>
+        <v>32</v>
       </c>
       <c r="E1805" s="23" t="s">
         <v>32</v>
@@ -59394,7 +59315,7 @@
       <c r="G1805" s="23"/>
       <c r="H1805" s="23"/>
       <c r="I1805" s="25" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="J1805" s="25"/>
       <c r="K1805" s="25"/>
@@ -59405,13 +59326,13 @@
     <row r="1806" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1806" s="9"/>
       <c r="B1806" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1806" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1806" s="23" t="s">
-        <v>32</v>
+        <v>1703</v>
       </c>
       <c r="E1806" s="23" t="s">
         <v>32</v>
@@ -59422,7 +59343,7 @@
       <c r="G1806" s="23"/>
       <c r="H1806" s="23"/>
       <c r="I1806" s="25" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="J1806" s="25"/>
       <c r="K1806" s="25"/>
@@ -59433,13 +59354,13 @@
     <row r="1807" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1807" s="9"/>
       <c r="B1807" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1807" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1807" s="23" t="s">
-        <v>1699</v>
+        <v>32</v>
       </c>
       <c r="E1807" s="23" t="s">
         <v>32</v>
@@ -59450,7 +59371,7 @@
       <c r="G1807" s="23"/>
       <c r="H1807" s="23"/>
       <c r="I1807" s="25" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="J1807" s="25"/>
       <c r="K1807" s="25"/>
@@ -59461,13 +59382,13 @@
     <row r="1808" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1808" s="9"/>
       <c r="B1808" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1808" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1808" s="23" t="s">
-        <v>32</v>
+        <v>1703</v>
       </c>
       <c r="E1808" s="23" t="s">
         <v>32</v>
@@ -59478,7 +59399,7 @@
       <c r="G1808" s="23"/>
       <c r="H1808" s="23"/>
       <c r="I1808" s="25" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="J1808" s="25"/>
       <c r="K1808" s="25"/>
@@ -59489,10 +59410,10 @@
     <row r="1809" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1809" s="9"/>
       <c r="B1809" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1809" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1809" s="23" t="s">
         <v>32</v>
@@ -59506,7 +59427,7 @@
       <c r="G1809" s="23"/>
       <c r="H1809" s="23"/>
       <c r="I1809" s="25" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="J1809" s="25"/>
       <c r="K1809" s="25"/>
@@ -59517,13 +59438,13 @@
     <row r="1810" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1810" s="9"/>
       <c r="B1810" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1810" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1810" s="23" t="s">
-        <v>32</v>
+        <v>1703</v>
       </c>
       <c r="E1810" s="23" t="s">
         <v>32</v>
@@ -59534,7 +59455,7 @@
       <c r="G1810" s="23"/>
       <c r="H1810" s="23"/>
       <c r="I1810" s="25" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="J1810" s="25"/>
       <c r="K1810" s="25"/>
@@ -59545,10 +59466,10 @@
     <row r="1811" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1811" s="9"/>
       <c r="B1811" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1811" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1811" s="23" t="s">
         <v>32</v>
@@ -59562,7 +59483,7 @@
       <c r="G1811" s="23"/>
       <c r="H1811" s="23"/>
       <c r="I1811" s="25" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="J1811" s="25"/>
       <c r="K1811" s="25"/>
@@ -59573,10 +59494,10 @@
     <row r="1812" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1812" s="9"/>
       <c r="B1812" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1812" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1812" s="23" t="s">
         <v>32</v>
@@ -59590,7 +59511,7 @@
       <c r="G1812" s="23"/>
       <c r="H1812" s="23"/>
       <c r="I1812" s="25" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="J1812" s="25"/>
       <c r="K1812" s="25"/>
@@ -59601,10 +59522,10 @@
     <row r="1813" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1813" s="9"/>
       <c r="B1813" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1813" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1813" s="23" t="s">
         <v>32</v>
@@ -59618,7 +59539,7 @@
       <c r="G1813" s="23"/>
       <c r="H1813" s="23"/>
       <c r="I1813" s="25" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="J1813" s="25"/>
       <c r="K1813" s="25"/>
@@ -59629,9 +59550,11 @@
     <row r="1814" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1814" s="9"/>
       <c r="B1814" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1814" s="24"/>
+        <v>1703</v>
+      </c>
+      <c r="C1814" s="23" t="s">
+        <v>1703</v>
+      </c>
       <c r="D1814" s="23" t="s">
         <v>32</v>
       </c>
@@ -59644,7 +59567,7 @@
       <c r="G1814" s="23"/>
       <c r="H1814" s="23"/>
       <c r="I1814" s="25" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="J1814" s="25"/>
       <c r="K1814" s="25"/>
@@ -59655,10 +59578,10 @@
     <row r="1815" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1815" s="9"/>
       <c r="B1815" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1815" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1815" s="23" t="s">
         <v>32</v>
@@ -59672,7 +59595,7 @@
       <c r="G1815" s="23"/>
       <c r="H1815" s="23"/>
       <c r="I1815" s="25" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="J1815" s="25"/>
       <c r="K1815" s="25"/>
@@ -59683,10 +59606,10 @@
     <row r="1816" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1816" s="9"/>
       <c r="B1816" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1816" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1816" s="23" t="s">
         <v>32</v>
@@ -59700,7 +59623,7 @@
       <c r="G1816" s="23"/>
       <c r="H1816" s="23"/>
       <c r="I1816" s="25" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="J1816" s="25"/>
       <c r="K1816" s="25"/>
@@ -59708,14 +59631,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1817" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1817" s="9"/>
       <c r="B1817" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1817" s="23" t="s">
-        <v>1699</v>
-      </c>
+        <v>1703</v>
+      </c>
+      <c r="C1817" s="24"/>
       <c r="D1817" s="23" t="s">
         <v>32</v>
       </c>
@@ -59728,7 +59649,7 @@
       <c r="G1817" s="23"/>
       <c r="H1817" s="23"/>
       <c r="I1817" s="25" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="J1817" s="25"/>
       <c r="K1817" s="25"/>
@@ -59736,13 +59657,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1818" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1818" s="9"/>
       <c r="B1818" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1818" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1818" s="23" t="s">
         <v>32</v>
@@ -59756,7 +59677,7 @@
       <c r="G1818" s="23"/>
       <c r="H1818" s="23"/>
       <c r="I1818" s="25" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="J1818" s="25"/>
       <c r="K1818" s="25"/>
@@ -59764,13 +59685,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1819" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1819" s="9"/>
       <c r="B1819" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1819" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1819" s="23" t="s">
         <v>32</v>
@@ -59784,7 +59705,7 @@
       <c r="G1819" s="23"/>
       <c r="H1819" s="23"/>
       <c r="I1819" s="25" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="J1819" s="25"/>
       <c r="K1819" s="25"/>
@@ -59795,10 +59716,10 @@
     <row r="1820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1820" s="9"/>
       <c r="B1820" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1820" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1820" s="23" t="s">
         <v>32</v>
@@ -59812,7 +59733,7 @@
       <c r="G1820" s="23"/>
       <c r="H1820" s="23"/>
       <c r="I1820" s="25" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="J1820" s="25"/>
       <c r="K1820" s="25"/>
@@ -59823,10 +59744,10 @@
     <row r="1821" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1821" s="9"/>
       <c r="B1821" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1821" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1821" s="23" t="s">
         <v>32</v>
@@ -59840,7 +59761,7 @@
       <c r="G1821" s="23"/>
       <c r="H1821" s="23"/>
       <c r="I1821" s="25" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="J1821" s="25"/>
       <c r="K1821" s="25"/>
@@ -59848,13 +59769,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1822" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1822" s="9"/>
       <c r="B1822" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1822" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1822" s="23" t="s">
         <v>32</v>
@@ -59868,7 +59789,7 @@
       <c r="G1822" s="23"/>
       <c r="H1822" s="23"/>
       <c r="I1822" s="25" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="J1822" s="25"/>
       <c r="K1822" s="25"/>
@@ -59876,13 +59797,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1823" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1823" s="9"/>
       <c r="B1823" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1823" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1823" s="23" t="s">
         <v>32</v>
@@ -59896,7 +59817,7 @@
       <c r="G1823" s="23"/>
       <c r="H1823" s="23"/>
       <c r="I1823" s="25" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="J1823" s="25"/>
       <c r="K1823" s="25"/>
@@ -59904,13 +59825,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1824" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1824" s="9"/>
       <c r="B1824" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1824" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1824" s="23" t="s">
         <v>32</v>
@@ -59924,7 +59845,7 @@
       <c r="G1824" s="23"/>
       <c r="H1824" s="23"/>
       <c r="I1824" s="25" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="J1824" s="25"/>
       <c r="K1824" s="25"/>
@@ -59935,10 +59856,10 @@
     <row r="1825" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1825" s="9"/>
       <c r="B1825" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1825" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1825" s="23" t="s">
         <v>32</v>
@@ -59952,7 +59873,7 @@
       <c r="G1825" s="23"/>
       <c r="H1825" s="23"/>
       <c r="I1825" s="25" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="J1825" s="25"/>
       <c r="K1825" s="25"/>
@@ -59960,13 +59881,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1826" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1826" s="9"/>
       <c r="B1826" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1826" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1826" s="23" t="s">
         <v>32</v>
@@ -59980,7 +59901,7 @@
       <c r="G1826" s="23"/>
       <c r="H1826" s="23"/>
       <c r="I1826" s="25" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="J1826" s="25"/>
       <c r="K1826" s="25"/>
@@ -59988,13 +59909,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1827" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1827" s="9"/>
       <c r="B1827" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1827" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1827" s="23" t="s">
         <v>32</v>
@@ -60008,7 +59929,7 @@
       <c r="G1827" s="23"/>
       <c r="H1827" s="23"/>
       <c r="I1827" s="25" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="J1827" s="25"/>
       <c r="K1827" s="25"/>
@@ -60019,10 +59940,10 @@
     <row r="1828" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1828" s="9"/>
       <c r="B1828" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1828" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1828" s="23" t="s">
         <v>32</v>
@@ -60036,7 +59957,7 @@
       <c r="G1828" s="23"/>
       <c r="H1828" s="23"/>
       <c r="I1828" s="25" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="J1828" s="25"/>
       <c r="K1828" s="25"/>
@@ -60044,13 +59965,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1829" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1829" s="9"/>
       <c r="B1829" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1829" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1829" s="23" t="s">
         <v>32</v>
@@ -60064,7 +59985,7 @@
       <c r="G1829" s="23"/>
       <c r="H1829" s="23"/>
       <c r="I1829" s="25" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="J1829" s="25"/>
       <c r="K1829" s="25"/>
@@ -60072,13 +59993,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1830" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1830" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1830" s="9"/>
       <c r="B1830" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1830" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1830" s="23" t="s">
         <v>32</v>
@@ -60092,7 +60013,7 @@
       <c r="G1830" s="23"/>
       <c r="H1830" s="23"/>
       <c r="I1830" s="25" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="J1830" s="25"/>
       <c r="K1830" s="25"/>
@@ -60103,10 +60024,10 @@
     <row r="1831" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1831" s="9"/>
       <c r="B1831" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1831" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1831" s="23" t="s">
         <v>32</v>
@@ -60120,7 +60041,7 @@
       <c r="G1831" s="23"/>
       <c r="H1831" s="23"/>
       <c r="I1831" s="25" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="J1831" s="25"/>
       <c r="K1831" s="25"/>
@@ -60131,10 +60052,10 @@
     <row r="1832" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1832" s="9"/>
       <c r="B1832" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1832" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1832" s="23" t="s">
         <v>32</v>
@@ -60148,7 +60069,7 @@
       <c r="G1832" s="23"/>
       <c r="H1832" s="23"/>
       <c r="I1832" s="25" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="J1832" s="25"/>
       <c r="K1832" s="25"/>
@@ -60159,10 +60080,10 @@
     <row r="1833" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1833" s="9"/>
       <c r="B1833" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1833" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1833" s="23" t="s">
         <v>32</v>
@@ -60176,7 +60097,7 @@
       <c r="G1833" s="23"/>
       <c r="H1833" s="23"/>
       <c r="I1833" s="25" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="J1833" s="25"/>
       <c r="K1833" s="25"/>
@@ -60184,13 +60105,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1834" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1834" s="9"/>
       <c r="B1834" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1834" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1834" s="23" t="s">
         <v>32</v>
@@ -60204,7 +60125,7 @@
       <c r="G1834" s="23"/>
       <c r="H1834" s="23"/>
       <c r="I1834" s="25" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="J1834" s="25"/>
       <c r="K1834" s="25"/>
@@ -60212,13 +60133,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1835" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1835" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1835" s="9"/>
       <c r="B1835" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1835" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1835" s="23" t="s">
         <v>32</v>
@@ -60232,7 +60153,7 @@
       <c r="G1835" s="23"/>
       <c r="H1835" s="23"/>
       <c r="I1835" s="25" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="J1835" s="25"/>
       <c r="K1835" s="25"/>
@@ -60240,13 +60161,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1836" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1836" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1836" s="9"/>
       <c r="B1836" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1836" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1836" s="23" t="s">
         <v>32</v>
@@ -60260,7 +60181,7 @@
       <c r="G1836" s="23"/>
       <c r="H1836" s="23"/>
       <c r="I1836" s="25" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="J1836" s="25"/>
       <c r="K1836" s="25"/>
@@ -60268,13 +60189,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1837" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1837" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1837" s="9"/>
       <c r="B1837" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1837" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1837" s="23" t="s">
         <v>32</v>
@@ -60288,7 +60209,7 @@
       <c r="G1837" s="23"/>
       <c r="H1837" s="23"/>
       <c r="I1837" s="25" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="J1837" s="25"/>
       <c r="K1837" s="25"/>
@@ -60296,16 +60217,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1838" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1838" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1838" s="9"/>
       <c r="B1838" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1838" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1838" s="23" t="s">
-        <v>1699</v>
+        <v>32</v>
       </c>
       <c r="E1838" s="23" t="s">
         <v>32</v>
@@ -60316,7 +60237,7 @@
       <c r="G1838" s="23"/>
       <c r="H1838" s="23"/>
       <c r="I1838" s="25" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="J1838" s="25"/>
       <c r="K1838" s="25"/>
@@ -60324,13 +60245,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1839" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1839" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1839" s="9"/>
       <c r="B1839" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1839" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1839" s="23" t="s">
         <v>32</v>
@@ -60344,7 +60265,7 @@
       <c r="G1839" s="23"/>
       <c r="H1839" s="23"/>
       <c r="I1839" s="25" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="J1839" s="25"/>
       <c r="K1839" s="25"/>
@@ -60352,13 +60273,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1840" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1840" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1840" s="9"/>
       <c r="B1840" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1840" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1840" s="23" t="s">
         <v>32</v>
@@ -60372,7 +60293,7 @@
       <c r="G1840" s="23"/>
       <c r="H1840" s="23"/>
       <c r="I1840" s="25" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="J1840" s="25"/>
       <c r="K1840" s="25"/>
@@ -60380,16 +60301,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1841" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1841" s="9"/>
       <c r="B1841" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1841" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1841" s="23" t="s">
-        <v>32</v>
+        <v>1703</v>
       </c>
       <c r="E1841" s="23" t="s">
         <v>32</v>
@@ -60400,7 +60321,7 @@
       <c r="G1841" s="23"/>
       <c r="H1841" s="23"/>
       <c r="I1841" s="25" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="J1841" s="25"/>
       <c r="K1841" s="25"/>
@@ -60408,13 +60329,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1842" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1842" s="9"/>
       <c r="B1842" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1842" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1842" s="23" t="s">
         <v>32</v>
@@ -60428,7 +60349,7 @@
       <c r="G1842" s="23"/>
       <c r="H1842" s="23"/>
       <c r="I1842" s="25" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="J1842" s="25"/>
       <c r="K1842" s="25"/>
@@ -60439,10 +60360,10 @@
     <row r="1843" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1843" s="9"/>
       <c r="B1843" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1843" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1843" s="23" t="s">
         <v>32</v>
@@ -60456,7 +60377,7 @@
       <c r="G1843" s="23"/>
       <c r="H1843" s="23"/>
       <c r="I1843" s="25" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="J1843" s="25"/>
       <c r="K1843" s="25"/>
@@ -60467,10 +60388,10 @@
     <row r="1844" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1844" s="9"/>
       <c r="B1844" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1844" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1844" s="23" t="s">
         <v>32</v>
@@ -60484,7 +60405,7 @@
       <c r="G1844" s="23"/>
       <c r="H1844" s="23"/>
       <c r="I1844" s="25" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="J1844" s="25"/>
       <c r="K1844" s="25"/>
@@ -60495,10 +60416,10 @@
     <row r="1845" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1845" s="9"/>
       <c r="B1845" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1845" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1845" s="23" t="s">
         <v>32</v>
@@ -60512,7 +60433,7 @@
       <c r="G1845" s="23"/>
       <c r="H1845" s="23"/>
       <c r="I1845" s="25" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="J1845" s="25"/>
       <c r="K1845" s="25"/>
@@ -60520,13 +60441,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1846" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1846" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1846" s="9"/>
       <c r="B1846" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1846" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1846" s="23" t="s">
         <v>32</v>
@@ -60540,7 +60461,7 @@
       <c r="G1846" s="23"/>
       <c r="H1846" s="23"/>
       <c r="I1846" s="25" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="J1846" s="25"/>
       <c r="K1846" s="25"/>
@@ -60548,13 +60469,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1847" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1847" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1847" s="9"/>
       <c r="B1847" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1847" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1847" s="23" t="s">
         <v>32</v>
@@ -60568,7 +60489,7 @@
       <c r="G1847" s="23"/>
       <c r="H1847" s="23"/>
       <c r="I1847" s="25" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="J1847" s="25"/>
       <c r="K1847" s="25"/>
@@ -60579,10 +60500,10 @@
     <row r="1848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1848" s="9"/>
       <c r="B1848" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1848" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1848" s="23" t="s">
         <v>32</v>
@@ -60596,7 +60517,7 @@
       <c r="G1848" s="23"/>
       <c r="H1848" s="23"/>
       <c r="I1848" s="25" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="J1848" s="25"/>
       <c r="K1848" s="25"/>
@@ -60604,13 +60525,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1849" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1849" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1849" s="9"/>
       <c r="B1849" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1849" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1849" s="23" t="s">
         <v>32</v>
@@ -60624,7 +60545,7 @@
       <c r="G1849" s="23"/>
       <c r="H1849" s="23"/>
       <c r="I1849" s="25" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="J1849" s="25"/>
       <c r="K1849" s="25"/>
@@ -60632,12 +60553,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1850" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1850" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1850" s="9"/>
       <c r="B1850" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1850" s="24"/>
+        <v>1703</v>
+      </c>
+      <c r="C1850" s="23" t="s">
+        <v>1703</v>
+      </c>
       <c r="D1850" s="23" t="s">
         <v>32</v>
       </c>
@@ -60650,7 +60573,7 @@
       <c r="G1850" s="23"/>
       <c r="H1850" s="23"/>
       <c r="I1850" s="25" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="J1850" s="25"/>
       <c r="K1850" s="25"/>
@@ -60661,10 +60584,10 @@
     <row r="1851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1851" s="9"/>
       <c r="B1851" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1851" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1851" s="23" t="s">
         <v>32</v>
@@ -60678,7 +60601,7 @@
       <c r="G1851" s="23"/>
       <c r="H1851" s="23"/>
       <c r="I1851" s="25" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="J1851" s="25"/>
       <c r="K1851" s="25"/>
@@ -60689,14 +60612,16 @@
     <row r="1852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1852" s="9"/>
       <c r="B1852" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1852" s="24"/>
+        <v>1703</v>
+      </c>
+      <c r="C1852" s="23" t="s">
+        <v>1703</v>
+      </c>
       <c r="D1852" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E1852" s="23" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="F1852" s="23" t="s">
         <v>1019</v>
@@ -60704,7 +60629,7 @@
       <c r="G1852" s="23"/>
       <c r="H1852" s="23"/>
       <c r="I1852" s="25" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="J1852" s="25"/>
       <c r="K1852" s="25"/>
@@ -60715,11 +60640,9 @@
     <row r="1853" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1853" s="9"/>
       <c r="B1853" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1853" s="23" t="s">
-        <v>1699</v>
-      </c>
+        <v>1703</v>
+      </c>
+      <c r="C1853" s="24"/>
       <c r="D1853" s="23" t="s">
         <v>32</v>
       </c>
@@ -60732,7 +60655,7 @@
       <c r="G1853" s="23"/>
       <c r="H1853" s="23"/>
       <c r="I1853" s="25" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="J1853" s="25"/>
       <c r="K1853" s="25"/>
@@ -60743,10 +60666,10 @@
     <row r="1854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1854" s="9"/>
       <c r="B1854" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1854" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1854" s="23" t="s">
         <v>32</v>
@@ -60760,7 +60683,7 @@
       <c r="G1854" s="23"/>
       <c r="H1854" s="23"/>
       <c r="I1854" s="25" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="J1854" s="25"/>
       <c r="K1854" s="25"/>
@@ -60771,16 +60694,14 @@
     <row r="1855" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1855" s="9"/>
       <c r="B1855" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1855" s="23" t="s">
-        <v>1699</v>
-      </c>
+        <v>1703</v>
+      </c>
+      <c r="C1855" s="24"/>
       <c r="D1855" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E1855" s="23" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="F1855" s="23" t="s">
         <v>1019</v>
@@ -60788,7 +60709,7 @@
       <c r="G1855" s="23"/>
       <c r="H1855" s="23"/>
       <c r="I1855" s="25" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="J1855" s="25"/>
       <c r="K1855" s="25"/>
@@ -60799,10 +60720,10 @@
     <row r="1856" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1856" s="9"/>
       <c r="B1856" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1856" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1856" s="23" t="s">
         <v>32</v>
@@ -60816,7 +60737,7 @@
       <c r="G1856" s="23"/>
       <c r="H1856" s="23"/>
       <c r="I1856" s="25" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="J1856" s="25"/>
       <c r="K1856" s="25"/>
@@ -60827,13 +60748,13 @@
     <row r="1857" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1857" s="9"/>
       <c r="B1857" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1857" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1857" s="23" t="s">
-        <v>1699</v>
+        <v>32</v>
       </c>
       <c r="E1857" s="23" t="s">
         <v>32</v>
@@ -60844,7 +60765,7 @@
       <c r="G1857" s="23"/>
       <c r="H1857" s="23"/>
       <c r="I1857" s="25" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="J1857" s="25"/>
       <c r="K1857" s="25"/>
@@ -60852,13 +60773,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1858" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1858" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1858" s="9"/>
       <c r="B1858" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1858" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1858" s="23" t="s">
         <v>32</v>
@@ -60872,7 +60793,7 @@
       <c r="G1858" s="23"/>
       <c r="H1858" s="23"/>
       <c r="I1858" s="25" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="J1858" s="25"/>
       <c r="K1858" s="25"/>
@@ -60883,10 +60804,10 @@
     <row r="1859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1859" s="9"/>
       <c r="B1859" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1859" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1859" s="23" t="s">
         <v>32</v>
@@ -60900,7 +60821,7 @@
       <c r="G1859" s="23"/>
       <c r="H1859" s="23"/>
       <c r="I1859" s="25" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="J1859" s="25"/>
       <c r="K1859" s="25"/>
@@ -60911,13 +60832,13 @@
     <row r="1860" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1860" s="9"/>
       <c r="B1860" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1860" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1860" s="23" t="s">
-        <v>32</v>
+        <v>1703</v>
       </c>
       <c r="E1860" s="23" t="s">
         <v>32</v>
@@ -60928,7 +60849,7 @@
       <c r="G1860" s="23"/>
       <c r="H1860" s="23"/>
       <c r="I1860" s="25" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="J1860" s="25"/>
       <c r="K1860" s="25"/>
@@ -60936,13 +60857,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1861" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1861" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1861" s="9"/>
       <c r="B1861" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1861" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1861" s="23" t="s">
         <v>32</v>
@@ -60956,7 +60877,7 @@
       <c r="G1861" s="23"/>
       <c r="H1861" s="23"/>
       <c r="I1861" s="25" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="J1861" s="25"/>
       <c r="K1861" s="25"/>
@@ -60967,10 +60888,10 @@
     <row r="1862" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1862" s="9"/>
       <c r="B1862" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1862" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1862" s="23" t="s">
         <v>32</v>
@@ -60984,7 +60905,7 @@
       <c r="G1862" s="23"/>
       <c r="H1862" s="23"/>
       <c r="I1862" s="25" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="J1862" s="25"/>
       <c r="K1862" s="25"/>
@@ -60995,10 +60916,10 @@
     <row r="1863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1863" s="9"/>
       <c r="B1863" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1863" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1863" s="23" t="s">
         <v>32</v>
@@ -61012,7 +60933,7 @@
       <c r="G1863" s="23"/>
       <c r="H1863" s="23"/>
       <c r="I1863" s="25" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="J1863" s="25"/>
       <c r="K1863" s="25"/>
@@ -61022,26 +60943,28 @@
     </row>
     <row r="1864" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1864" s="9"/>
-      <c r="B1864" s="30" t="s">
-        <v>1707</v>
-      </c>
-      <c r="C1864" s="24"/>
+      <c r="B1864" s="23" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C1864" s="23" t="s">
+        <v>1703</v>
+      </c>
       <c r="D1864" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E1864" s="24"/>
+      <c r="E1864" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F1864" s="23" t="s">
         <v>1019</v>
       </c>
       <c r="G1864" s="23"/>
       <c r="H1864" s="23"/>
       <c r="I1864" s="25" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="J1864" s="25"/>
-      <c r="K1864" s="25" t="s">
-        <v>977</v>
-      </c>
+      <c r="K1864" s="25"/>
       <c r="O1864" s="26" t="s">
         <v>35</v>
       </c>
@@ -61049,10 +60972,10 @@
     <row r="1865" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1865" s="9"/>
       <c r="B1865" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1865" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1865" s="23" t="s">
         <v>32</v>
@@ -61066,7 +60989,7 @@
       <c r="G1865" s="23"/>
       <c r="H1865" s="23"/>
       <c r="I1865" s="25" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="J1865" s="25"/>
       <c r="K1865" s="25"/>
@@ -61077,10 +61000,10 @@
     <row r="1866" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1866" s="9"/>
       <c r="B1866" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1866" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1866" s="23" t="s">
         <v>32</v>
@@ -61094,7 +61017,7 @@
       <c r="G1866" s="23"/>
       <c r="H1866" s="23"/>
       <c r="I1866" s="25" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="J1866" s="25"/>
       <c r="K1866" s="25"/>
@@ -61104,28 +61027,26 @@
     </row>
     <row r="1867" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1867" s="9"/>
-      <c r="B1867" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1867" s="23" t="s">
-        <v>1699</v>
-      </c>
+      <c r="B1867" s="30" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C1867" s="24"/>
       <c r="D1867" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E1867" s="23" t="s">
-        <v>32</v>
-      </c>
+      <c r="E1867" s="24"/>
       <c r="F1867" s="23" t="s">
         <v>1019</v>
       </c>
       <c r="G1867" s="23"/>
       <c r="H1867" s="23"/>
       <c r="I1867" s="25" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="J1867" s="25"/>
-      <c r="K1867" s="25"/>
+      <c r="K1867" s="25" t="s">
+        <v>977</v>
+      </c>
       <c r="O1867" s="26" t="s">
         <v>35</v>
       </c>
@@ -61133,10 +61054,10 @@
     <row r="1868" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1868" s="9"/>
       <c r="B1868" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1868" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1868" s="23" t="s">
         <v>32</v>
@@ -61150,7 +61071,7 @@
       <c r="G1868" s="23"/>
       <c r="H1868" s="23"/>
       <c r="I1868" s="25" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="J1868" s="25"/>
       <c r="K1868" s="25"/>
@@ -61161,10 +61082,10 @@
     <row r="1869" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1869" s="9"/>
       <c r="B1869" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1869" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1869" s="23" t="s">
         <v>32</v>
@@ -61178,7 +61099,7 @@
       <c r="G1869" s="23"/>
       <c r="H1869" s="23"/>
       <c r="I1869" s="25" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="J1869" s="25"/>
       <c r="K1869" s="25"/>
@@ -61189,10 +61110,10 @@
     <row r="1870" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1870" s="9"/>
       <c r="B1870" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1870" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1870" s="23" t="s">
         <v>32</v>
@@ -61206,7 +61127,7 @@
       <c r="G1870" s="23"/>
       <c r="H1870" s="23"/>
       <c r="I1870" s="25" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="J1870" s="25"/>
       <c r="K1870" s="25"/>
@@ -61214,13 +61135,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1871" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1871" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1871" s="9"/>
       <c r="B1871" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1871" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1871" s="23" t="s">
         <v>32</v>
@@ -61234,7 +61155,7 @@
       <c r="G1871" s="23"/>
       <c r="H1871" s="23"/>
       <c r="I1871" s="25" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="J1871" s="25"/>
       <c r="K1871" s="25"/>
@@ -61245,10 +61166,10 @@
     <row r="1872" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1872" s="9"/>
       <c r="B1872" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1872" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1872" s="23" t="s">
         <v>32</v>
@@ -61262,7 +61183,7 @@
       <c r="G1872" s="23"/>
       <c r="H1872" s="23"/>
       <c r="I1872" s="25" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="J1872" s="25"/>
       <c r="K1872" s="25"/>
@@ -61273,10 +61194,10 @@
     <row r="1873" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1873" s="9"/>
       <c r="B1873" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1873" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1873" s="23" t="s">
         <v>32</v>
@@ -61290,7 +61211,7 @@
       <c r="G1873" s="23"/>
       <c r="H1873" s="23"/>
       <c r="I1873" s="25" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="J1873" s="25"/>
       <c r="K1873" s="25"/>
@@ -61298,13 +61219,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1874" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1874" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1874" s="9"/>
       <c r="B1874" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1874" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1874" s="23" t="s">
         <v>32</v>
@@ -61318,7 +61239,7 @@
       <c r="G1874" s="23"/>
       <c r="H1874" s="23"/>
       <c r="I1874" s="25" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="J1874" s="25"/>
       <c r="K1874" s="25"/>
@@ -61327,11 +61248,12 @@
       </c>
     </row>
     <row r="1875" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1875" s="9"/>
       <c r="B1875" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1875" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1875" s="23" t="s">
         <v>32</v>
@@ -61345,7 +61267,7 @@
       <c r="G1875" s="23"/>
       <c r="H1875" s="23"/>
       <c r="I1875" s="25" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="J1875" s="25"/>
       <c r="K1875" s="25"/>
@@ -61354,11 +61276,12 @@
       </c>
     </row>
     <row r="1876" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1876" s="9"/>
       <c r="B1876" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1876" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1876" s="23" t="s">
         <v>32</v>
@@ -61372,7 +61295,7 @@
       <c r="G1876" s="23"/>
       <c r="H1876" s="23"/>
       <c r="I1876" s="25" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="J1876" s="25"/>
       <c r="K1876" s="25"/>
@@ -61380,12 +61303,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1877" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1877" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1877" s="9"/>
       <c r="B1877" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1877" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1877" s="23" t="s">
         <v>32</v>
@@ -61399,7 +61323,7 @@
       <c r="G1877" s="23"/>
       <c r="H1877" s="23"/>
       <c r="I1877" s="25" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="J1877" s="25"/>
       <c r="K1877" s="25"/>
@@ -61407,12 +61331,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1878" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1878" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1878" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1878" s="23" t="s">
         <v>32</v>
@@ -61426,7 +61350,7 @@
       <c r="G1878" s="23"/>
       <c r="H1878" s="23"/>
       <c r="I1878" s="25" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="J1878" s="25"/>
       <c r="K1878" s="25"/>
@@ -61434,12 +61358,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1879" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1879" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1879" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1879" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1879" s="23" t="s">
         <v>32</v>
@@ -61453,7 +61377,7 @@
       <c r="G1879" s="23"/>
       <c r="H1879" s="23"/>
       <c r="I1879" s="25" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="J1879" s="25"/>
       <c r="K1879" s="25"/>
@@ -61461,12 +61385,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1880" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1880" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1880" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1880" s="23" t="s">
         <v>32</v>
@@ -61480,7 +61404,7 @@
       <c r="G1880" s="23"/>
       <c r="H1880" s="23"/>
       <c r="I1880" s="25" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="J1880" s="25"/>
       <c r="K1880" s="25"/>
@@ -61488,12 +61412,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1881" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1881" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1881" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1881" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1881" s="23" t="s">
         <v>32</v>
@@ -61507,7 +61431,7 @@
       <c r="G1881" s="23"/>
       <c r="H1881" s="23"/>
       <c r="I1881" s="25" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="J1881" s="25"/>
       <c r="K1881" s="25"/>
@@ -61517,10 +61441,10 @@
     </row>
     <row r="1882" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1882" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1882" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1882" s="23" t="s">
         <v>32</v>
@@ -61534,7 +61458,7 @@
       <c r="G1882" s="23"/>
       <c r="H1882" s="23"/>
       <c r="I1882" s="25" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="J1882" s="25"/>
       <c r="K1882" s="25"/>
@@ -61542,12 +61466,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1883" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1883" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1883" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1883" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1883" s="23" t="s">
         <v>32</v>
@@ -61561,7 +61485,7 @@
       <c r="G1883" s="23"/>
       <c r="H1883" s="23"/>
       <c r="I1883" s="25" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="J1883" s="25"/>
       <c r="K1883" s="25"/>
@@ -61569,12 +61493,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1884" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1884" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1884" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1884" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1884" s="23" t="s">
         <v>32</v>
@@ -61588,7 +61512,7 @@
       <c r="G1884" s="23"/>
       <c r="H1884" s="23"/>
       <c r="I1884" s="25" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="J1884" s="25"/>
       <c r="K1884" s="25"/>
@@ -61596,12 +61520,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1885" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1885" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1885" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1885" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1885" s="23" t="s">
         <v>32</v>
@@ -61615,7 +61539,7 @@
       <c r="G1885" s="23"/>
       <c r="H1885" s="23"/>
       <c r="I1885" s="25" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="J1885" s="25"/>
       <c r="K1885" s="25"/>
@@ -61623,37 +61547,39 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1886" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1886" s="30" t="s">
+    <row r="1886" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1886" s="23" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C1886" s="23" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D1886" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1886" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1886" s="23" t="s">
         <v>1019</v>
       </c>
-      <c r="C1886" s="30"/>
-      <c r="D1886" s="30" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E1886" s="30"/>
-      <c r="F1886" s="30" t="s">
-        <v>1019</v>
-      </c>
-      <c r="G1886" s="30"/>
-      <c r="H1886" s="30"/>
-      <c r="I1886" s="31" t="s">
-        <v>1861</v>
-      </c>
-      <c r="J1886" s="31"/>
-      <c r="K1886" s="31" t="s">
+      <c r="G1886" s="23"/>
+      <c r="H1886" s="23"/>
+      <c r="I1886" s="25" t="s">
         <v>1862</v>
       </c>
+      <c r="J1886" s="25"/>
+      <c r="K1886" s="25"/>
       <c r="O1886" s="26" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="1887" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1887" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="C1887" s="23" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D1887" s="23" t="s">
         <v>32</v>
@@ -61662,7 +61588,7 @@
         <v>32</v>
       </c>
       <c r="F1887" s="23" t="s">
-        <v>1736</v>
+        <v>1019</v>
       </c>
       <c r="G1887" s="23"/>
       <c r="H1887" s="23"/>
@@ -61670,68 +61596,144 @@
         <v>1863</v>
       </c>
       <c r="J1887" s="25"/>
-      <c r="K1887" s="25" t="s">
+      <c r="K1887" s="25"/>
+      <c r="O1887" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1888" s="23" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C1888" s="23" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D1888" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1888" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1888" s="23" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G1888" s="23"/>
+      <c r="H1888" s="23"/>
+      <c r="I1888" s="25" t="s">
         <v>1864</v>
       </c>
-      <c r="O1887" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="1888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1888" s="30" t="s">
+      <c r="J1888" s="25"/>
+      <c r="K1888" s="25"/>
+      <c r="O1888" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1889" s="30" t="s">
         <v>1019</v>
       </c>
-      <c r="C1888" s="30"/>
-      <c r="D1888" s="30" t="s">
+      <c r="C1889" s="30"/>
+      <c r="D1889" s="30" t="s">
         <v>1019</v>
       </c>
-      <c r="E1888" s="30"/>
-      <c r="F1888" s="30" t="s">
+      <c r="E1889" s="30"/>
+      <c r="F1889" s="30" t="s">
         <v>1019</v>
       </c>
-      <c r="G1888" s="30"/>
-      <c r="H1888" s="30"/>
-      <c r="I1888" s="31" t="s">
+      <c r="G1889" s="30"/>
+      <c r="H1889" s="30"/>
+      <c r="I1889" s="31" t="s">
         <v>1865</v>
       </c>
-      <c r="J1888" s="31"/>
-      <c r="K1888" s="31" t="s">
-        <v>1862</v>
-      </c>
-      <c r="O1888" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="1889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1889" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1889" s="23" t="s">
-        <v>1699</v>
-      </c>
-      <c r="D1889" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1889" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1889" s="23" t="s">
+      <c r="J1889" s="31"/>
+      <c r="K1889" s="31" t="s">
+        <v>1866</v>
+      </c>
+      <c r="O1889" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1890" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1890" s="23" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C1890" s="23" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D1890" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1890" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1890" s="23" t="s">
+        <v>1740</v>
+      </c>
+      <c r="G1890" s="23"/>
+      <c r="H1890" s="23"/>
+      <c r="I1890" s="25" t="s">
+        <v>1867</v>
+      </c>
+      <c r="J1890" s="25"/>
+      <c r="K1890" s="25" t="s">
+        <v>1868</v>
+      </c>
+      <c r="O1890" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1891" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1891" s="30" t="s">
         <v>1019</v>
       </c>
-      <c r="G1889" s="23"/>
-      <c r="H1889" s="23"/>
-      <c r="I1889" s="25" t="s">
+      <c r="C1891" s="30"/>
+      <c r="D1891" s="30" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E1891" s="30"/>
+      <c r="F1891" s="30" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G1891" s="30"/>
+      <c r="H1891" s="30"/>
+      <c r="I1891" s="31" t="s">
+        <v>1869</v>
+      </c>
+      <c r="J1891" s="31"/>
+      <c r="K1891" s="31" t="s">
         <v>1866</v>
       </c>
-      <c r="J1889" s="25"/>
-      <c r="K1889" s="25"/>
-      <c r="O1889" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="O1891" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1892" s="23" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C1892" s="23" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D1892" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1892" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1892" s="23" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G1892" s="23"/>
+      <c r="H1892" s="23"/>
+      <c r="I1892" s="25" t="s">
+        <v>1870</v>
+      </c>
+      <c r="J1892" s="25"/>
+      <c r="K1892" s="25"/>
+      <c r="O1892" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
